--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>_ID</t>
   </si>
@@ -232,6 +232,30 @@
   </si>
   <si>
     <t>火球造成伤害的时候，对周围4个单位造成一半的伤害</t>
+  </si>
+  <si>
+    <t>基础剑术·吸血</t>
+  </si>
+  <si>
+    <t>附带10%吸血效果</t>
+  </si>
+  <si>
+    <t>基础剑术·重击</t>
+  </si>
+  <si>
+    <t>攻击额外造成1.5倍伤害</t>
+  </si>
+  <si>
+    <t>火符·连环</t>
+  </si>
+  <si>
+    <t>火符连续额外施法一次</t>
+  </si>
+  <si>
+    <t>火符·弹射</t>
+  </si>
+  <si>
+    <t>火符攻击目标的时候，弹射周围随机目标，造成80%伤害</t>
   </si>
 </sst>
 </file>
@@ -1201,22 +1225,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:N7"/>
+  <dimension ref="C3:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="23.625" style="2" customWidth="1"/>
+    <col min="1" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="11.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="8" width="14.625" style="2" customWidth="1"/>
-    <col min="9" max="11" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.25" style="2" customWidth="1"/>
+    <col min="9" max="10" width="10.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="13" style="2" customWidth="1"/>
     <col min="14" max="15" width="7.875" style="2" customWidth="1"/>
     <col min="16" max="21" width="9" style="2"/>
@@ -1405,7 +1431,150 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>102</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14">
+      <c r="C8" s="2">
+        <v>10011</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>10</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14">
+      <c r="C9" s="2">
+        <v>10012</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14">
+      <c r="C10" s="2">
+        <v>30011</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3001</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14">
+      <c r="C11" s="2">
+        <v>30012</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3001</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>80</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>_ID</t>
   </si>
@@ -177,6 +177,15 @@
     <t>固定伤害</t>
   </si>
   <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>暴击倍率</t>
+  </si>
+  <si>
+    <t>伤害加成</t>
+  </si>
+  <si>
     <t>附带效果</t>
   </si>
   <si>
@@ -211,6 +220,15 @@
   </si>
   <si>
     <t>Damage</t>
+  </si>
+  <si>
+    <t>CritRate</t>
+  </si>
+  <si>
+    <t>CritDamage</t>
+  </si>
+  <si>
+    <t>DamageIncrea</t>
   </si>
   <si>
     <t>EffectId</t>
@@ -1225,32 +1243,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:N11"/>
+  <dimension ref="C3:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
     <col min="5" max="5" width="11.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="39.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="8" width="14.625" style="2" customWidth="1"/>
     <col min="9" max="10" width="10.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="10.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13" style="2" customWidth="1"/>
-    <col min="14" max="15" width="7.875" style="2" customWidth="1"/>
-    <col min="16" max="21" width="9" style="2"/>
-    <col min="22" max="22" width="19.25" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="2"/>
+    <col min="13" max="16" width="13" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.875" style="2" customWidth="1"/>
+    <col min="19" max="24" width="9" style="2"/>
+    <col min="25" max="25" width="19.25" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14">
+    <row r="3" spans="3:17">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1287,84 +1305,111 @@
       <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="O3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="3:14">
+    <row r="4" spans="3:17">
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="3:14">
+    <row r="5" spans="3:17">
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:14">
+    <row r="6" s="1" customFormat="1" spans="3:17">
       <c r="C6" s="1">
         <v>20011</v>
       </c>
@@ -1372,10 +1417,10 @@
         <v>2001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1398,8 +1443,17 @@
       <c r="N6" s="1">
         <v>0</v>
       </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:14">
+    <row r="7" s="1" customFormat="1" spans="3:17">
       <c r="C7" s="1">
         <v>20012</v>
       </c>
@@ -1407,10 +1461,10 @@
         <v>2001</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -1433,8 +1487,17 @@
       <c r="N7" s="1">
         <v>0</v>
       </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="3:14">
+    <row r="8" spans="3:17">
       <c r="C8" s="2">
         <v>10011</v>
       </c>
@@ -1442,10 +1505,10 @@
         <v>1001</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1465,11 +1528,20 @@
       <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="3:14">
+    <row r="9" spans="3:17">
       <c r="C9" s="2">
         <v>10012</v>
       </c>
@@ -1477,10 +1549,10 @@
         <v>1001</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1500,11 +1572,20 @@
       <c r="M9" s="2">
         <v>0</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
         <v>2201</v>
       </c>
     </row>
-    <row r="10" spans="3:14">
+    <row r="10" spans="3:17">
       <c r="C10" s="2">
         <v>30011</v>
       </c>
@@ -1512,10 +1593,10 @@
         <v>3001</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1535,11 +1616,20 @@
       <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:14">
+    <row r="11" spans="3:17">
       <c r="C11" s="2">
         <v>30012</v>
       </c>
@@ -1547,10 +1637,10 @@
         <v>3001</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1573,7 +1663,16 @@
       <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>_ID</t>
   </si>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>火球造成伤害的时候，对周围4个单位造成一半的伤害</t>
+  </si>
+  <si>
+    <t>雷电·狂雷</t>
+  </si>
+  <si>
+    <t>雷电术伤害系数提升100%</t>
+  </si>
+  <si>
+    <t>雷电·爆雷</t>
+  </si>
+  <si>
+    <t>雷电术造成伤害的时候，增加100%暴击率</t>
   </si>
   <si>
     <t>基础剑术·吸血</t>
@@ -1243,19 +1255,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Q11"/>
+  <dimension ref="C3:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
     <col min="5" max="5" width="11.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="8" width="14.625" style="2" customWidth="1"/>
     <col min="9" max="10" width="10.375" style="2" customWidth="1"/>
@@ -1497,35 +1509,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:17">
-      <c r="C8" s="2">
-        <v>10011</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E8" s="2" t="s">
+    <row r="8" s="1" customFormat="1" spans="3:17">
+      <c r="C8" s="1">
+        <v>20021</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>10</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>100</v>
+      </c>
+      <c r="M8" s="1">
         <v>0</v>
       </c>
       <c r="N8" s="1">
@@ -1537,43 +1549,43 @@
       <c r="P8" s="1">
         <v>0</v>
       </c>
-      <c r="Q8" s="2">
-        <v>101</v>
+      <c r="Q8" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:17">
-      <c r="C9" s="2">
-        <v>10012</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E9" s="2" t="s">
+    <row r="9" s="1" customFormat="1" spans="3:17">
+      <c r="C9" s="1">
+        <v>20022</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>50</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -1581,16 +1593,16 @@
       <c r="P9" s="1">
         <v>0</v>
       </c>
-      <c r="Q9" s="2">
-        <v>2201</v>
+      <c r="Q9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:17">
       <c r="C10" s="2">
-        <v>30011</v>
+        <v>10011</v>
       </c>
       <c r="D10" s="2">
-        <v>3001</v>
+        <v>1001</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>40</v>
@@ -1611,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -1626,15 +1638,15 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="3:17">
       <c r="C11" s="2">
-        <v>30012</v>
+        <v>10012</v>
       </c>
       <c r="D11" s="2">
-        <v>3001</v>
+        <v>1001</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>42</v>
@@ -1651,28 +1663,116 @@
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
       <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>50</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17">
+      <c r="C12" s="2">
+        <v>30011</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3001</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17">
+      <c r="C13" s="2">
+        <v>30012</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3001</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
         <v>1</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L13" s="2">
         <v>80</v>
       </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>_ID</t>
   </si>
@@ -243,25 +243,25 @@
     <t>火球·豪火球</t>
   </si>
   <si>
-    <t>小火球进阶大火球了，这下牛逼了，伤害系数提升100%</t>
+    <t>技能系数提升100%</t>
   </si>
   <si>
     <t>火球·爆裂术</t>
   </si>
   <si>
-    <t>火球造成伤害的时候，对周围4个单位造成一半的伤害</t>
+    <t>额外造成0.5倍伤害</t>
   </si>
   <si>
     <t>雷电·狂雷</t>
   </si>
   <si>
-    <t>雷电术伤害系数提升100%</t>
+    <t>伤害系数提升100%</t>
   </si>
   <si>
     <t>雷电·爆雷</t>
   </si>
   <si>
-    <t>雷电术造成伤害的时候，增加100%暴击率</t>
+    <t>增加100%暴击率</t>
   </si>
   <si>
     <t>基础剑术·吸血</t>
@@ -273,19 +273,16 @@
     <t>基础剑术·重击</t>
   </si>
   <si>
-    <t>攻击额外造成1.5倍伤害</t>
-  </si>
-  <si>
     <t>火符·连环</t>
   </si>
   <si>
-    <t>火符连续额外施法一次</t>
+    <t>连续额外施法一次</t>
   </si>
   <si>
     <t>火符·弹射</t>
   </si>
   <si>
-    <t>火符攻击目标的时候，弹射周围随机目标，造成80%伤害</t>
+    <t>弹射周围目标，造成80%伤害</t>
   </si>
 </sst>
 </file>
@@ -1260,14 +1257,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
     <col min="5" max="5" width="11.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="8" width="14.625" style="2" customWidth="1"/>
     <col min="9" max="10" width="10.375" style="2" customWidth="1"/>
@@ -1652,7 +1649,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1693,10 +1690,10 @@
         <v>3001</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1737,10 +1734,10 @@
         <v>3001</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -1257,7 +1257,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="批量配置" sheetId="1" r:id="rId1"/>
+    <sheet name="手动配置" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -141,8 +142,136 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ID* 10 + level
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 主动
+2 被动
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 以自己为圆心
+1 距离1格</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+FrontRow 直线
+FullBox 十字
+Square 矩形
+Diamond 菱形
+FullBox 全图</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+攻击力系数（百分比），额外附加固定伤害值</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="151">
   <si>
     <t>_ID</t>
   </si>
@@ -186,9 +315,18 @@
     <t>伤害加成</t>
   </si>
   <si>
+    <t>攻击加成</t>
+  </si>
+  <si>
+    <t>最终加成</t>
+  </si>
+  <si>
     <t>附带效果</t>
   </si>
   <si>
+    <t>效果参数</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -231,58 +369,361 @@
     <t>DamageIncrea</t>
   </si>
   <si>
+    <t>AttrIncrea</t>
+  </si>
+  <si>
+    <t>FinalIncrea</t>
+  </si>
+  <si>
     <t>EffectId</t>
   </si>
   <si>
+    <t>EffectParam</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>火球·豪火球</t>
-  </si>
-  <si>
-    <t>技能系数提升100%</t>
-  </si>
-  <si>
-    <t>火球·爆裂术</t>
-  </si>
-  <si>
-    <t>额外造成0.5倍伤害</t>
-  </si>
-  <si>
-    <t>雷电·狂雷</t>
-  </si>
-  <si>
-    <t>伤害系数提升100%</t>
-  </si>
-  <si>
-    <t>雷电·爆雷</t>
-  </si>
-  <si>
-    <t>增加100%暴击率</t>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>基础剑术·强攻</t>
+  </si>
+  <si>
+    <t>技能提高50%攻击</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>基础剑术·重击</t>
+  </si>
+  <si>
+    <t>技能提高50%最终伤害</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>刺杀剑术·强攻</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>刺杀剑术·重击</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>半月弯刀·强攻</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>半月弯刀·重击</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>武力盾·强攻</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>武力盾·重击</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>武力精通·强攻</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>武力精通·重击</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>野蛮撞击·强攻</t>
+  </si>
+  <si>
+    <t>10012</t>
+  </si>
+  <si>
+    <t>野蛮撞击·重击</t>
+  </si>
+  <si>
+    <t>10013</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>烈火剑法·强攻</t>
+  </si>
+  <si>
+    <t>10014</t>
+  </si>
+  <si>
+    <t>烈火剑法·重击</t>
+  </si>
+  <si>
+    <t>10015</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>小火球·强攻</t>
+  </si>
+  <si>
+    <t>10016</t>
+  </si>
+  <si>
+    <t>小火球·重击</t>
+  </si>
+  <si>
+    <t>10017</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>雷电术·强攻</t>
+  </si>
+  <si>
+    <t>10018</t>
+  </si>
+  <si>
+    <t>雷电术·重击</t>
+  </si>
+  <si>
+    <t>10019</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>火墙·强攻</t>
+  </si>
+  <si>
+    <t>10020</t>
+  </si>
+  <si>
+    <t>火墙·重击</t>
+  </si>
+  <si>
+    <t>10021</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>魔法盾·强攻</t>
+  </si>
+  <si>
+    <t>10022</t>
+  </si>
+  <si>
+    <t>魔法盾·重击</t>
+  </si>
+  <si>
+    <t>10023</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>法术精通·强攻</t>
+  </si>
+  <si>
+    <t>10024</t>
+  </si>
+  <si>
+    <t>法术精通·重击</t>
+  </si>
+  <si>
+    <t>10025</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>抗拒光环·强攻</t>
+  </si>
+  <si>
+    <t>10026</t>
+  </si>
+  <si>
+    <t>抗拒光环·重击</t>
+  </si>
+  <si>
+    <t>10027</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>冰咆哮·强攻</t>
+  </si>
+  <si>
+    <t>10028</t>
+  </si>
+  <si>
+    <t>冰咆哮·重击</t>
+  </si>
+  <si>
+    <t>10029</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>治疗术·强攻</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>治疗术·重击</t>
+  </si>
+  <si>
+    <t>10031</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>施毒术·强攻</t>
+  </si>
+  <si>
+    <t>10032</t>
+  </si>
+  <si>
+    <t>施毒术·重击</t>
+  </si>
+  <si>
+    <t>10033</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>召唤骷髅·强攻</t>
+  </si>
+  <si>
+    <t>10034</t>
+  </si>
+  <si>
+    <t>召唤骷髅·重击</t>
+  </si>
+  <si>
+    <t>10035</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>道力盾·强攻</t>
+  </si>
+  <si>
+    <t>10036</t>
+  </si>
+  <si>
+    <t>道力盾·重击</t>
+  </si>
+  <si>
+    <t>10037</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>道力精通·强攻</t>
+  </si>
+  <si>
+    <t>10038</t>
+  </si>
+  <si>
+    <t>道力精通·重击</t>
+  </si>
+  <si>
+    <t>10039</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>禁锢术·强攻</t>
+  </si>
+  <si>
+    <t>10040</t>
+  </si>
+  <si>
+    <t>禁锢术·重击</t>
+  </si>
+  <si>
+    <t>10041</t>
+  </si>
+  <si>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>召唤神兽·强攻</t>
+  </si>
+  <si>
+    <t>10042</t>
+  </si>
+  <si>
+    <t>召唤神兽·重击</t>
   </si>
   <si>
     <t>基础剑术·吸血</t>
   </si>
   <si>
-    <t>附带10%吸血效果</t>
-  </si>
-  <si>
-    <t>基础剑术·重击</t>
-  </si>
-  <si>
-    <t>火符·连环</t>
-  </si>
-  <si>
-    <t>连续额外施法一次</t>
-  </si>
-  <si>
-    <t>火符·弹射</t>
-  </si>
-  <si>
-    <t>弹射周围目标，造成80%伤害</t>
+    <t>附带20%吸血效果</t>
   </si>
 </sst>
 </file>
@@ -928,11 +1369,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1252,526 +1693,2593 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Q13"/>
+  <dimension ref="C3:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="11.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="44.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="14.625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="10.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="2" customWidth="1"/>
-    <col min="13" max="16" width="13" style="2" customWidth="1"/>
-    <col min="17" max="18" width="7.875" style="2" customWidth="1"/>
-    <col min="19" max="24" width="9" style="2"/>
-    <col min="25" max="25" width="19.25" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="2"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="1" customWidth="1"/>
+    <col min="13" max="18" width="13" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="1" customWidth="1"/>
+    <col min="21" max="26" width="9" style="1"/>
+    <col min="27" max="27" width="19.25" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:17">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="3:20">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="3:17">
-      <c r="C4" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+    </row>
+    <row r="4" spans="3:20">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="3:17">
-      <c r="C5" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:17">
-      <c r="C6" s="1">
-        <v>20011</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="Q4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="R4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="S4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20">
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="3:21">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6"/>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="3:21">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="3:21">
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="3:21">
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9"/>
+    </row>
+    <row r="10" spans="3:21">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10"/>
+    </row>
+    <row r="11" spans="3:21">
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11"/>
+    </row>
+    <row r="12" spans="3:21">
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12"/>
+    </row>
+    <row r="13" spans="3:21">
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:21">
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:21">
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:21">
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16" t="s">
+        <v>42</v>
+      </c>
+      <c r="T16" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:21">
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17" t="s">
+        <v>44</v>
+      </c>
+      <c r="T17" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:21">
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" t="s">
+        <v>42</v>
+      </c>
+      <c r="U18"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:21">
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" t="s">
+        <v>44</v>
+      </c>
+      <c r="T19" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19"/>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:21">
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" t="s">
+        <v>44</v>
+      </c>
+      <c r="S20" t="s">
+        <v>42</v>
+      </c>
+      <c r="T20" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:21">
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" t="s">
+        <v>42</v>
+      </c>
+      <c r="S21" t="s">
+        <v>44</v>
+      </c>
+      <c r="T21" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:21">
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>42</v>
+      </c>
+      <c r="R22" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22" t="s">
+        <v>42</v>
+      </c>
+      <c r="T22" t="s">
+        <v>42</v>
+      </c>
+      <c r="U22"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:21">
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" t="s">
+        <v>42</v>
+      </c>
+      <c r="S23" t="s">
+        <v>44</v>
+      </c>
+      <c r="T23" t="s">
+        <v>42</v>
+      </c>
+      <c r="U23"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:21">
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R24" t="s">
+        <v>44</v>
+      </c>
+      <c r="S24" t="s">
+        <v>42</v>
+      </c>
+      <c r="T24" t="s">
+        <v>42</v>
+      </c>
+      <c r="U24"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:21">
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R25" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" t="s">
+        <v>44</v>
+      </c>
+      <c r="T25" t="s">
+        <v>42</v>
+      </c>
+      <c r="U25"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:21">
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>42</v>
+      </c>
+      <c r="R26" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" t="s">
+        <v>42</v>
+      </c>
+      <c r="T26" t="s">
+        <v>42</v>
+      </c>
+      <c r="U26"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:21">
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>42</v>
+      </c>
+      <c r="R27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T27" t="s">
+        <v>42</v>
+      </c>
+      <c r="U27"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:21">
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
         <v>100</v>
       </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:17">
-      <c r="C7" s="1">
-        <v>20012</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:17">
-      <c r="C8" s="1">
-        <v>20021</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2002</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="E28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>42</v>
+      </c>
+      <c r="R28" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28" t="s">
+        <v>42</v>
+      </c>
+      <c r="T28" t="s">
+        <v>42</v>
+      </c>
+      <c r="U28"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:21">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
         <v>100</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:17">
-      <c r="C9" s="1">
-        <v>20022</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2002</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>100</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:17">
-      <c r="C10" s="2">
-        <v>10011</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>42</v>
+      </c>
+      <c r="R29" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" t="s">
+        <v>44</v>
+      </c>
+      <c r="T29" t="s">
+        <v>42</v>
+      </c>
+      <c r="U29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:21">
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>10</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="3:17">
-      <c r="C11" s="2">
-        <v>10012</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>50</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="12" spans="3:17">
-      <c r="C12" s="2">
-        <v>30011</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3001</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="L30" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:17">
-      <c r="C13" s="2">
-        <v>30012</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3001</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>80</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
+      <c r="S30" t="s">
+        <v>42</v>
+      </c>
+      <c r="T30" t="s">
+        <v>42</v>
+      </c>
+      <c r="U30"/>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:21">
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" t="s">
+        <v>42</v>
+      </c>
+      <c r="S31" t="s">
+        <v>44</v>
+      </c>
+      <c r="T31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U31"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:21">
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>42</v>
+      </c>
+      <c r="R32" t="s">
+        <v>44</v>
+      </c>
+      <c r="S32" t="s">
+        <v>42</v>
+      </c>
+      <c r="T32" t="s">
+        <v>42</v>
+      </c>
+      <c r="U32"/>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:21">
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33" t="s">
+        <v>42</v>
+      </c>
+      <c r="N33" t="s">
+        <v>48</v>
+      </c>
+      <c r="O33" t="s">
+        <v>42</v>
+      </c>
+      <c r="P33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S33" t="s">
+        <v>44</v>
+      </c>
+      <c r="T33" t="s">
+        <v>42</v>
+      </c>
+      <c r="U33"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:21">
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>42</v>
+      </c>
+      <c r="R34" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" t="s">
+        <v>42</v>
+      </c>
+      <c r="T34" t="s">
+        <v>42</v>
+      </c>
+      <c r="U34"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:21">
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>42</v>
+      </c>
+      <c r="R35" t="s">
+        <v>42</v>
+      </c>
+      <c r="S35" t="s">
+        <v>44</v>
+      </c>
+      <c r="T35" t="s">
+        <v>42</v>
+      </c>
+      <c r="U35"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:21">
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>42</v>
+      </c>
+      <c r="R36" t="s">
+        <v>44</v>
+      </c>
+      <c r="S36" t="s">
+        <v>42</v>
+      </c>
+      <c r="T36" t="s">
+        <v>42</v>
+      </c>
+      <c r="U36"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:21">
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>42</v>
+      </c>
+      <c r="R37" t="s">
+        <v>42</v>
+      </c>
+      <c r="S37" t="s">
+        <v>44</v>
+      </c>
+      <c r="T37" t="s">
+        <v>42</v>
+      </c>
+      <c r="U37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:21">
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>42</v>
+      </c>
+      <c r="R38" t="s">
+        <v>44</v>
+      </c>
+      <c r="S38" t="s">
+        <v>42</v>
+      </c>
+      <c r="T38" t="s">
+        <v>42</v>
+      </c>
+      <c r="U38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:21">
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" t="s">
+        <v>48</v>
+      </c>
+      <c r="O39" t="s">
+        <v>42</v>
+      </c>
+      <c r="P39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S39" t="s">
+        <v>44</v>
+      </c>
+      <c r="T39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U39"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:21">
+      <c r="C40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" t="s">
+        <v>42</v>
+      </c>
+      <c r="P40" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>42</v>
+      </c>
+      <c r="R40" t="s">
+        <v>44</v>
+      </c>
+      <c r="S40" t="s">
+        <v>42</v>
+      </c>
+      <c r="T40" t="s">
+        <v>42</v>
+      </c>
+      <c r="U40"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:21">
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" t="s">
+        <v>42</v>
+      </c>
+      <c r="N41" t="s">
+        <v>48</v>
+      </c>
+      <c r="O41" t="s">
+        <v>42</v>
+      </c>
+      <c r="P41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>42</v>
+      </c>
+      <c r="R41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S41" t="s">
+        <v>44</v>
+      </c>
+      <c r="T41" t="s">
+        <v>42</v>
+      </c>
+      <c r="U41"/>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="3:21">
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" t="s">
+        <v>42</v>
+      </c>
+      <c r="O42" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>42</v>
+      </c>
+      <c r="R42" t="s">
+        <v>44</v>
+      </c>
+      <c r="S42" t="s">
+        <v>42</v>
+      </c>
+      <c r="T42" t="s">
+        <v>42</v>
+      </c>
+      <c r="U42"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="3:21">
+      <c r="C43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" t="s">
+        <v>48</v>
+      </c>
+      <c r="O43" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>42</v>
+      </c>
+      <c r="R43" t="s">
+        <v>42</v>
+      </c>
+      <c r="S43" t="s">
+        <v>44</v>
+      </c>
+      <c r="T43" t="s">
+        <v>42</v>
+      </c>
+      <c r="U43"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="3:21">
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" t="s">
+        <v>43</v>
+      </c>
+      <c r="L44" t="s">
+        <v>42</v>
+      </c>
+      <c r="M44" t="s">
+        <v>42</v>
+      </c>
+      <c r="N44" t="s">
+        <v>42</v>
+      </c>
+      <c r="O44" t="s">
+        <v>42</v>
+      </c>
+      <c r="P44" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>42</v>
+      </c>
+      <c r="R44" t="s">
+        <v>44</v>
+      </c>
+      <c r="S44" t="s">
+        <v>42</v>
+      </c>
+      <c r="T44" t="s">
+        <v>42</v>
+      </c>
+      <c r="U44"/>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="3:21">
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" t="s">
+        <v>42</v>
+      </c>
+      <c r="K45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45" t="s">
+        <v>42</v>
+      </c>
+      <c r="M45" t="s">
+        <v>42</v>
+      </c>
+      <c r="N45" t="s">
+        <v>48</v>
+      </c>
+      <c r="O45" t="s">
+        <v>42</v>
+      </c>
+      <c r="P45" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>42</v>
+      </c>
+      <c r="R45" t="s">
+        <v>42</v>
+      </c>
+      <c r="S45" t="s">
+        <v>44</v>
+      </c>
+      <c r="T45" t="s">
+        <v>42</v>
+      </c>
+      <c r="U45"/>
+    </row>
+    <row r="46" ht="24" customHeight="1" spans="3:21">
+      <c r="C46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" t="s">
+        <v>42</v>
+      </c>
+      <c r="M46" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" t="s">
+        <v>42</v>
+      </c>
+      <c r="O46" t="s">
+        <v>42</v>
+      </c>
+      <c r="P46" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>42</v>
+      </c>
+      <c r="R46" t="s">
+        <v>44</v>
+      </c>
+      <c r="S46" t="s">
+        <v>42</v>
+      </c>
+      <c r="T46" t="s">
+        <v>42</v>
+      </c>
+      <c r="U46"/>
+    </row>
+    <row r="47" ht="24" customHeight="1" spans="3:21">
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" t="s">
+        <v>42</v>
+      </c>
+      <c r="M47" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" t="s">
+        <v>48</v>
+      </c>
+      <c r="O47" t="s">
+        <v>42</v>
+      </c>
+      <c r="P47" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>42</v>
+      </c>
+      <c r="R47" t="s">
+        <v>42</v>
+      </c>
+      <c r="S47" t="s">
+        <v>44</v>
+      </c>
+      <c r="T47" t="s">
+        <v>42</v>
+      </c>
+      <c r="U47"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1784,4 +4292,268 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:T6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="10" width="10.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="1" customWidth="1"/>
+    <col min="21" max="26" width="9" style="1"/>
+    <col min="27" max="27" width="19.25" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" s="1" customFormat="1" spans="3:20">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:20">
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:20">
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:20">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>101</v>
+      </c>
+      <c r="T6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:F5 G3:G5 C3:E5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="152">
   <si>
     <t>_ID</t>
   </si>
@@ -306,6 +306,9 @@
     <t>固定伤害</t>
   </si>
   <si>
+    <t>无视防御</t>
+  </si>
+  <si>
     <t>暴击率</t>
   </si>
   <si>
@@ -360,6 +363,9 @@
     <t>Damage</t>
   </si>
   <si>
+    <t>IgnoreDef</t>
+  </si>
+  <si>
     <t>CritRate</t>
   </si>
   <si>
@@ -415,9 +421,6 @@
   </si>
   <si>
     <t>技能提高50%最终伤害</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
   <si>
     <t>10003</t>
@@ -1698,7 +1701,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1711,15 +1714,15 @@
     <col min="9" max="10" width="10.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.375" style="1" customWidth="1"/>
-    <col min="13" max="18" width="13" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5" style="1" customWidth="1"/>
-    <col min="21" max="26" width="9" style="1"/>
-    <col min="27" max="27" width="19.25" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="13" max="19" width="13" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5" style="1" customWidth="1"/>
+    <col min="22" max="27" width="9" style="1"/>
+    <col min="28" max="28" width="19.25" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20">
+    <row r="3" spans="3:21">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1774,2512 +1777,2605 @@
       <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="3:20">
+      <c r="U3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21">
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="3:20">
+        <v>36</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21">
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="3:21">
       <c r="C6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6"/>
+        <v>44</v>
+      </c>
+      <c r="T6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="3:21">
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7"/>
+      <c r="T7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="3:21">
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U8"/>
+        <v>44</v>
+      </c>
+      <c r="T8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="3:21">
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9"/>
+        <v>46</v>
+      </c>
+      <c r="T9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="3:21">
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10"/>
+        <v>45</v>
+      </c>
+      <c r="U10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="3:21">
       <c r="C11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S11" t="s">
-        <v>44</v>
+        <v>44</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
-      </c>
-      <c r="U11"/>
+        <v>45</v>
+      </c>
+      <c r="U11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="3:21">
       <c r="C12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S12" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
-      </c>
-      <c r="U12"/>
+        <v>45</v>
+      </c>
+      <c r="U12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="3:21">
       <c r="C13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" t="s">
-        <v>44</v>
+        <v>44</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="T13" t="s">
-        <v>42</v>
-      </c>
-      <c r="U13"/>
+        <v>45</v>
+      </c>
+      <c r="U13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:21">
       <c r="C14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U14"/>
+        <v>45</v>
+      </c>
+      <c r="U14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:21">
       <c r="C15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T15" t="s">
-        <v>42</v>
-      </c>
-      <c r="U15"/>
+        <v>45</v>
+      </c>
+      <c r="U15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:21">
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T16" t="s">
-        <v>42</v>
-      </c>
-      <c r="U16"/>
+        <v>45</v>
+      </c>
+      <c r="U16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:21">
       <c r="C17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T17" t="s">
-        <v>42</v>
-      </c>
-      <c r="U17"/>
+        <v>45</v>
+      </c>
+      <c r="U17" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:21">
       <c r="C18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T18" t="s">
-        <v>42</v>
-      </c>
-      <c r="U18"/>
+        <v>45</v>
+      </c>
+      <c r="U18" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:21">
       <c r="C19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T19" t="s">
-        <v>42</v>
-      </c>
-      <c r="U19"/>
+        <v>45</v>
+      </c>
+      <c r="U19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:21">
       <c r="C20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T20" t="s">
-        <v>42</v>
-      </c>
-      <c r="U20"/>
+        <v>45</v>
+      </c>
+      <c r="U20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:21">
       <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T21" t="s">
-        <v>42</v>
-      </c>
-      <c r="U21"/>
+        <v>45</v>
+      </c>
+      <c r="U21" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:21">
       <c r="C22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T22" t="s">
-        <v>42</v>
-      </c>
-      <c r="U22"/>
+        <v>45</v>
+      </c>
+      <c r="U22" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:21">
       <c r="C23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T23" t="s">
-        <v>42</v>
-      </c>
-      <c r="U23"/>
+        <v>45</v>
+      </c>
+      <c r="U23" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:21">
       <c r="C24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s">
-        <v>42</v>
-      </c>
-      <c r="U24"/>
+        <v>45</v>
+      </c>
+      <c r="U24" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:21">
       <c r="C25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T25" t="s">
-        <v>42</v>
-      </c>
-      <c r="U25"/>
+        <v>45</v>
+      </c>
+      <c r="U25" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:21">
       <c r="C26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T26" t="s">
-        <v>42</v>
-      </c>
-      <c r="U26"/>
+        <v>45</v>
+      </c>
+      <c r="U26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:21">
       <c r="C27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T27" t="s">
-        <v>42</v>
-      </c>
-      <c r="U27"/>
+        <v>45</v>
+      </c>
+      <c r="U27" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:21">
       <c r="C28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T28" t="s">
-        <v>42</v>
-      </c>
-      <c r="U28"/>
+        <v>45</v>
+      </c>
+      <c r="U28" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:21">
       <c r="C29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T29" t="s">
-        <v>42</v>
-      </c>
-      <c r="U29"/>
+        <v>45</v>
+      </c>
+      <c r="U29" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:21">
       <c r="C30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T30" t="s">
-        <v>42</v>
-      </c>
-      <c r="U30"/>
+        <v>45</v>
+      </c>
+      <c r="U30" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:21">
       <c r="C31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U31"/>
+        <v>45</v>
+      </c>
+      <c r="U31" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:21">
       <c r="C32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T32" t="s">
-        <v>42</v>
-      </c>
-      <c r="U32"/>
+        <v>45</v>
+      </c>
+      <c r="U32" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:21">
       <c r="C33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T33" t="s">
-        <v>42</v>
-      </c>
-      <c r="U33"/>
+        <v>45</v>
+      </c>
+      <c r="U33" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:21">
       <c r="C34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T34" t="s">
-        <v>42</v>
-      </c>
-      <c r="U34"/>
+        <v>45</v>
+      </c>
+      <c r="U34" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:21">
       <c r="C35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T35" t="s">
-        <v>42</v>
-      </c>
-      <c r="U35"/>
+        <v>45</v>
+      </c>
+      <c r="U35" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:21">
       <c r="C36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T36" t="s">
-        <v>42</v>
-      </c>
-      <c r="U36"/>
+        <v>45</v>
+      </c>
+      <c r="U36" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:21">
       <c r="C37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N37" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T37" t="s">
-        <v>42</v>
-      </c>
-      <c r="U37"/>
+        <v>45</v>
+      </c>
+      <c r="U37" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:21">
       <c r="C38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T38" t="s">
-        <v>42</v>
-      </c>
-      <c r="U38"/>
+        <v>45</v>
+      </c>
+      <c r="U38" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:21">
       <c r="C39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T39" t="s">
-        <v>42</v>
-      </c>
-      <c r="U39"/>
+        <v>45</v>
+      </c>
+      <c r="U39" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:21">
       <c r="C40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U40"/>
+        <v>45</v>
+      </c>
+      <c r="U40" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="41" ht="24" customHeight="1" spans="3:21">
       <c r="C41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N41" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T41" t="s">
-        <v>42</v>
-      </c>
-      <c r="U41"/>
+        <v>45</v>
+      </c>
+      <c r="U41" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="42" ht="24" customHeight="1" spans="3:21">
       <c r="C42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T42" t="s">
-        <v>42</v>
-      </c>
-      <c r="U42"/>
+        <v>45</v>
+      </c>
+      <c r="U42" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="43" ht="24" customHeight="1" spans="3:21">
       <c r="C43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N43" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T43" t="s">
-        <v>42</v>
-      </c>
-      <c r="U43"/>
+        <v>45</v>
+      </c>
+      <c r="U43" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="44" ht="24" customHeight="1" spans="3:21">
       <c r="C44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U44"/>
+        <v>45</v>
+      </c>
+      <c r="U44" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="45" ht="24" customHeight="1" spans="3:21">
       <c r="C45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N45" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T45" t="s">
-        <v>42</v>
-      </c>
-      <c r="U45"/>
+        <v>45</v>
+      </c>
+      <c r="U45" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="46" ht="24" customHeight="1" spans="3:21">
       <c r="C46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T46" t="s">
-        <v>42</v>
-      </c>
-      <c r="U46"/>
+        <v>45</v>
+      </c>
+      <c r="U46" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" ht="24" customHeight="1" spans="3:21">
       <c r="C47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T47" t="s">
-        <v>42</v>
-      </c>
-      <c r="U47"/>
+        <v>45</v>
+      </c>
+      <c r="U47" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4297,10 +4393,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:T6"/>
+  <dimension ref="C3:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -4312,20 +4408,20 @@
     <col min="8" max="10" width="10.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5" style="1" customWidth="1"/>
-    <col min="21" max="26" width="9" style="1"/>
-    <col min="27" max="27" width="19.25" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="13" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.75" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5" style="1" customWidth="1"/>
+    <col min="22" max="27" width="9" style="1"/>
+    <col min="28" max="28" width="19.25" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" spans="3:20">
+    <row r="3" s="1" customFormat="1" spans="3:21">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4380,120 +4476,129 @@
       <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:20">
+      <c r="U3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:21">
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:20">
+        <v>36</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:21">
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:20">
+        <v>38</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:21">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -4501,10 +4606,10 @@
         <v>1001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -4524,7 +4629,7 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <v>0</v>
       </c>
       <c r="O6" s="3">
@@ -4539,10 +4644,13 @@
       <c r="R6" s="3">
         <v>0</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
         <v>101</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>20</v>
       </c>
     </row>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="162">
   <si>
     <t>_ID</t>
   </si>
@@ -297,6 +297,9 @@
     <t>修改攻击区域</t>
   </si>
   <si>
+    <t>持续时间</t>
+  </si>
+  <si>
     <t>增加最大敌人数量</t>
   </si>
   <si>
@@ -327,9 +330,6 @@
     <t>附带效果</t>
   </si>
   <si>
-    <t>效果参数</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -354,6 +354,9 @@
     <t>Area</t>
   </si>
   <si>
+    <t>Duration</t>
+  </si>
+  <si>
     <t>EnemyMax</t>
   </si>
   <si>
@@ -384,15 +387,48 @@
     <t>EffectId</t>
   </si>
   <si>
-    <t>EffectParam</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>基础剑术·吸血</t>
+  </si>
+  <si>
+    <t>附带20%吸血效果</t>
+  </si>
+  <si>
+    <t>火球术·灼烧</t>
+  </si>
+  <si>
+    <t>增加一个持续4回合50%灼烧效果</t>
+  </si>
+  <si>
+    <t>治疗术·回复</t>
+  </si>
+  <si>
+    <t>增加一个持续4回合20%回复效果</t>
+  </si>
+  <si>
+    <t>火符术·中毒</t>
+  </si>
+  <si>
+    <t>增加一个持续4回合80%中毒效果</t>
+  </si>
+  <si>
+    <t>基础剑术·晕眩</t>
+  </si>
+  <si>
+    <t>使目标晕眩2回合</t>
+  </si>
+  <si>
+    <t>冰咆哮·冰冻</t>
+  </si>
+  <si>
+    <t>使目标冰冻1回合</t>
+  </si>
+  <si>
     <t>10001</t>
   </si>
   <si>
@@ -459,45 +495,45 @@
     <t>1004</t>
   </si>
   <si>
+    <t>野蛮撞击·强攻</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>野蛮撞击·重击</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
     <t>武力盾·强攻</t>
   </si>
   <si>
-    <t>10008</t>
+    <t>10010</t>
   </si>
   <si>
     <t>武力盾·重击</t>
   </si>
   <si>
-    <t>10009</t>
-  </si>
-  <si>
-    <t>1005</t>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>1006</t>
   </si>
   <si>
     <t>武力精通·强攻</t>
   </si>
   <si>
-    <t>10010</t>
+    <t>10012</t>
   </si>
   <si>
     <t>武力精通·重击</t>
   </si>
   <si>
-    <t>10011</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>野蛮撞击·强攻</t>
-  </si>
-  <si>
-    <t>10012</t>
-  </si>
-  <si>
-    <t>野蛮撞击·重击</t>
-  </si>
-  <si>
     <t>10013</t>
   </si>
   <si>
@@ -564,45 +600,45 @@
     <t>2004</t>
   </si>
   <si>
+    <t>爆裂火焰·强攻</t>
+  </si>
+  <si>
+    <t>10022</t>
+  </si>
+  <si>
+    <t>爆裂火焰·重击</t>
+  </si>
+  <si>
+    <t>10023</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>魔法盾·强攻</t>
   </si>
   <si>
-    <t>10022</t>
+    <t>10024</t>
   </si>
   <si>
     <t>魔法盾·重击</t>
   </si>
   <si>
-    <t>10023</t>
-  </si>
-  <si>
-    <t>2005</t>
+    <t>10025</t>
+  </si>
+  <si>
+    <t>2006</t>
   </si>
   <si>
     <t>法术精通·强攻</t>
   </si>
   <si>
-    <t>10024</t>
+    <t>10026</t>
   </si>
   <si>
     <t>法术精通·重击</t>
   </si>
   <si>
-    <t>10025</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>抗拒光环·强攻</t>
-  </si>
-  <si>
-    <t>10026</t>
-  </si>
-  <si>
-    <t>抗拒光环·重击</t>
-  </si>
-  <si>
     <t>10027</t>
   </si>
   <si>
@@ -639,75 +675,75 @@
     <t>3002</t>
   </si>
   <si>
+    <t>火符术·强攻</t>
+  </si>
+  <si>
+    <t>10032</t>
+  </si>
+  <si>
+    <t>火符术·重击</t>
+  </si>
+  <si>
+    <t>10033</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
     <t>施毒术·强攻</t>
   </si>
   <si>
-    <t>10032</t>
+    <t>10034</t>
   </si>
   <si>
     <t>施毒术·重击</t>
   </si>
   <si>
-    <t>10033</t>
-  </si>
-  <si>
-    <t>3003</t>
+    <t>10035</t>
+  </si>
+  <si>
+    <t>3004</t>
   </si>
   <si>
     <t>召唤骷髅·强攻</t>
   </si>
   <si>
-    <t>10034</t>
+    <t>10036</t>
   </si>
   <si>
     <t>召唤骷髅·重击</t>
   </si>
   <si>
-    <t>10035</t>
-  </si>
-  <si>
-    <t>3004</t>
+    <t>10037</t>
+  </si>
+  <si>
+    <t>3005</t>
   </si>
   <si>
     <t>道力盾·强攻</t>
   </si>
   <si>
-    <t>10036</t>
+    <t>10038</t>
   </si>
   <si>
     <t>道力盾·重击</t>
   </si>
   <si>
-    <t>10037</t>
-  </si>
-  <si>
-    <t>3005</t>
+    <t>10039</t>
+  </si>
+  <si>
+    <t>3006</t>
   </si>
   <si>
     <t>道力精通·强攻</t>
   </si>
   <si>
-    <t>10038</t>
+    <t>10040</t>
   </si>
   <si>
     <t>道力精通·重击</t>
   </si>
   <si>
-    <t>10039</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>禁锢术·强攻</t>
-  </si>
-  <si>
-    <t>10040</t>
-  </si>
-  <si>
-    <t>禁锢术·重击</t>
-  </si>
-  <si>
     <t>10041</t>
   </si>
   <si>
@@ -721,12 +757,6 @@
   </si>
   <si>
     <t>召唤神兽·重击</t>
-  </si>
-  <si>
-    <t>基础剑术·吸血</t>
-  </si>
-  <si>
-    <t>附带20%吸血效果</t>
   </si>
 </sst>
 </file>
@@ -1698,28 +1728,27 @@
   <sheetPr/>
   <dimension ref="C3:U47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="1" customWidth="1"/>
-    <col min="13" max="19" width="13" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5" style="1" customWidth="1"/>
-    <col min="22" max="27" width="9" style="1"/>
-    <col min="28" max="28" width="19.25" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="1"/>
+    <col min="1" max="4" style="1" width="9.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="11.625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="22.875" collapsed="false"/>
+    <col min="7" max="7" style="1" width="9.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="14.625" collapsed="false"/>
+    <col min="9" max="11" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.75" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="14" max="20" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" style="1" width="7.875" collapsed="false"/>
+    <col min="22" max="27" style="1" width="9.0" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" style="1" width="19.25" collapsed="false"/>
+    <col min="29" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:21">
@@ -1899,2482 +1928,2482 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="3:21">
+    <row r="6" s="3" customFormat="1" spans="11:11">
       <c r="C6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="3:21">
+        <v>56</v>
+      </c>
+      <c r="U6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="11:11">
       <c r="C7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="3:21">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="11:11">
       <c r="C8" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S8" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="3:21">
+        <v>56</v>
+      </c>
+      <c r="U8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="11:11">
       <c r="C9" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="3:21">
+        <v>58</v>
+      </c>
+      <c r="U9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="16:20">
       <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T10" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="U10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="16:20">
       <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T11" t="s">
-        <v>45</v>
-      </c>
       <c r="U11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="16:20">
       <c r="C12" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="16:20">
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
         <v>61</v>
       </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T12" t="s">
-        <v>45</v>
-      </c>
-      <c r="U12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="3:21">
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" ht="24.0" customHeight="true">
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" t="s">
+        <v>56</v>
+      </c>
+      <c r="U14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" ht="24.0" customHeight="true">
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
         <v>61</v>
       </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T13" t="s">
-        <v>45</v>
-      </c>
-      <c r="U13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:21">
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O14" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>44</v>
-      </c>
-      <c r="R14" t="s">
-        <v>46</v>
-      </c>
-      <c r="S14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T14" t="s">
-        <v>45</v>
-      </c>
-      <c r="U14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:21">
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S15" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S16" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M18" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N18" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O18" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P18" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q18" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R18" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S18" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S19" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L20" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M20" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N20" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O20" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P20" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q20" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R20" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S20" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S21" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S22" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K23" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M23" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N23" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O23" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P23" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q23" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R23" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S23" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L24" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M24" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N24" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O24" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P24" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q24" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R24" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S24" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L25" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M25" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N25" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O25" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q25" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R25" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S25" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L26" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M26" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N26" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O26" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P26" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q26" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R26" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S26" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M27" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N27" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O27" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P27" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q27" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R27" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S27" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M28" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N28" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O28" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P28" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q28" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R28" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S28" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M29" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N29" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O29" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P29" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q29" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R29" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K30" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M30" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N30" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O30" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P30" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q30" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R30" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S30" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K31" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L31" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M31" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N31" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O31" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P31" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q31" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R31" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S31" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K32" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L32" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M32" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N32" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O32" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P32" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q32" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R32" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S32" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L33" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M33" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N33" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O33" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P33" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q33" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R33" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S33" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H34" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L34" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M34" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N34" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O34" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P34" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q34" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R34" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S34" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K35" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L35" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M35" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N35" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O35" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P35" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q35" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R35" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S35" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T35" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H36" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K36" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L36" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M36" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N36" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O36" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P36" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q36" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S36" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S37" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H38" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L38" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M38" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N38" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O38" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P38" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q38" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R38" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S38" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K39" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L39" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M39" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N39" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O39" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P39" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q39" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R39" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S39" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T39" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K40" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L40" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M40" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N40" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O40" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P40" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q40" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R40" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S40" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" ht="24.0" customHeight="true">
       <c r="C41" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K41" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L41" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M41" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N41" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O41" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P41" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q41" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R41" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S41" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T41" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" ht="24.0" customHeight="true">
       <c r="C42" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K42" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L42" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M42" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N42" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O42" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P42" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q42" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R42" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S42" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" ht="24.0" customHeight="true">
       <c r="C43" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H43" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K43" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L43" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M43" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N43" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O43" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P43" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q43" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R43" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S43" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T43" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" ht="24.0" customHeight="true">
       <c r="C44" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H44" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K44" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L44" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M44" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N44" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O44" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P44" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q44" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R44" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S44" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" ht="24.0" customHeight="true">
       <c r="C45" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H45" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L45" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M45" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N45" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O45" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P45" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q45" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R45" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S45" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T45" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" ht="24.0" customHeight="true">
       <c r="C46" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H46" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L46" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M46" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N46" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O46" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P46" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q46" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R46" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S46" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T46" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="3:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" ht="24.0" customHeight="true">
       <c r="C47" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H47" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K47" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L47" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M47" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N47" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O47" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P47" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q47" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R47" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S47" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T47" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="U47" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4393,32 +4422,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:U6"/>
+  <dimension ref="A3:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="10" width="10.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.75" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5" style="1" customWidth="1"/>
-    <col min="22" max="27" width="9" style="1"/>
-    <col min="28" max="28" width="19.25" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="1"/>
+    <col min="1" max="4" style="1" width="9.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="11.625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="19.875" collapsed="false"/>
+    <col min="7" max="7" style="1" width="9.0" collapsed="false"/>
+    <col min="8" max="11" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="1" width="10.875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="14" max="15" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" style="1" width="7.5" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" style="1" width="10.625" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" style="1" width="12.625" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" style="1" width="9.75" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" style="1" width="7.875" collapsed="false"/>
+    <col min="22" max="27" style="1" width="9.0" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" style="1" width="19.25" collapsed="false"/>
+    <col min="29" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" spans="3:21">
@@ -4606,10 +4634,10 @@
         <v>1001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -4627,12 +4655,12 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="3">
@@ -4647,12 +4675,322 @@
       <c r="S6" s="3">
         <v>0</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
         <v>101</v>
       </c>
-      <c r="U6" s="1">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:21">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>50</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:21">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3001</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
         <v>20</v>
       </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:28">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3002</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>80</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>104</v>
+      </c>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:28">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>106</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:28">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>105</v>
+      </c>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="166">
   <si>
     <t>_ID</t>
   </si>
@@ -303,6 +303,12 @@
     <t>增加最大敌人数量</t>
   </si>
   <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>列</t>
+  </si>
+  <si>
     <t>增加伤害比例</t>
   </si>
   <si>
@@ -358,6 +364,12 @@
   </si>
   <si>
     <t>EnemyMax</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Column</t>
   </si>
   <si>
     <t>Percent</t>
@@ -935,12 +947,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1726,12 +1738,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:U47"/>
+  <dimension ref="C3:W47"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1742,16 +1754,16 @@
     <col min="7" max="7" style="1" width="9.0" collapsed="false"/>
     <col min="8" max="8" customWidth="true" style="1" width="14.625" collapsed="false"/>
     <col min="9" max="11" customWidth="true" style="1" width="10.375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="1" width="13.75" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="1" width="10.375" collapsed="false"/>
-    <col min="14" max="20" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" style="1" width="7.875" collapsed="false"/>
-    <col min="22" max="27" style="1" width="9.0" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" style="1" width="19.25" collapsed="false"/>
-    <col min="29" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="12" max="14" customWidth="true" style="1" width="13.75" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="16" max="22" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" style="1" width="7.875" collapsed="false"/>
+    <col min="24" max="29" style="1" width="9.0" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" style="1" width="19.25" collapsed="false"/>
+    <col min="31" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:21">
+    <row r="3" spans="3:23">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1809,2601 +1821,2871 @@
       <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="3:21">
+    <row r="4" spans="3:23">
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="3:21">
+    <row r="5" spans="3:23">
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="11:11">
+    <row r="6" s="3" customFormat="1" spans="11:14">
       <c r="C6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="11:14">
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" t="s">
-        <v>56</v>
-      </c>
-      <c r="S6" t="s">
-        <v>58</v>
-      </c>
-      <c r="T6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U6" t="s">
-        <v>57</v>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="11:11">
-      <c r="C7" t="s">
+    <row r="8" s="3" customFormat="1" spans="11:14">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S7" t="s">
-        <v>56</v>
-      </c>
-      <c r="T7" t="s">
-        <v>58</v>
-      </c>
-      <c r="U7" t="s">
-        <v>57</v>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="11:11">
-      <c r="C8" t="s">
+    <row r="9" s="3" customFormat="1" spans="11:14">
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" t="s">
         <v>62</v>
       </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S8" t="s">
-        <v>58</v>
-      </c>
-      <c r="T8" t="s">
-        <v>56</v>
-      </c>
-      <c r="U8" t="s">
-        <v>57</v>
+      <c r="W9" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="11:11">
-      <c r="C9" t="s">
+    <row r="10" spans="18:22">
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="18:22">
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
         <v>65</v>
       </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" t="s">
-        <v>58</v>
-      </c>
-      <c r="U9" t="s">
-        <v>57</v>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="10" spans="16:20">
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U10" t="s">
-        <v>57</v>
+    <row r="12" spans="18:22">
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W12" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="11" spans="16:20">
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="16:20">
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="16:20">
+    <row r="13" spans="18:22">
       <c r="C13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="P13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>60</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U13" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V14" t="s">
+        <v>60</v>
+      </c>
+      <c r="W14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V15" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V17" t="s">
+        <v>62</v>
+      </c>
+      <c r="W17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V19" t="s">
+        <v>62</v>
+      </c>
+      <c r="W19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V20" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V21" t="s">
+        <v>62</v>
+      </c>
+      <c r="W21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V22" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V23" t="s">
+        <v>62</v>
+      </c>
+      <c r="W23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V25" t="s">
+        <v>62</v>
+      </c>
+      <c r="W25" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V26" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V27" t="s">
+        <v>62</v>
+      </c>
+      <c r="W27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V28" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J29" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V29" t="s">
+        <v>62</v>
+      </c>
+      <c r="W29" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J30" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V30" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V31" t="s">
+        <v>62</v>
+      </c>
+      <c r="W31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U32" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V32" t="s">
+        <v>60</v>
+      </c>
+      <c r="W32" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J33" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U33" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V33" t="s">
+        <v>62</v>
+      </c>
+      <c r="W33" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J34" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V34" t="s">
+        <v>60</v>
+      </c>
+      <c r="W34" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J35" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V35" t="s">
+        <v>62</v>
+      </c>
+      <c r="W35" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U36" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V36" t="s">
+        <v>60</v>
+      </c>
+      <c r="W36" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J37" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V37" t="s">
+        <v>62</v>
+      </c>
+      <c r="W37" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J38" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U38" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V38" t="s">
+        <v>60</v>
+      </c>
+      <c r="W38" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J39" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U39" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V39" t="s">
+        <v>62</v>
+      </c>
+      <c r="W39" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J40" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U40" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V40" t="s">
+        <v>60</v>
+      </c>
+      <c r="W40" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="41" ht="24.0" customHeight="true">
       <c r="C41" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J41" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U41" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V41" t="s">
+        <v>62</v>
+      </c>
+      <c r="W41" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42" ht="24.0" customHeight="true">
       <c r="C42" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J42" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U42" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V42" t="s">
+        <v>60</v>
+      </c>
+      <c r="W42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="43" ht="24.0" customHeight="true">
       <c r="C43" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J43" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U43" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V43" t="s">
+        <v>62</v>
+      </c>
+      <c r="W43" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="44" ht="24.0" customHeight="true">
       <c r="C44" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J44" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U44" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V44" t="s">
+        <v>60</v>
+      </c>
+      <c r="W44" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" ht="24.0" customHeight="true">
       <c r="C45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J45" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U45" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V45" t="s">
+        <v>62</v>
+      </c>
+      <c r="W45" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="46" ht="24.0" customHeight="true">
       <c r="C46" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J46" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U46" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="V46" t="s">
+        <v>60</v>
+      </c>
+      <c r="W46" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="47" ht="24.0" customHeight="true">
       <c r="C47" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J47" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U47" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="V47" t="s">
+        <v>62</v>
+      </c>
+      <c r="W47" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4422,10 +4704,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:AB11"/>
+  <dimension ref="A3:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4436,20 +4718,21 @@
     <col min="7" max="7" style="1" width="9.0" collapsed="false"/>
     <col min="8" max="11" customWidth="true" style="1" width="10.375" collapsed="false"/>
     <col min="12" max="12" customWidth="true" style="1" width="10.875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="1" width="10.375" collapsed="false"/>
-    <col min="14" max="15" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" style="1" width="7.5" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" style="1" width="10.625" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" style="1" width="12.625" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" style="1" width="9.0" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" style="1" width="9.75" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" style="1" width="7.875" collapsed="false"/>
-    <col min="22" max="27" style="1" width="9.0" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" style="1" width="19.25" collapsed="false"/>
-    <col min="29" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="13" max="14" customWidth="true" style="1" width="13.75" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="16" max="17" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" style="1" width="7.5" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" style="1" width="10.625" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" style="1" width="12.625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" style="1" width="9.75" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" style="1" width="7.875" collapsed="false"/>
+    <col min="24" max="29" style="1" width="9.0" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" style="1" width="19.25" collapsed="false"/>
+    <col min="31" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" spans="3:21">
+    <row r="3" s="1" customFormat="1" spans="3:23">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4507,126 +4790,144 @@
       <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:21">
+    <row r="4" s="1" customFormat="1" spans="3:23">
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:21">
+    <row r="5" s="1" customFormat="1" spans="3:23">
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:21">
+    <row r="6" s="1" customFormat="1" spans="3:23">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -4634,10 +4935,10 @@
         <v>1001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -4655,18 +4956,18 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
         <v>20</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
         <v>0</v>
       </c>
       <c r="R6" s="3">
@@ -4678,11 +4979,17 @@
       <c r="T6" s="3">
         <v>0</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:21">
+    <row r="7" s="1" customFormat="1" spans="3:23">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -4690,10 +4997,10 @@
         <v>2001</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -4711,18 +5018,18 @@
         <v>3</v>
       </c>
       <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
         <v>50</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
         <v>0</v>
       </c>
       <c r="R7" s="3">
@@ -4734,11 +5041,17 @@
       <c r="T7" s="3">
         <v>0</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:21">
+    <row r="8" s="1" customFormat="1" spans="3:23">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -4746,10 +5059,10 @@
         <v>3001</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -4767,18 +5080,18 @@
         <v>1</v>
       </c>
       <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
         <v>20</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
         <v>0</v>
       </c>
       <c r="R8" s="3">
@@ -4790,11 +5103,17 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:28">
+    <row r="9" customFormat="1" spans="1:30">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -4804,10 +5123,10 @@
         <v>3002</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -4826,18 +5145,18 @@
         <v>3</v>
       </c>
       <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
         <v>80</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
         <v>0</v>
       </c>
       <c r="R9" s="3">
@@ -4849,18 +5168,24 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
         <v>104</v>
       </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
     </row>
-    <row r="10" customFormat="1" spans="1:28">
+    <row r="10" customFormat="1" spans="1:30">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -4870,10 +5195,10 @@
         <v>1001</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -4900,10 +5225,10 @@
       <c r="O10" s="1">
         <v>0</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
         <v>0</v>
       </c>
       <c r="R10" s="3">
@@ -4915,18 +5240,24 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
         <v>106</v>
       </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
     </row>
-    <row r="11" customFormat="1" spans="1:28">
+    <row r="11" customFormat="1" spans="1:30">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -4936,10 +5267,10 @@
         <v>2007</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -4966,10 +5297,10 @@
       <c r="O11" s="1">
         <v>0</v>
       </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
         <v>0</v>
       </c>
       <c r="R11" s="3">
@@ -4981,16 +5312,22 @@
       <c r="T11" s="3">
         <v>0</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
         <v>105</v>
       </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -447,7 +447,7 @@
     <t>1001</t>
   </si>
   <si>
-    <t>基础剑术·强攻</t>
+    <t>基础剑术·祝福</t>
   </si>
   <si>
     <t>技能提高50%攻击</t>
@@ -465,7 +465,7 @@
     <t>10002</t>
   </si>
   <si>
-    <t>基础剑术·重击</t>
+    <t>基础剑术·致命</t>
   </si>
   <si>
     <t>技能提高50%最终伤害</t>
@@ -477,13 +477,13 @@
     <t>1002</t>
   </si>
   <si>
-    <t>刺杀剑术·强攻</t>
+    <t>刺杀剑术·祝福</t>
   </si>
   <si>
     <t>10004</t>
   </si>
   <si>
-    <t>刺杀剑术·重击</t>
+    <t>刺杀剑术·致命</t>
   </si>
   <si>
     <t>10005</t>
@@ -492,13 +492,13 @@
     <t>1003</t>
   </si>
   <si>
-    <t>半月弯刀·强攻</t>
+    <t>半月弯刀·祝福</t>
   </si>
   <si>
     <t>10006</t>
   </si>
   <si>
-    <t>半月弯刀·重击</t>
+    <t>半月弯刀·致命</t>
   </si>
   <si>
     <t>10007</t>
@@ -507,13 +507,13 @@
     <t>1004</t>
   </si>
   <si>
-    <t>野蛮撞击·强攻</t>
+    <t>野蛮撞击·祝福</t>
   </si>
   <si>
     <t>10008</t>
   </si>
   <si>
-    <t>野蛮撞击·重击</t>
+    <t>野蛮撞击·致命</t>
   </si>
   <si>
     <t>10009</t>
@@ -522,13 +522,13 @@
     <t>1005</t>
   </si>
   <si>
-    <t>武力盾·强攻</t>
+    <t>武力盾·祝福</t>
   </si>
   <si>
     <t>10010</t>
   </si>
   <si>
-    <t>武力盾·重击</t>
+    <t>武力盾·致命</t>
   </si>
   <si>
     <t>10011</t>
@@ -537,13 +537,13 @@
     <t>1006</t>
   </si>
   <si>
-    <t>武力精通·强攻</t>
+    <t>武力精通·祝福</t>
   </si>
   <si>
     <t>10012</t>
   </si>
   <si>
-    <t>武力精通·重击</t>
+    <t>武力精通·致命</t>
   </si>
   <si>
     <t>10013</t>
@@ -552,13 +552,13 @@
     <t>1007</t>
   </si>
   <si>
-    <t>烈火剑法·强攻</t>
+    <t>烈火剑法·祝福</t>
   </si>
   <si>
     <t>10014</t>
   </si>
   <si>
-    <t>烈火剑法·重击</t>
+    <t>烈火剑法·致命</t>
   </si>
   <si>
     <t>10015</t>
@@ -567,13 +567,13 @@
     <t>2001</t>
   </si>
   <si>
-    <t>小火球·强攻</t>
+    <t>小火球·祝福</t>
   </si>
   <si>
     <t>10016</t>
   </si>
   <si>
-    <t>小火球·重击</t>
+    <t>小火球·致命</t>
   </si>
   <si>
     <t>10017</t>
@@ -582,13 +582,13 @@
     <t>2002</t>
   </si>
   <si>
-    <t>雷电术·强攻</t>
+    <t>雷电术·祝福</t>
   </si>
   <si>
     <t>10018</t>
   </si>
   <si>
-    <t>雷电术·重击</t>
+    <t>雷电术·致命</t>
   </si>
   <si>
     <t>10019</t>
@@ -597,13 +597,13 @@
     <t>2003</t>
   </si>
   <si>
-    <t>火墙·强攻</t>
+    <t>火墙·祝福</t>
   </si>
   <si>
     <t>10020</t>
   </si>
   <si>
-    <t>火墙·重击</t>
+    <t>火墙·致命</t>
   </si>
   <si>
     <t>10021</t>
@@ -612,13 +612,13 @@
     <t>2004</t>
   </si>
   <si>
-    <t>爆裂火焰·强攻</t>
+    <t>爆裂火焰·祝福</t>
   </si>
   <si>
     <t>10022</t>
   </si>
   <si>
-    <t>爆裂火焰·重击</t>
+    <t>爆裂火焰·致命</t>
   </si>
   <si>
     <t>10023</t>
@@ -627,13 +627,13 @@
     <t>2005</t>
   </si>
   <si>
-    <t>魔法盾·强攻</t>
+    <t>魔法盾·祝福</t>
   </si>
   <si>
     <t>10024</t>
   </si>
   <si>
-    <t>魔法盾·重击</t>
+    <t>魔法盾·致命</t>
   </si>
   <si>
     <t>10025</t>
@@ -642,13 +642,13 @@
     <t>2006</t>
   </si>
   <si>
-    <t>法术精通·强攻</t>
+    <t>法术精通·祝福</t>
   </si>
   <si>
     <t>10026</t>
   </si>
   <si>
-    <t>法术精通·重击</t>
+    <t>法术精通·致命</t>
   </si>
   <si>
     <t>10027</t>
@@ -657,13 +657,13 @@
     <t>2007</t>
   </si>
   <si>
-    <t>冰咆哮·强攻</t>
+    <t>冰咆哮·祝福</t>
   </si>
   <si>
     <t>10028</t>
   </si>
   <si>
-    <t>冰咆哮·重击</t>
+    <t>冰咆哮·致命</t>
   </si>
   <si>
     <t>10029</t>
@@ -672,13 +672,13 @@
     <t>3001</t>
   </si>
   <si>
-    <t>治疗术·强攻</t>
+    <t>治疗术·祝福</t>
   </si>
   <si>
     <t>10030</t>
   </si>
   <si>
-    <t>治疗术·重击</t>
+    <t>治疗术·致命</t>
   </si>
   <si>
     <t>10031</t>
@@ -687,13 +687,13 @@
     <t>3002</t>
   </si>
   <si>
-    <t>火符术·强攻</t>
+    <t>火符术·祝福</t>
   </si>
   <si>
     <t>10032</t>
   </si>
   <si>
-    <t>火符术·重击</t>
+    <t>火符术·致命</t>
   </si>
   <si>
     <t>10033</t>
@@ -702,13 +702,13 @@
     <t>3003</t>
   </si>
   <si>
-    <t>施毒术·强攻</t>
+    <t>施毒术·祝福</t>
   </si>
   <si>
     <t>10034</t>
   </si>
   <si>
-    <t>施毒术·重击</t>
+    <t>施毒术·致命</t>
   </si>
   <si>
     <t>10035</t>
@@ -717,13 +717,13 @@
     <t>3004</t>
   </si>
   <si>
-    <t>召唤骷髅·强攻</t>
+    <t>召唤骷髅·祝福</t>
   </si>
   <si>
     <t>10036</t>
   </si>
   <si>
-    <t>召唤骷髅·重击</t>
+    <t>召唤骷髅·致命</t>
   </si>
   <si>
     <t>10037</t>
@@ -732,13 +732,13 @@
     <t>3005</t>
   </si>
   <si>
-    <t>道力盾·强攻</t>
+    <t>道力盾·祝福</t>
   </si>
   <si>
     <t>10038</t>
   </si>
   <si>
-    <t>道力盾·重击</t>
+    <t>道力盾·致命</t>
   </si>
   <si>
     <t>10039</t>
@@ -747,13 +747,13 @@
     <t>3006</t>
   </si>
   <si>
-    <t>道力精通·强攻</t>
+    <t>道力精通·祝福</t>
   </si>
   <si>
     <t>10040</t>
   </si>
   <si>
-    <t>道力精通·重击</t>
+    <t>道力精通·致命</t>
   </si>
   <si>
     <t>10041</t>
@@ -762,13 +762,13 @@
     <t>3007</t>
   </si>
   <si>
-    <t>召唤神兽·强攻</t>
+    <t>召唤神兽·祝福</t>
   </si>
   <si>
     <t>10042</t>
   </si>
   <si>
-    <t>召唤神兽·重击</t>
+    <t>召唤神兽·致命</t>
   </si>
 </sst>
 </file>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="167">
   <si>
     <t>_ID</t>
   </si>
@@ -441,6 +441,18 @@
     <t>使目标冰冻1回合</t>
   </si>
   <si>
+    <t>武力精通·祝福</t>
+  </si>
+  <si>
+    <t>提高50%技能系数</t>
+  </si>
+  <si>
+    <t>法术精通·祝福</t>
+  </si>
+  <si>
+    <t>道力精通·祝福</t>
+  </si>
+  <si>
     <t>10001</t>
   </si>
   <si>
@@ -537,9 +549,6 @@
     <t>1006</t>
   </si>
   <si>
-    <t>武力精通·祝福</t>
-  </si>
-  <si>
     <t>10012</t>
   </si>
   <si>
@@ -642,9 +651,6 @@
     <t>2006</t>
   </si>
   <si>
-    <t>法术精通·祝福</t>
-  </si>
-  <si>
     <t>10026</t>
   </si>
   <si>
@@ -745,9 +751,6 @@
   </si>
   <si>
     <t>3006</t>
-  </si>
-  <si>
-    <t>道力精通·祝福</t>
   </si>
   <si>
     <t>10040</t>
@@ -774,7 +777,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -803,34 +806,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -844,14 +819,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -891,6 +858,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -941,7 +923,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,55 +976,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,31 +1000,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,6 +1036,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1099,7 +1060,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,7 +1108,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,6 +1144,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1164,21 +1167,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1211,6 +1199,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,148 +1270,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1422,52 +1425,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1960,2732 +1963,2732 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="11:14">
       <c r="C6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="11:14">
       <c r="C7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="11:14">
       <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" t="s">
+        <v>64</v>
+      </c>
+      <c r="S8" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" t="s">
+        <v>64</v>
+      </c>
+      <c r="U8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>60</v>
-      </c>
-      <c r="R8" t="s">
-        <v>60</v>
-      </c>
-      <c r="S8" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" t="s">
-        <v>60</v>
-      </c>
-      <c r="U8" t="s">
-        <v>62</v>
-      </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="11:14">
       <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
         <v>69</v>
       </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="18:22">
       <c r="C10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="18:22">
       <c r="C11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="18:22">
       <c r="C12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="18:22">
       <c r="C13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W25" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U26" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J28" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U28" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V29" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U30" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W30" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V31" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J32" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U32" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W32" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
         <v>129</v>
       </c>
-      <c r="D33" t="s">
-        <v>127</v>
-      </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J33" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V33" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W33" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J34" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W34" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
         <v>134</v>
       </c>
-      <c r="D35" t="s">
-        <v>132</v>
-      </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V35" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J36" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U36" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W36" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" t="s">
         <v>139</v>
       </c>
-      <c r="D37" t="s">
-        <v>137</v>
-      </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J37" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W37" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J38" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U38" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W38" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" t="s">
         <v>144</v>
       </c>
-      <c r="D39" t="s">
-        <v>142</v>
-      </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J39" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W39" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U40" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" ht="24.0" customHeight="true">
       <c r="C41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" t="s">
         <v>149</v>
       </c>
-      <c r="D41" t="s">
-        <v>147</v>
-      </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V41" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" ht="24.0" customHeight="true">
       <c r="C42" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" ht="24.0" customHeight="true">
       <c r="C43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" t="s">
         <v>154</v>
       </c>
-      <c r="D43" t="s">
-        <v>152</v>
-      </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J43" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V43" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W43" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" ht="24.0" customHeight="true">
       <c r="C44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" ht="24.0" customHeight="true">
       <c r="C45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" t="s">
         <v>159</v>
       </c>
-      <c r="D45" t="s">
-        <v>157</v>
-      </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J45" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V45" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W45" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" ht="24.0" customHeight="true">
       <c r="C46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U46" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" ht="24.0" customHeight="true">
       <c r="C47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J47" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V47" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W47" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4704,10 +4707,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:AD11"/>
+  <dimension ref="A3:AD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5329,6 +5332,186 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
+    <row r="12" spans="3:22">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1006</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>50</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>50</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3006</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>50</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:F5 G3:G5 C3:E5" errorStyle="warning">

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -762,7 +762,7 @@
     <t>基础剑术·晕眩</t>
   </si>
   <si>
-    <t>使目标晕眩2回合</t>
+    <t>使目标晕眩1回合</t>
   </si>
   <si>
     <t>冰咆哮·冰冻</t>
@@ -4710,7 +4710,7 @@
   <dimension ref="A3:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="174">
   <si>
     <t>_ID</t>
   </si>
@@ -784,6 +784,15 @@
   </si>
   <si>
     <t>刺杀剑术·吸血</t>
+  </si>
+  <si>
+    <t>烈火剑法·冷却</t>
+  </si>
+  <si>
+    <t>减少5秒CD</t>
+  </si>
+  <si>
+    <t>冰咆哮·冷却</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1764,7 @@
   <sheetPr/>
   <dimension ref="C3:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F47" sqref="$A41:$XFD41 $A47:$XFD47"/>
@@ -4854,10 +4863,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:AE15"/>
+  <dimension ref="A3:AE17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5727,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>0</v>
@@ -5754,6 +5763,136 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:24">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="3:24">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1007</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
         <v>101</v>
       </c>
     </row>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4865,8 +4865,8 @@
   <sheetPr/>
   <dimension ref="A3:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P15" s="1">
         <v>0</v>
@@ -5827,8 +5827,8 @@
       <c r="W16" s="3">
         <v>0</v>
       </c>
-      <c r="X16" s="1">
-        <v>101</v>
+      <c r="X16" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="3:24">
@@ -5892,8 +5892,8 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-      <c r="X17" s="1">
-        <v>101</v>
+      <c r="X17" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -786,13 +786,13 @@
     <t>刺杀剑术·吸血</t>
   </si>
   <si>
+    <t>冰咆哮·冷却</t>
+  </si>
+  <si>
+    <t>减少5秒CD</t>
+  </si>
+  <si>
     <t>烈火剑法·冷却</t>
-  </si>
-  <si>
-    <t>减少5秒CD</t>
-  </si>
-  <si>
-    <t>冰咆哮·冷却</t>
   </si>
 </sst>
 </file>
@@ -4866,7 +4866,7 @@
   <dimension ref="A3:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4866,7 +4866,7 @@
   <dimension ref="A3:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="175">
   <si>
     <t>_ID</t>
   </si>
@@ -498,7 +498,10 @@
     <t>10010</t>
   </si>
   <si>
-    <t>武力盾·致命</t>
+    <t>武力盾·强化</t>
+  </si>
+  <si>
+    <t>技能提高50%技能系数</t>
   </si>
   <si>
     <t>10011</t>
@@ -513,7 +516,7 @@
     <t>10012</t>
   </si>
   <si>
-    <t>武力精通·致命</t>
+    <t>武力精通·强化</t>
   </si>
   <si>
     <t>10013</t>
@@ -603,7 +606,7 @@
     <t>10024</t>
   </si>
   <si>
-    <t>魔法盾·致命</t>
+    <t>魔法盾·强化</t>
   </si>
   <si>
     <t>10025</t>
@@ -618,7 +621,7 @@
     <t>10026</t>
   </si>
   <si>
-    <t>法术精通·致命</t>
+    <t>法术精通·强化</t>
   </si>
   <si>
     <t>10027</t>
@@ -648,7 +651,7 @@
     <t>10030</t>
   </si>
   <si>
-    <t>治疗术·致命</t>
+    <t>治疗术·强化</t>
   </si>
   <si>
     <t>10031</t>
@@ -711,7 +714,7 @@
     <t>10038</t>
   </si>
   <si>
-    <t>道力盾·致命</t>
+    <t>道力盾·强化</t>
   </si>
   <si>
     <t>10039</t>
@@ -726,7 +729,7 @@
     <t>10040</t>
   </si>
   <si>
-    <t>道力精通·致命</t>
+    <t>道力精通·强化</t>
   </si>
   <si>
     <t>10041</t>
@@ -798,7 +801,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -827,6 +830,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -840,6 +871,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -879,21 +918,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -944,39 +968,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -997,13 +1000,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,19 +1066,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,18 +1114,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1081,31 +1126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,19 +1150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,12 +1174,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1188,6 +1191,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1220,21 +1238,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1291,148 +1294,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1446,52 +1449,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1764,10 +1767,10 @@
   <sheetPr/>
   <dimension ref="C3:X47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="$A41:$XFD41 $A47:$XFD47"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2614,7 +2617,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2673,13 +2676,13 @@
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:24">
       <c r="C16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
         <v>49</v>
@@ -2741,16 +2744,16 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:24">
       <c r="C17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -2809,13 +2812,13 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:24">
       <c r="C18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
         <v>49</v>
@@ -2877,13 +2880,13 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:24">
       <c r="C19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
         <v>55</v>
@@ -2945,13 +2948,13 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:24">
       <c r="C20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
@@ -3013,13 +3016,13 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:24">
       <c r="C21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
         <v>55</v>
@@ -3081,13 +3084,13 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:24">
       <c r="C22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
         <v>49</v>
@@ -3149,13 +3152,13 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:24">
       <c r="C23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
         <v>55</v>
@@ -3217,13 +3220,13 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:24">
       <c r="C24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
         <v>49</v>
@@ -3285,13 +3288,13 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:24">
       <c r="C25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
         <v>55</v>
@@ -3353,13 +3356,13 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:24">
       <c r="C26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
         <v>49</v>
@@ -3421,13 +3424,13 @@
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:24">
       <c r="C27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
         <v>55</v>
@@ -3489,13 +3492,13 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:24">
       <c r="C28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
         <v>49</v>
@@ -3557,16 +3560,16 @@
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:24">
       <c r="C29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
         <v>50</v>
@@ -3625,13 +3628,13 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:24">
       <c r="C30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
         <v>49</v>
@@ -3693,16 +3696,16 @@
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:24">
       <c r="C31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
         <v>50</v>
@@ -3761,13 +3764,13 @@
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:24">
       <c r="C32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
@@ -3829,13 +3832,13 @@
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:24">
       <c r="C33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F33" t="s">
         <v>55</v>
@@ -3897,13 +3900,13 @@
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:24">
       <c r="C34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F34" t="s">
         <v>49</v>
@@ -3965,16 +3968,16 @@
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:24">
       <c r="C35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s">
         <v>50</v>
@@ -4033,13 +4036,13 @@
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:24">
       <c r="C36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
         <v>49</v>
@@ -4101,13 +4104,13 @@
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:24">
       <c r="C37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F37" t="s">
         <v>55</v>
@@ -4169,13 +4172,13 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:24">
       <c r="C38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F38" t="s">
         <v>49</v>
@@ -4237,13 +4240,13 @@
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:24">
       <c r="C39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F39" t="s">
         <v>55</v>
@@ -4305,13 +4308,13 @@
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:24">
       <c r="C40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F40" t="s">
         <v>49</v>
@@ -4373,16 +4376,16 @@
     </row>
     <row r="41" ht="24" customHeight="1" spans="3:24">
       <c r="C41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G41" t="s">
         <v>50</v>
@@ -4441,13 +4444,13 @@
     </row>
     <row r="42" ht="24" customHeight="1" spans="3:24">
       <c r="C42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s">
         <v>49</v>
@@ -4509,16 +4512,16 @@
     </row>
     <row r="43" ht="24" customHeight="1" spans="3:24">
       <c r="C43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
         <v>50</v>
@@ -4577,13 +4580,13 @@
     </row>
     <row r="44" ht="24" customHeight="1" spans="3:24">
       <c r="C44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F44" t="s">
         <v>49</v>
@@ -4645,16 +4648,16 @@
     </row>
     <row r="45" ht="24" customHeight="1" spans="3:24">
       <c r="C45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -4713,13 +4716,13 @@
     </row>
     <row r="46" ht="24" customHeight="1" spans="3:24">
       <c r="C46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F46" t="s">
         <v>49</v>
@@ -4781,16 +4784,16 @@
     </row>
     <row r="47" ht="24" customHeight="1" spans="3:24">
       <c r="C47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G47" t="s">
         <v>50</v>
@@ -4865,7 +4868,7 @@
   <sheetPr/>
   <dimension ref="A3:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
@@ -5103,10 +5106,10 @@
         <v>1001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -5168,10 +5171,10 @@
         <v>2001</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -5233,10 +5236,10 @@
         <v>3001</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5300,10 +5303,10 @@
         <v>3002</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -5375,10 +5378,10 @@
         <v>1001</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -5450,10 +5453,10 @@
         <v>2007</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5523,10 +5526,10 @@
         <v>1006</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -5585,10 +5588,10 @@
         <v>2006</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5647,10 +5650,10 @@
         <v>3006</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5709,10 +5712,10 @@
         <v>1002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -5774,10 +5777,10 @@
         <v>2007</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -5839,10 +5842,10 @@
         <v>1007</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="G17" s="1">
         <v>5</v>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="177">
   <si>
     <t>_ID</t>
   </si>
@@ -492,13 +492,13 @@
     <t>1005</t>
   </si>
   <si>
-    <t>武力盾·祝福</t>
+    <t>武力盾·生命</t>
   </si>
   <si>
     <t>10010</t>
   </si>
   <si>
-    <t>武力盾·强化</t>
+    <t>武力盾·防御</t>
   </si>
   <si>
     <t>技能提高50%技能系数</t>
@@ -600,13 +600,13 @@
     <t>2005</t>
   </si>
   <si>
-    <t>魔法盾·祝福</t>
+    <t>魔法盾·生命</t>
   </si>
   <si>
     <t>10024</t>
   </si>
   <si>
-    <t>魔法盾·强化</t>
+    <t>魔法盾·防御</t>
   </si>
   <si>
     <t>10025</t>
@@ -708,13 +708,19 @@
     <t>3005</t>
   </si>
   <si>
-    <t>道力盾·祝福</t>
+    <t>道力盾·生命</t>
+  </si>
+  <si>
+    <t>技能提高50%生命加成</t>
   </si>
   <si>
     <t>10038</t>
   </si>
   <si>
-    <t>道力盾·强化</t>
+    <t>道力盾·防御</t>
+  </si>
+  <si>
+    <t>技能提高50%防御加成</t>
   </si>
   <si>
     <t>10039</t>
@@ -801,7 +807,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -830,34 +836,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -871,14 +849,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -918,6 +888,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -968,18 +953,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1000,55 +1006,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,31 +1030,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,6 +1066,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1126,7 +1090,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,7 +1138,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,6 +1174,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1191,21 +1197,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1238,6 +1229,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,148 +1300,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1449,52 +1455,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1767,10 +1773,10 @@
   <sheetPr/>
   <dimension ref="C3:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2058,8 +2064,8 @@
       <c r="W6">
         <v>0</v>
       </c>
-      <c r="X6" t="s">
-        <v>51</v>
+      <c r="X6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="3:24">
@@ -2126,8 +2132,8 @@
       <c r="W7">
         <v>0</v>
       </c>
-      <c r="X7" t="s">
-        <v>51</v>
+      <c r="X7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="3:24">
@@ -2194,8 +2200,8 @@
       <c r="W8">
         <v>0</v>
       </c>
-      <c r="X8" t="s">
-        <v>51</v>
+      <c r="X8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="3:24">
@@ -2262,8 +2268,8 @@
       <c r="W9">
         <v>0</v>
       </c>
-      <c r="X9" t="s">
-        <v>51</v>
+      <c r="X9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:24">
@@ -2330,8 +2336,8 @@
       <c r="W10">
         <v>0</v>
       </c>
-      <c r="X10" t="s">
-        <v>51</v>
+      <c r="X10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:24">
@@ -2398,8 +2404,8 @@
       <c r="W11">
         <v>0</v>
       </c>
-      <c r="X11" t="s">
-        <v>51</v>
+      <c r="X11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:24">
@@ -2466,8 +2472,8 @@
       <c r="W12">
         <v>0</v>
       </c>
-      <c r="X12" t="s">
-        <v>51</v>
+      <c r="X12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:24">
@@ -2534,8 +2540,8 @@
       <c r="W13">
         <v>0</v>
       </c>
-      <c r="X13" t="s">
-        <v>51</v>
+      <c r="X13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:24">
@@ -2576,7 +2582,7 @@
         <v>50</v>
       </c>
       <c r="O14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s">
         <v>50</v>
@@ -2594,7 +2600,7 @@
         <v>50</v>
       </c>
       <c r="U14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V14" t="s">
         <v>50</v>
@@ -2602,8 +2608,8 @@
       <c r="W14">
         <v>0</v>
       </c>
-      <c r="X14" t="s">
-        <v>51</v>
+      <c r="X14">
+        <v>5</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:24">
@@ -2644,7 +2650,7 @@
         <v>50</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s">
         <v>50</v>
@@ -2665,13 +2671,13 @@
         <v>50</v>
       </c>
       <c r="V15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
-      <c r="X15" t="s">
-        <v>51</v>
+      <c r="X15">
+        <v>4</v>
       </c>
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:24">
@@ -2738,8 +2744,8 @@
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16" t="s">
-        <v>51</v>
+      <c r="X16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:24">
@@ -2806,8 +2812,8 @@
       <c r="W17">
         <v>0</v>
       </c>
-      <c r="X17" t="s">
-        <v>51</v>
+      <c r="X17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:24">
@@ -2874,8 +2880,8 @@
       <c r="W18">
         <v>0</v>
       </c>
-      <c r="X18" t="s">
-        <v>51</v>
+      <c r="X18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:24">
@@ -2942,8 +2948,8 @@
       <c r="W19">
         <v>0</v>
       </c>
-      <c r="X19" t="s">
-        <v>51</v>
+      <c r="X19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:24">
@@ -3010,8 +3016,8 @@
       <c r="W20">
         <v>0</v>
       </c>
-      <c r="X20" t="s">
-        <v>51</v>
+      <c r="X20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:24">
@@ -3078,8 +3084,8 @@
       <c r="W21">
         <v>0</v>
       </c>
-      <c r="X21" t="s">
-        <v>51</v>
+      <c r="X21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:24">
@@ -3146,8 +3152,8 @@
       <c r="W22">
         <v>0</v>
       </c>
-      <c r="X22" t="s">
-        <v>51</v>
+      <c r="X22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:24">
@@ -3214,8 +3220,8 @@
       <c r="W23">
         <v>0</v>
       </c>
-      <c r="X23" t="s">
-        <v>51</v>
+      <c r="X23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:24">
@@ -3282,8 +3288,8 @@
       <c r="W24">
         <v>0</v>
       </c>
-      <c r="X24" t="s">
-        <v>51</v>
+      <c r="X24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:24">
@@ -3350,8 +3356,8 @@
       <c r="W25">
         <v>0</v>
       </c>
-      <c r="X25" t="s">
-        <v>51</v>
+      <c r="X25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:24">
@@ -3418,8 +3424,8 @@
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="X26" t="s">
-        <v>51</v>
+      <c r="X26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:24">
@@ -3486,8 +3492,8 @@
       <c r="W27">
         <v>0</v>
       </c>
-      <c r="X27" t="s">
-        <v>51</v>
+      <c r="X27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:24">
@@ -3528,7 +3534,7 @@
         <v>50</v>
       </c>
       <c r="O28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P28" t="s">
         <v>50</v>
@@ -3546,7 +3552,7 @@
         <v>50</v>
       </c>
       <c r="U28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V28" t="s">
         <v>50</v>
@@ -3554,8 +3560,8 @@
       <c r="W28">
         <v>0</v>
       </c>
-      <c r="X28" t="s">
-        <v>51</v>
+      <c r="X28">
+        <v>5</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:24">
@@ -3596,7 +3602,7 @@
         <v>50</v>
       </c>
       <c r="O29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P29" t="s">
         <v>50</v>
@@ -3617,13 +3623,13 @@
         <v>50</v>
       </c>
       <c r="V29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
-      <c r="X29" t="s">
-        <v>51</v>
+      <c r="X29">
+        <v>4</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:24">
@@ -3690,8 +3696,8 @@
       <c r="W30">
         <v>0</v>
       </c>
-      <c r="X30" t="s">
-        <v>51</v>
+      <c r="X30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:24">
@@ -3758,8 +3764,8 @@
       <c r="W31">
         <v>0</v>
       </c>
-      <c r="X31" t="s">
-        <v>51</v>
+      <c r="X31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:24">
@@ -3826,8 +3832,8 @@
       <c r="W32">
         <v>0</v>
       </c>
-      <c r="X32" t="s">
-        <v>51</v>
+      <c r="X32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:24">
@@ -3894,8 +3900,8 @@
       <c r="W33">
         <v>0</v>
       </c>
-      <c r="X33" t="s">
-        <v>51</v>
+      <c r="X33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:24">
@@ -3962,8 +3968,8 @@
       <c r="W34">
         <v>0</v>
       </c>
-      <c r="X34" t="s">
-        <v>51</v>
+      <c r="X34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:24">
@@ -4030,8 +4036,8 @@
       <c r="W35">
         <v>0</v>
       </c>
-      <c r="X35" t="s">
-        <v>51</v>
+      <c r="X35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:24">
@@ -4098,8 +4104,8 @@
       <c r="W36">
         <v>0</v>
       </c>
-      <c r="X36" t="s">
-        <v>51</v>
+      <c r="X36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:24">
@@ -4166,8 +4172,8 @@
       <c r="W37">
         <v>0</v>
       </c>
-      <c r="X37" t="s">
-        <v>51</v>
+      <c r="X37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:24">
@@ -4234,8 +4240,8 @@
       <c r="W38">
         <v>0</v>
       </c>
-      <c r="X38" t="s">
-        <v>51</v>
+      <c r="X38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:24">
@@ -4302,8 +4308,8 @@
       <c r="W39">
         <v>0</v>
       </c>
-      <c r="X39" t="s">
-        <v>51</v>
+      <c r="X39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:24">
@@ -4370,8 +4376,8 @@
       <c r="W40">
         <v>0</v>
       </c>
-      <c r="X40" t="s">
-        <v>51</v>
+      <c r="X40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" ht="24" customHeight="1" spans="3:24">
@@ -4438,8 +4444,8 @@
       <c r="W41">
         <v>20</v>
       </c>
-      <c r="X41" t="s">
-        <v>51</v>
+      <c r="X41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" ht="24" customHeight="1" spans="3:24">
@@ -4453,7 +4459,7 @@
         <v>145</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="G42" t="s">
         <v>50</v>
@@ -4480,7 +4486,7 @@
         <v>50</v>
       </c>
       <c r="O42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P42" t="s">
         <v>50</v>
@@ -4498,7 +4504,7 @@
         <v>50</v>
       </c>
       <c r="U42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V42" t="s">
         <v>50</v>
@@ -4506,22 +4512,22 @@
       <c r="W42">
         <v>0</v>
       </c>
-      <c r="X42" t="s">
-        <v>51</v>
+      <c r="X42">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="24" customHeight="1" spans="3:24">
       <c r="C43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
         <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="G43" t="s">
         <v>50</v>
@@ -4548,7 +4554,7 @@
         <v>50</v>
       </c>
       <c r="O43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P43" t="s">
         <v>50</v>
@@ -4569,24 +4575,24 @@
         <v>50</v>
       </c>
       <c r="V43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
-      <c r="X43" t="s">
-        <v>51</v>
+      <c r="X43">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="24" customHeight="1" spans="3:24">
       <c r="C44" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F44" t="s">
         <v>49</v>
@@ -4642,19 +4648,19 @@
       <c r="W44">
         <v>0</v>
       </c>
-      <c r="X44" t="s">
-        <v>51</v>
+      <c r="X44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" ht="24" customHeight="1" spans="3:24">
       <c r="C45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" t="s">
         <v>151</v>
       </c>
-      <c r="D45" t="s">
-        <v>149</v>
-      </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F45" t="s">
         <v>76</v>
@@ -4710,19 +4716,19 @@
       <c r="W45">
         <v>0</v>
       </c>
-      <c r="X45" t="s">
-        <v>51</v>
+      <c r="X45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" ht="24" customHeight="1" spans="3:24">
       <c r="C46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F46" t="s">
         <v>49</v>
@@ -4778,19 +4784,19 @@
       <c r="W46">
         <v>0</v>
       </c>
-      <c r="X46" t="s">
-        <v>51</v>
+      <c r="X46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" ht="24" customHeight="1" spans="3:24">
       <c r="C47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="s">
         <v>156</v>
       </c>
-      <c r="D47" t="s">
-        <v>154</v>
-      </c>
       <c r="E47" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F47" t="s">
         <v>142</v>
@@ -4846,8 +4852,8 @@
       <c r="W47">
         <v>20</v>
       </c>
-      <c r="X47" t="s">
-        <v>51</v>
+      <c r="X47">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4868,8 +4874,8 @@
   <sheetPr/>
   <dimension ref="A3:AE17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5106,10 +5112,10 @@
         <v>1001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -5171,10 +5177,10 @@
         <v>2001</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -5236,10 +5242,10 @@
         <v>3001</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5303,10 +5309,10 @@
         <v>3002</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -5378,10 +5384,10 @@
         <v>1001</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -5453,10 +5459,10 @@
         <v>2007</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5518,7 +5524,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="3:23">
+    <row r="12" spans="3:24">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -5529,7 +5535,7 @@
         <v>79</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -5579,8 +5585,11 @@
       <c r="W12" s="3">
         <v>0</v>
       </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="3:23">
+    <row r="13" spans="3:24">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -5591,7 +5600,7 @@
         <v>114</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5641,8 +5650,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="3:23">
+    <row r="14" spans="3:24">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -5650,10 +5662,10 @@
         <v>3006</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5701,6 +5713,9 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5712,10 +5727,10 @@
         <v>1002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -5777,10 +5792,10 @@
         <v>2007</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -5842,10 +5857,10 @@
         <v>1007</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G17" s="1">
         <v>5</v>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -495,30 +495,36 @@
     <t>武力盾·生命</t>
   </si>
   <si>
+    <t>技能提高50%生命加成</t>
+  </si>
+  <si>
     <t>10010</t>
   </si>
   <si>
     <t>武力盾·防御</t>
   </si>
   <si>
+    <t>技能提高50%防御加成</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>武力精通·祝福</t>
+  </si>
+  <si>
+    <t>10012</t>
+  </si>
+  <si>
+    <t>武力精通·强化</t>
+  </si>
+  <si>
     <t>技能提高50%技能系数</t>
   </si>
   <si>
-    <t>10011</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>武力精通·祝福</t>
-  </si>
-  <si>
-    <t>10012</t>
-  </si>
-  <si>
-    <t>武力精通·强化</t>
-  </si>
-  <si>
     <t>10013</t>
   </si>
   <si>
@@ -711,18 +717,12 @@
     <t>道力盾·生命</t>
   </si>
   <si>
-    <t>技能提高50%生命加成</t>
-  </si>
-  <si>
     <t>10038</t>
   </si>
   <si>
     <t>道力盾·防御</t>
   </si>
   <si>
-    <t>技能提高50%防御加成</t>
-  </si>
-  <si>
     <t>10039</t>
   </si>
   <si>
@@ -762,19 +762,19 @@
     <t>火球术·灼烧</t>
   </si>
   <si>
-    <t>增加一个持续4回合50%灼烧效果</t>
+    <t>增加一个持续4回合100%灼烧效果</t>
   </si>
   <si>
     <t>治疗术·回复</t>
   </si>
   <si>
-    <t>增加一个持续4回合50%回复效果</t>
+    <t>增加一个持续4回合100%回复效果</t>
   </si>
   <si>
     <t>火符术·中毒</t>
   </si>
   <si>
-    <t>增加一个持续4回合50%中毒效果</t>
+    <t>增加一个持续4回合100%中毒效果</t>
   </si>
   <si>
     <t>基础剑术·晕眩</t>
@@ -1774,9 +1774,9 @@
   <dimension ref="C3:X47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2555,7 +2555,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2614,16 +2614,16 @@
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:24">
       <c r="C15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
         <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2682,13 +2682,13 @@
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:24">
       <c r="C16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
         <v>49</v>
@@ -2750,16 +2750,16 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:24">
       <c r="C17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -2818,13 +2818,13 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:24">
       <c r="C18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
         <v>49</v>
@@ -2886,13 +2886,13 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:24">
       <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
         <v>85</v>
       </c>
-      <c r="D19" t="s">
-        <v>83</v>
-      </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
         <v>55</v>
@@ -2954,13 +2954,13 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:24">
       <c r="C20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
@@ -3022,13 +3022,13 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:24">
       <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
         <v>90</v>
       </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
         <v>55</v>
@@ -3090,13 +3090,13 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:24">
       <c r="C22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
         <v>49</v>
@@ -3158,13 +3158,13 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:24">
       <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
         <v>95</v>
       </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
         <v>55</v>
@@ -3226,13 +3226,13 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:24">
       <c r="C24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
         <v>49</v>
@@ -3294,13 +3294,13 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:24">
       <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
         <v>100</v>
       </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F25" t="s">
         <v>55</v>
@@ -3362,13 +3362,13 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:24">
       <c r="C26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
         <v>49</v>
@@ -3430,13 +3430,13 @@
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:24">
       <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
         <v>105</v>
       </c>
-      <c r="D27" t="s">
-        <v>103</v>
-      </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
         <v>55</v>
@@ -3498,16 +3498,16 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:24">
       <c r="C28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
         <v>50</v>
@@ -3566,16 +3566,16 @@
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:24">
       <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
         <v>110</v>
       </c>
-      <c r="D29" t="s">
-        <v>108</v>
-      </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
         <v>50</v>
@@ -3634,13 +3634,13 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:24">
       <c r="C30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
         <v>49</v>
@@ -3702,16 +3702,16 @@
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:24">
       <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
         <v>115</v>
       </c>
-      <c r="D31" t="s">
-        <v>113</v>
-      </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s">
         <v>50</v>
@@ -3770,13 +3770,13 @@
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:24">
       <c r="C32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
@@ -3838,13 +3838,13 @@
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:24">
       <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
         <v>120</v>
       </c>
-      <c r="D33" t="s">
-        <v>118</v>
-      </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F33" t="s">
         <v>55</v>
@@ -3906,13 +3906,13 @@
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:24">
       <c r="C34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
         <v>49</v>
@@ -3974,16 +3974,16 @@
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:24">
       <c r="C35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" t="s">
         <v>125</v>
       </c>
-      <c r="D35" t="s">
-        <v>123</v>
-      </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
         <v>50</v>
@@ -4042,13 +4042,13 @@
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:24">
       <c r="C36" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F36" t="s">
         <v>49</v>
@@ -4110,13 +4110,13 @@
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:24">
       <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
         <v>130</v>
       </c>
-      <c r="D37" t="s">
-        <v>128</v>
-      </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
         <v>55</v>
@@ -4178,13 +4178,13 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:24">
       <c r="C38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F38" t="s">
         <v>49</v>
@@ -4246,13 +4246,13 @@
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:24">
       <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" t="s">
         <v>135</v>
       </c>
-      <c r="D39" t="s">
-        <v>133</v>
-      </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F39" t="s">
         <v>55</v>
@@ -4314,13 +4314,13 @@
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:24">
       <c r="C40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
         <v>49</v>
@@ -4382,16 +4382,16 @@
     </row>
     <row r="41" ht="24" customHeight="1" spans="3:24">
       <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" t="s">
         <v>140</v>
       </c>
-      <c r="D41" t="s">
-        <v>138</v>
-      </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G41" t="s">
         <v>50</v>
@@ -4450,16 +4450,16 @@
     </row>
     <row r="42" ht="24" customHeight="1" spans="3:24">
       <c r="C42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F42" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s">
         <v>50</v>
@@ -4518,16 +4518,16 @@
     </row>
     <row r="43" ht="24" customHeight="1" spans="3:24">
       <c r="C43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F43" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s">
         <v>50</v>
@@ -4663,7 +4663,7 @@
         <v>154</v>
       </c>
       <c r="F45" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -4799,7 +4799,7 @@
         <v>159</v>
       </c>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G47" t="s">
         <v>50</v>
@@ -4875,14 +4875,14 @@
   <dimension ref="A3:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="11" width="10.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.875" style="1" customWidth="1"/>
@@ -5532,7 +5532,7 @@
         <v>1006</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>172</v>
@@ -5597,7 +5597,7 @@
         <v>2006</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>172</v>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="173">
   <si>
     <t>_ID</t>
   </si>
@@ -510,286 +510,274 @@
     <t>10011</t>
   </si>
   <si>
-    <t>1006</t>
+    <t>道力精通·配重复了</t>
+  </si>
+  <si>
+    <t>配重复了</t>
+  </si>
+  <si>
+    <t>10012</t>
+  </si>
+  <si>
+    <t>10013</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>烈火剑法·祝福</t>
+  </si>
+  <si>
+    <t>10014</t>
+  </si>
+  <si>
+    <t>烈火剑法·致命</t>
+  </si>
+  <si>
+    <t>10015</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>小火球·祝福</t>
+  </si>
+  <si>
+    <t>10016</t>
+  </si>
+  <si>
+    <t>小火球·致命</t>
+  </si>
+  <si>
+    <t>10017</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>雷电术·祝福</t>
+  </si>
+  <si>
+    <t>10018</t>
+  </si>
+  <si>
+    <t>雷电术·致命</t>
+  </si>
+  <si>
+    <t>10019</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>火墙·祝福</t>
+  </si>
+  <si>
+    <t>10020</t>
+  </si>
+  <si>
+    <t>火墙·致命</t>
+  </si>
+  <si>
+    <t>10021</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>爆裂火焰·祝福</t>
+  </si>
+  <si>
+    <t>10022</t>
+  </si>
+  <si>
+    <t>爆裂火焰·致命</t>
+  </si>
+  <si>
+    <t>10023</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>魔法盾·生命</t>
+  </si>
+  <si>
+    <t>10024</t>
+  </si>
+  <si>
+    <t>魔法盾·防御</t>
+  </si>
+  <si>
+    <t>10025</t>
+  </si>
+  <si>
+    <t>10026</t>
+  </si>
+  <si>
+    <t>10027</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>冰咆哮·祝福</t>
+  </si>
+  <si>
+    <t>10028</t>
+  </si>
+  <si>
+    <t>冰咆哮·致命</t>
+  </si>
+  <si>
+    <t>10029</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>治疗术·祝福</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>治疗术·强化</t>
+  </si>
+  <si>
+    <t>技能提高50%技能系数</t>
+  </si>
+  <si>
+    <t>10031</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>火符术·祝福</t>
+  </si>
+  <si>
+    <t>10032</t>
+  </si>
+  <si>
+    <t>火符术·致命</t>
+  </si>
+  <si>
+    <t>10033</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>施毒术·祝福</t>
+  </si>
+  <si>
+    <t>10034</t>
+  </si>
+  <si>
+    <t>施毒术·致命</t>
+  </si>
+  <si>
+    <t>10035</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>召唤骷髅·祝福</t>
+  </si>
+  <si>
+    <t>10036</t>
+  </si>
+  <si>
+    <t>召唤骷髅·传承</t>
+  </si>
+  <si>
+    <t>召唤物增加20%高级属性继承</t>
+  </si>
+  <si>
+    <t>10037</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>道力盾·生命</t>
+  </si>
+  <si>
+    <t>10038</t>
+  </si>
+  <si>
+    <t>道力盾·防御</t>
+  </si>
+  <si>
+    <t>10039</t>
+  </si>
+  <si>
+    <t>10040</t>
+  </si>
+  <si>
+    <t>10041</t>
+  </si>
+  <si>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>召唤神兽·祝福</t>
+  </si>
+  <si>
+    <t>10042</t>
+  </si>
+  <si>
+    <t>召唤神兽·传承</t>
+  </si>
+  <si>
+    <t>基础剑术·吸血</t>
+  </si>
+  <si>
+    <t>附带20%吸血效果</t>
+  </si>
+  <si>
+    <t>火球术·灼烧</t>
+  </si>
+  <si>
+    <t>增加一个持续4回合100%灼烧效果</t>
+  </si>
+  <si>
+    <t>治疗术·回复</t>
+  </si>
+  <si>
+    <t>增加一个持续4回合100%回复效果</t>
+  </si>
+  <si>
+    <t>火符术·中毒</t>
+  </si>
+  <si>
+    <t>增加一个持续4回合100%中毒效果</t>
+  </si>
+  <si>
+    <t>基础剑术·晕眩</t>
+  </si>
+  <si>
+    <t>使目标晕眩1回合</t>
+  </si>
+  <si>
+    <t>冰咆哮·冰冻</t>
+  </si>
+  <si>
+    <t>使目标冰冻1回合</t>
   </si>
   <si>
     <t>武力精通·祝福</t>
   </si>
   <si>
-    <t>10012</t>
-  </si>
-  <si>
-    <t>武力精通·强化</t>
-  </si>
-  <si>
-    <t>技能提高50%技能系数</t>
-  </si>
-  <si>
-    <t>10013</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>烈火剑法·祝福</t>
-  </si>
-  <si>
-    <t>10014</t>
-  </si>
-  <si>
-    <t>烈火剑法·致命</t>
-  </si>
-  <si>
-    <t>10015</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>小火球·祝福</t>
-  </si>
-  <si>
-    <t>10016</t>
-  </si>
-  <si>
-    <t>小火球·致命</t>
-  </si>
-  <si>
-    <t>10017</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>雷电术·祝福</t>
-  </si>
-  <si>
-    <t>10018</t>
-  </si>
-  <si>
-    <t>雷电术·致命</t>
-  </si>
-  <si>
-    <t>10019</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>火墙·祝福</t>
-  </si>
-  <si>
-    <t>10020</t>
-  </si>
-  <si>
-    <t>火墙·致命</t>
-  </si>
-  <si>
-    <t>10021</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>爆裂火焰·祝福</t>
-  </si>
-  <si>
-    <t>10022</t>
-  </si>
-  <si>
-    <t>爆裂火焰·致命</t>
-  </si>
-  <si>
-    <t>10023</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>魔法盾·生命</t>
-  </si>
-  <si>
-    <t>10024</t>
-  </si>
-  <si>
-    <t>魔法盾·防御</t>
-  </si>
-  <si>
-    <t>10025</t>
-  </si>
-  <si>
-    <t>2006</t>
+    <t>提高50%技能系数</t>
   </si>
   <si>
     <t>法术精通·祝福</t>
   </si>
   <si>
-    <t>10026</t>
-  </si>
-  <si>
-    <t>法术精通·强化</t>
-  </si>
-  <si>
-    <t>10027</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>冰咆哮·祝福</t>
-  </si>
-  <si>
-    <t>10028</t>
-  </si>
-  <si>
-    <t>冰咆哮·致命</t>
-  </si>
-  <si>
-    <t>10029</t>
-  </si>
-  <si>
-    <t>3001</t>
-  </si>
-  <si>
-    <t>治疗术·祝福</t>
-  </si>
-  <si>
-    <t>10030</t>
-  </si>
-  <si>
-    <t>治疗术·强化</t>
-  </si>
-  <si>
-    <t>10031</t>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>火符术·祝福</t>
-  </si>
-  <si>
-    <t>10032</t>
-  </si>
-  <si>
-    <t>火符术·致命</t>
-  </si>
-  <si>
-    <t>10033</t>
-  </si>
-  <si>
-    <t>3003</t>
-  </si>
-  <si>
-    <t>施毒术·祝福</t>
-  </si>
-  <si>
-    <t>10034</t>
-  </si>
-  <si>
-    <t>施毒术·致命</t>
-  </si>
-  <si>
-    <t>10035</t>
-  </si>
-  <si>
-    <t>3004</t>
-  </si>
-  <si>
-    <t>召唤骷髅·祝福</t>
-  </si>
-  <si>
-    <t>10036</t>
-  </si>
-  <si>
-    <t>召唤骷髅·传承</t>
-  </si>
-  <si>
-    <t>召唤物增加20%高级属性继承</t>
-  </si>
-  <si>
-    <t>10037</t>
-  </si>
-  <si>
-    <t>3005</t>
-  </si>
-  <si>
-    <t>道力盾·生命</t>
-  </si>
-  <si>
-    <t>10038</t>
-  </si>
-  <si>
-    <t>道力盾·防御</t>
-  </si>
-  <si>
-    <t>10039</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
     <t>道力精通·祝福</t>
-  </si>
-  <si>
-    <t>10040</t>
-  </si>
-  <si>
-    <t>道力精通·强化</t>
-  </si>
-  <si>
-    <t>10041</t>
-  </si>
-  <si>
-    <t>3007</t>
-  </si>
-  <si>
-    <t>召唤神兽·祝福</t>
-  </si>
-  <si>
-    <t>10042</t>
-  </si>
-  <si>
-    <t>召唤神兽·传承</t>
-  </si>
-  <si>
-    <t>基础剑术·吸血</t>
-  </si>
-  <si>
-    <t>附带20%吸血效果</t>
-  </si>
-  <si>
-    <t>火球术·灼烧</t>
-  </si>
-  <si>
-    <t>增加一个持续4回合100%灼烧效果</t>
-  </si>
-  <si>
-    <t>治疗术·回复</t>
-  </si>
-  <si>
-    <t>增加一个持续4回合100%回复效果</t>
-  </si>
-  <si>
-    <t>火符术·中毒</t>
-  </si>
-  <si>
-    <t>增加一个持续4回合100%中毒效果</t>
-  </si>
-  <si>
-    <t>基础剑术·晕眩</t>
-  </si>
-  <si>
-    <t>使目标晕眩1回合</t>
-  </si>
-  <si>
-    <t>冰咆哮·冰冻</t>
-  </si>
-  <si>
-    <t>使目标冰冻1回合</t>
-  </si>
-  <si>
-    <t>提高50%技能系数</t>
   </si>
   <si>
     <t>刺杀剑术·吸血</t>
@@ -1773,10 +1761,10 @@
   <sheetPr/>
   <dimension ref="C3:X47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14:F15"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2684,14 +2672,14 @@
       <c r="C16" t="s">
         <v>78</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
         <v>79</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>80</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2752,14 +2740,14 @@
       <c r="C17" t="s">
         <v>81</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>79</v>
       </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -2818,13 +2806,13 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:24">
       <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
         <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
       </c>
       <c r="F18" t="s">
         <v>49</v>
@@ -2886,13 +2874,13 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:24">
       <c r="C19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
         <v>55</v>
@@ -2954,13 +2942,13 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:24">
       <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
         <v>89</v>
-      </c>
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" t="s">
-        <v>91</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
@@ -3022,13 +3010,13 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:24">
       <c r="C21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
         <v>55</v>
@@ -3090,13 +3078,13 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:24">
       <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" t="s">
         <v>94</v>
-      </c>
-      <c r="D22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" t="s">
-        <v>96</v>
       </c>
       <c r="F22" t="s">
         <v>49</v>
@@ -3158,13 +3146,13 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:24">
       <c r="C23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
         <v>55</v>
@@ -3226,13 +3214,13 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:24">
       <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
         <v>99</v>
-      </c>
-      <c r="D24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>101</v>
       </c>
       <c r="F24" t="s">
         <v>49</v>
@@ -3294,13 +3282,13 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:24">
       <c r="C25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
         <v>55</v>
@@ -3362,13 +3350,13 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:24">
       <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s">
         <v>104</v>
-      </c>
-      <c r="D26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" t="s">
-        <v>106</v>
       </c>
       <c r="F26" t="s">
         <v>49</v>
@@ -3430,13 +3418,13 @@
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:24">
       <c r="C27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
         <v>55</v>
@@ -3498,13 +3486,13 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:24">
       <c r="C28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
         <v>109</v>
-      </c>
-      <c r="D28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" t="s">
-        <v>111</v>
       </c>
       <c r="F28" t="s">
         <v>74</v>
@@ -3566,13 +3554,13 @@
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:24">
       <c r="C29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
         <v>77</v>
@@ -3634,16 +3622,16 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:24">
       <c r="C30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -3702,16 +3690,16 @@
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:24">
       <c r="C31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
         <v>50</v>
@@ -3770,13 +3758,13 @@
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:24">
       <c r="C32" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
@@ -3838,13 +3826,13 @@
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:24">
       <c r="C33" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s">
         <v>55</v>
@@ -3906,13 +3894,13 @@
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:24">
       <c r="C34" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
         <v>49</v>
@@ -3974,16 +3962,16 @@
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:24">
       <c r="C35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="G35" t="s">
         <v>50</v>
@@ -4042,13 +4030,13 @@
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:24">
       <c r="C36" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
         <v>49</v>
@@ -4110,13 +4098,13 @@
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:24">
       <c r="C37" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F37" t="s">
         <v>55</v>
@@ -4178,13 +4166,13 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:24">
       <c r="C38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F38" t="s">
         <v>49</v>
@@ -4246,13 +4234,13 @@
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:24">
       <c r="C39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F39" t="s">
         <v>55</v>
@@ -4314,13 +4302,13 @@
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:24">
       <c r="C40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F40" t="s">
         <v>49</v>
@@ -4382,16 +4370,16 @@
     </row>
     <row r="41" ht="24" customHeight="1" spans="3:24">
       <c r="C41" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" t="s">
         <v>140</v>
-      </c>
-      <c r="E41" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" t="s">
-        <v>144</v>
       </c>
       <c r="G41" t="s">
         <v>50</v>
@@ -4450,13 +4438,13 @@
     </row>
     <row r="42" ht="24" customHeight="1" spans="3:24">
       <c r="C42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F42" t="s">
         <v>74</v>
@@ -4518,13 +4506,13 @@
     </row>
     <row r="43" ht="24" customHeight="1" spans="3:24">
       <c r="C43" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F43" t="s">
         <v>77</v>
@@ -4586,16 +4574,16 @@
     </row>
     <row r="44" ht="24" customHeight="1" spans="3:24">
       <c r="C44" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s">
         <v>50</v>
@@ -4654,16 +4642,16 @@
     </row>
     <row r="45" ht="24" customHeight="1" spans="3:24">
       <c r="C45" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -4722,13 +4710,13 @@
     </row>
     <row r="46" ht="24" customHeight="1" spans="3:24">
       <c r="C46" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E46" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F46" t="s">
         <v>49</v>
@@ -4790,16 +4778,16 @@
     </row>
     <row r="47" ht="24" customHeight="1" spans="3:24">
       <c r="C47" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D47" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F47" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G47" t="s">
         <v>50</v>
@@ -4874,8 +4862,8 @@
   <sheetPr/>
   <dimension ref="A3:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5112,10 +5100,10 @@
         <v>1001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -5177,10 +5165,10 @@
         <v>2001</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -5242,10 +5230,10 @@
         <v>3001</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5309,10 +5297,10 @@
         <v>3002</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -5384,10 +5372,10 @@
         <v>1001</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -5459,10 +5447,10 @@
         <v>2007</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5532,10 +5520,10 @@
         <v>1006</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -5597,10 +5585,10 @@
         <v>2006</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5662,10 +5650,10 @@
         <v>3006</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5727,10 +5715,10 @@
         <v>1002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -5792,10 +5780,10 @@
         <v>2007</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -5857,10 +5845,10 @@
         <v>1007</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G17" s="1">
         <v>5</v>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -756,10 +756,10 @@
     <t>增加一个持续4回合100%中毒效果</t>
   </si>
   <si>
-    <t>基础剑术·晕眩</t>
-  </si>
-  <si>
-    <t>使目标晕眩1回合</t>
+    <t>基础剑术·流血</t>
+  </si>
+  <si>
+    <t>使目标附加50%的伤害,叠加3层,持续4s</t>
   </si>
   <si>
     <t>冰咆哮·冰冻</t>
@@ -1761,7 +1761,7 @@
   <sheetPr/>
   <dimension ref="C3:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
@@ -4862,15 +4862,15 @@
   <sheetPr/>
   <dimension ref="A3:AE17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="11" width="10.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.875" style="1" customWidth="1"/>
@@ -5388,10 +5388,10 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="172">
   <si>
     <t>_ID</t>
   </si>
@@ -496,9 +496,6 @@
   </si>
   <si>
     <t>技能提高50%生命加成</t>
-  </si>
-  <si>
-    <t>10010</t>
   </si>
   <si>
     <t>武力盾·防御</t>
@@ -1761,10 +1758,10 @@
   <sheetPr/>
   <dimension ref="C3:X47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2601,17 +2598,17 @@
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:24">
-      <c r="C15" t="s">
-        <v>75</v>
+      <c r="C15">
+        <v>10010</v>
       </c>
       <c r="D15" t="s">
         <v>72</v>
       </c>
       <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
         <v>76</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2670,16 +2667,16 @@
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:24">
       <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
         <v>78</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>79</v>
-      </c>
-      <c r="F16" t="s">
-        <v>80</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2738,16 +2735,16 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:24">
       <c r="C17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
         <v>79</v>
-      </c>
-      <c r="F17" t="s">
-        <v>80</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -2806,13 +2803,13 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:24">
       <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
         <v>82</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>83</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
       </c>
       <c r="F18" t="s">
         <v>49</v>
@@ -2874,13 +2871,13 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:24">
       <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
         <v>85</v>
-      </c>
-      <c r="D19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" t="s">
-        <v>86</v>
       </c>
       <c r="F19" t="s">
         <v>55</v>
@@ -2942,13 +2939,13 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:24">
       <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
         <v>87</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>88</v>
-      </c>
-      <c r="E20" t="s">
-        <v>89</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
@@ -3010,13 +3007,13 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:24">
       <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
         <v>90</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
       </c>
       <c r="F21" t="s">
         <v>55</v>
@@ -3078,13 +3075,13 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:24">
       <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
         <v>92</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>93</v>
-      </c>
-      <c r="E22" t="s">
-        <v>94</v>
       </c>
       <c r="F22" t="s">
         <v>49</v>
@@ -3146,13 +3143,13 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:24">
       <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
         <v>95</v>
-      </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" t="s">
-        <v>96</v>
       </c>
       <c r="F23" t="s">
         <v>55</v>
@@ -3214,13 +3211,13 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:24">
       <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
         <v>97</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>98</v>
-      </c>
-      <c r="E24" t="s">
-        <v>99</v>
       </c>
       <c r="F24" t="s">
         <v>49</v>
@@ -3282,13 +3279,13 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:24">
       <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
         <v>100</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" t="s">
-        <v>101</v>
       </c>
       <c r="F25" t="s">
         <v>55</v>
@@ -3350,13 +3347,13 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:24">
       <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
         <v>102</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>103</v>
-      </c>
-      <c r="E26" t="s">
-        <v>104</v>
       </c>
       <c r="F26" t="s">
         <v>49</v>
@@ -3418,13 +3415,13 @@
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:24">
       <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
         <v>105</v>
-      </c>
-      <c r="D27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" t="s">
-        <v>106</v>
       </c>
       <c r="F27" t="s">
         <v>55</v>
@@ -3486,13 +3483,13 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:24">
       <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
         <v>107</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>108</v>
-      </c>
-      <c r="E28" t="s">
-        <v>109</v>
       </c>
       <c r="F28" t="s">
         <v>74</v>
@@ -3554,16 +3551,16 @@
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:24">
       <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" t="s">
         <v>110</v>
       </c>
-      <c r="D29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" t="s">
-        <v>111</v>
-      </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
         <v>50</v>
@@ -3622,16 +3619,16 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:24">
       <c r="C30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
         <v>79</v>
-      </c>
-      <c r="F30" t="s">
-        <v>80</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -3690,16 +3687,16 @@
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:24">
       <c r="C31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
         <v>79</v>
-      </c>
-      <c r="F31" t="s">
-        <v>80</v>
       </c>
       <c r="G31" t="s">
         <v>50</v>
@@ -3758,13 +3755,13 @@
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:24">
       <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" t="s">
         <v>114</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>115</v>
-      </c>
-      <c r="E32" t="s">
-        <v>116</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
@@ -3826,13 +3823,13 @@
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:24">
       <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
         <v>117</v>
-      </c>
-      <c r="D33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" t="s">
-        <v>118</v>
       </c>
       <c r="F33" t="s">
         <v>55</v>
@@ -3894,13 +3891,13 @@
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:24">
       <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="s">
         <v>119</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>120</v>
-      </c>
-      <c r="E34" t="s">
-        <v>121</v>
       </c>
       <c r="F34" t="s">
         <v>49</v>
@@ -3962,16 +3959,16 @@
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:24">
       <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" t="s">
         <v>122</v>
       </c>
-      <c r="D35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>123</v>
-      </c>
-      <c r="F35" t="s">
-        <v>124</v>
       </c>
       <c r="G35" t="s">
         <v>50</v>
@@ -4030,13 +4027,13 @@
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:24">
       <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
         <v>125</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>126</v>
-      </c>
-      <c r="E36" t="s">
-        <v>127</v>
       </c>
       <c r="F36" t="s">
         <v>49</v>
@@ -4098,13 +4095,13 @@
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:24">
       <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" t="s">
         <v>128</v>
-      </c>
-      <c r="D37" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" t="s">
-        <v>129</v>
       </c>
       <c r="F37" t="s">
         <v>55</v>
@@ -4166,13 +4163,13 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:24">
       <c r="C38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" t="s">
         <v>130</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>131</v>
-      </c>
-      <c r="E38" t="s">
-        <v>132</v>
       </c>
       <c r="F38" t="s">
         <v>49</v>
@@ -4234,13 +4231,13 @@
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:24">
       <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" t="s">
         <v>133</v>
-      </c>
-      <c r="D39" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" t="s">
-        <v>134</v>
       </c>
       <c r="F39" t="s">
         <v>55</v>
@@ -4302,13 +4299,13 @@
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:24">
       <c r="C40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" t="s">
         <v>135</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>136</v>
-      </c>
-      <c r="E40" t="s">
-        <v>137</v>
       </c>
       <c r="F40" t="s">
         <v>49</v>
@@ -4370,16 +4367,16 @@
     </row>
     <row r="41" ht="24" customHeight="1" spans="3:24">
       <c r="C41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" t="s">
         <v>138</v>
       </c>
-      <c r="D41" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>139</v>
-      </c>
-      <c r="F41" t="s">
-        <v>140</v>
       </c>
       <c r="G41" t="s">
         <v>50</v>
@@ -4438,13 +4435,13 @@
     </row>
     <row r="42" ht="24" customHeight="1" spans="3:24">
       <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
         <v>141</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>142</v>
-      </c>
-      <c r="E42" t="s">
-        <v>143</v>
       </c>
       <c r="F42" t="s">
         <v>74</v>
@@ -4506,16 +4503,16 @@
     </row>
     <row r="43" ht="24" customHeight="1" spans="3:24">
       <c r="C43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" t="s">
         <v>144</v>
       </c>
-      <c r="D43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" t="s">
-        <v>145</v>
-      </c>
       <c r="F43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
         <v>50</v>
@@ -4574,16 +4571,16 @@
     </row>
     <row r="44" ht="24" customHeight="1" spans="3:24">
       <c r="C44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" t="s">
         <v>79</v>
-      </c>
-      <c r="F44" t="s">
-        <v>80</v>
       </c>
       <c r="G44" t="s">
         <v>50</v>
@@ -4642,16 +4639,16 @@
     </row>
     <row r="45" ht="24" customHeight="1" spans="3:24">
       <c r="C45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s">
         <v>79</v>
-      </c>
-      <c r="F45" t="s">
-        <v>80</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -4710,13 +4707,13 @@
     </row>
     <row r="46" ht="24" customHeight="1" spans="3:24">
       <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" t="s">
         <v>148</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>149</v>
-      </c>
-      <c r="E46" t="s">
-        <v>150</v>
       </c>
       <c r="F46" t="s">
         <v>49</v>
@@ -4778,16 +4775,16 @@
     </row>
     <row r="47" ht="24" customHeight="1" spans="3:24">
       <c r="C47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" t="s">
         <v>151</v>
       </c>
-      <c r="D47" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" t="s">
-        <v>152</v>
-      </c>
       <c r="F47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G47" t="s">
         <v>50</v>
@@ -4862,7 +4859,7 @@
   <sheetPr/>
   <dimension ref="A3:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
@@ -5100,10 +5097,10 @@
         <v>1001</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -5165,10 +5162,10 @@
         <v>2001</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -5230,10 +5227,10 @@
         <v>3001</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5297,10 +5294,10 @@
         <v>3002</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -5372,10 +5369,10 @@
         <v>1001</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -5447,10 +5444,10 @@
         <v>2007</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5520,10 +5517,10 @@
         <v>1006</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -5585,10 +5582,10 @@
         <v>2006</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5650,10 +5647,10 @@
         <v>3006</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5715,10 +5712,10 @@
         <v>1002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -5780,10 +5777,10 @@
         <v>2007</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -5845,10 +5842,10 @@
         <v>1007</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G17" s="1">
         <v>5</v>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="17800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="173">
   <si>
     <t>_ID</t>
   </si>
@@ -759,7 +759,7 @@
     <t>使目标附加50%的伤害,叠加3层,持续4s</t>
   </si>
   <si>
-    <t>冰咆哮·冰冻</t>
+    <t>冰咆哮·冰封</t>
   </si>
   <si>
     <t>使目标冰冻1回合</t>
@@ -780,13 +780,16 @@
     <t>刺杀剑术·吸血</t>
   </si>
   <si>
-    <t>冰咆哮·冷却</t>
-  </si>
-  <si>
-    <t>减少5秒CD</t>
-  </si>
-  <si>
-    <t>烈火剑法·冷却</t>
+    <t>冰咆哮·哀霜</t>
+  </si>
+  <si>
+    <t>使敌人受到的伤害增加30%，持续5秒</t>
+  </si>
+  <si>
+    <t>烈火剑法·血怒</t>
+  </si>
+  <si>
+    <t>必定暴击</t>
   </si>
 </sst>
 </file>
@@ -976,7 +979,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -986,6 +989,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,7 +1315,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1330,16 +1339,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1348,94 +1357,98 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1758,13 +1771,13 @@
   <sheetPr/>
   <dimension ref="C3:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
@@ -1781,211 +1794,211 @@
     <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:24">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="3" ht="13.5" spans="3:24">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="3:24">
-      <c r="C4" s="2" t="s">
+    <row r="4" ht="13.5" spans="3:24">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="3:24">
-      <c r="C5" s="2" t="s">
+    <row r="5" ht="13.5" spans="3:24">
+      <c r="C5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="X5" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="3:24">
+    <row r="6" s="7" customFormat="1" ht="14" spans="3:24">
       <c r="C6" t="s">
         <v>46</v>
       </c>
@@ -2053,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="3:24">
+    <row r="7" s="7" customFormat="1" ht="14" spans="3:24">
       <c r="C7" t="s">
         <v>53</v>
       </c>
@@ -2121,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="3:24">
+    <row r="8" s="7" customFormat="1" ht="14" spans="3:24">
       <c r="C8" t="s">
         <v>56</v>
       </c>
@@ -2189,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="3:24">
+    <row r="9" s="7" customFormat="1" ht="14" spans="3:24">
       <c r="C9" t="s">
         <v>59</v>
       </c>
@@ -2257,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:24">
+    <row r="10" ht="14" spans="3:24">
       <c r="C10" t="s">
         <v>61</v>
       </c>
@@ -2303,19 +2316,19 @@
       <c r="Q10" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="3" t="s">
+      <c r="R10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="W10">
@@ -2325,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:24">
+    <row r="11" ht="14" spans="3:24">
       <c r="C11" t="s">
         <v>64</v>
       </c>
@@ -2371,19 +2384,19 @@
       <c r="Q11" t="s">
         <v>50</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V11" s="3" t="s">
+      <c r="R11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="W11">
@@ -2393,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:24">
+    <row r="12" ht="14" spans="3:24">
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -2439,19 +2452,19 @@
       <c r="Q12" t="s">
         <v>50</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U12" s="3" t="s">
+      <c r="R12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="V12" s="7" t="s">
         <v>50</v>
       </c>
       <c r="W12">
@@ -2461,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:24">
+    <row r="13" ht="14" spans="3:24">
       <c r="C13" t="s">
         <v>69</v>
       </c>
@@ -2507,19 +2520,19 @@
       <c r="Q13" t="s">
         <v>50</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V13" s="3" t="s">
+      <c r="R13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="W13">
@@ -4859,11 +4872,11 @@
   <sheetPr/>
   <dimension ref="A3:AE17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
@@ -4885,207 +4898,207 @@
     <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" spans="3:24">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="3:24">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:24">
-      <c r="C4" s="2" t="s">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="3:24">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:24">
-      <c r="C5" s="2" t="s">
+    <row r="5" s="1" customFormat="1" ht="13.5" spans="3:24">
+      <c r="C5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="X5" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5132,22 +5145,22 @@
       <c r="Q6" s="1">
         <v>0</v>
       </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
         <v>0</v>
       </c>
       <c r="X6" s="1">
@@ -5197,22 +5210,22 @@
       <c r="Q7" s="1">
         <v>0</v>
       </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
         <v>0</v>
       </c>
       <c r="X7" s="1">
@@ -5262,29 +5275,29 @@
       <c r="Q8" s="1">
         <v>0</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
         <v>0</v>
       </c>
       <c r="X8" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:31">
+    <row r="9" customFormat="1" ht="14" spans="1:31">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -5330,22 +5343,22 @@
       <c r="Q9" s="1">
         <v>0</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
         <v>0</v>
       </c>
       <c r="X9" s="1">
@@ -5359,7 +5372,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" customFormat="1" spans="1:31">
+    <row r="10" customFormat="1" ht="14" spans="1:31">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -5405,22 +5418,22 @@
       <c r="Q10" s="1">
         <v>0</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
         <v>0</v>
       </c>
       <c r="X10" s="1">
@@ -5434,122 +5447,122 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" customFormat="1" spans="1:31">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1">
+    <row r="11" s="2" customFormat="1" ht="14" spans="1:31">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
         <v>6</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>2007</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6">
         <v>1</v>
       </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1">
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
         <v>105</v>
       </c>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
     </row>
-    <row r="12" spans="3:24">
-      <c r="C12" s="1">
+    <row r="12" s="3" customFormat="1" spans="3:24">
+      <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>1006</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>50</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>50</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>0</v>
       </c>
       <c r="R12" s="3">
@@ -5574,47 +5587,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:24">
-      <c r="C13" s="1">
+    <row r="13" s="3" customFormat="1" spans="3:24">
+      <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>2006</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>50</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>50</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
         <v>0</v>
       </c>
       <c r="R13" s="3">
@@ -5639,47 +5652,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:24">
-      <c r="C14" s="1">
+    <row r="14" s="3" customFormat="1" spans="3:24">
+      <c r="C14" s="3">
         <v>9</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>3006</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>50</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>50</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
@@ -5704,47 +5717,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:24">
-      <c r="C15" s="1">
+    <row r="15" s="3" customFormat="1" spans="3:24">
+      <c r="C15" s="3">
         <v>10</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>1002</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>20</v>
       </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>0</v>
       </c>
       <c r="R15" s="3">
@@ -5765,137 +5778,137 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:24">
-      <c r="C16" s="1">
+    <row r="16" s="4" customFormat="1" spans="3:24">
+      <c r="C16" s="4">
         <v>11</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="6">
         <v>2007</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="1">
-        <v>5</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3">
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:24">
-      <c r="C17" s="1">
+    <row r="17" s="4" customFormat="1" spans="3:24">
+      <c r="C17" s="4">
         <v>12</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="6">
         <v>1007</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" s="1">
-        <v>5</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="F17" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -1439,17 +1439,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1777,7 +1775,7 @@
       <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
@@ -1794,211 +1792,211 @@
     <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:24">
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
+    <row r="3" spans="3:24">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="3:24">
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="3:24">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="3:24">
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="3:24">
+      <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" ht="14" spans="3:24">
+    <row r="6" s="3" customFormat="1" spans="3:24">
       <c r="C6" t="s">
         <v>46</v>
       </c>
@@ -2066,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" ht="14" spans="3:24">
+    <row r="7" s="3" customFormat="1" spans="3:24">
       <c r="C7" t="s">
         <v>53</v>
       </c>
@@ -2134,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" ht="14" spans="3:24">
+    <row r="8" s="3" customFormat="1" spans="3:24">
       <c r="C8" t="s">
         <v>56</v>
       </c>
@@ -2202,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" ht="14" spans="3:24">
+    <row r="9" s="3" customFormat="1" spans="3:24">
       <c r="C9" t="s">
         <v>59</v>
       </c>
@@ -2270,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="14" spans="3:24">
+    <row r="10" spans="3:24">
       <c r="C10" t="s">
         <v>61</v>
       </c>
@@ -2316,19 +2314,19 @@
       <c r="Q10" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="7" t="s">
+      <c r="R10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="3" t="s">
         <v>50</v>
       </c>
       <c r="W10">
@@ -2338,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="14" spans="3:24">
+    <row r="11" spans="3:24">
       <c r="C11" t="s">
         <v>64</v>
       </c>
@@ -2384,19 +2382,19 @@
       <c r="Q11" t="s">
         <v>50</v>
       </c>
-      <c r="R11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="V11" s="7" t="s">
+      <c r="R11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" s="3" t="s">
         <v>52</v>
       </c>
       <c r="W11">
@@ -2406,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="14" spans="3:24">
+    <row r="12" spans="3:24">
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -2452,19 +2450,19 @@
       <c r="Q12" t="s">
         <v>50</v>
       </c>
-      <c r="R12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U12" s="7" t="s">
+      <c r="R12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V12" s="7" t="s">
+      <c r="V12" s="3" t="s">
         <v>50</v>
       </c>
       <c r="W12">
@@ -2474,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="14" spans="3:24">
+    <row r="13" spans="3:24">
       <c r="C13" t="s">
         <v>69</v>
       </c>
@@ -2520,19 +2518,19 @@
       <c r="Q13" t="s">
         <v>50</v>
       </c>
-      <c r="R13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="V13" s="7" t="s">
+      <c r="R13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="W13">
@@ -4873,10 +4871,10 @@
   <dimension ref="A3:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
@@ -4898,207 +4896,207 @@
     <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="3:24">
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
+    <row r="3" s="1" customFormat="1" spans="3:24">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="3:24">
-      <c r="C4" s="5" t="s">
+    <row r="4" s="1" customFormat="1" spans="3:24">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.5" spans="3:24">
-      <c r="C5" s="5" t="s">
+    <row r="5" s="1" customFormat="1" spans="3:24">
+      <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5145,22 +5143,22 @@
       <c r="Q6" s="1">
         <v>0</v>
       </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0</v>
-      </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
         <v>0</v>
       </c>
       <c r="X6" s="1">
@@ -5210,22 +5208,22 @@
       <c r="Q7" s="1">
         <v>0</v>
       </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
         <v>0</v>
       </c>
       <c r="X7" s="1">
@@ -5275,29 +5273,29 @@
       <c r="Q8" s="1">
         <v>0</v>
       </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>0</v>
       </c>
       <c r="X8" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14" spans="1:31">
+    <row r="9" customFormat="1" spans="1:31">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -5343,22 +5341,22 @@
       <c r="Q9" s="1">
         <v>0</v>
       </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
-        <v>0</v>
-      </c>
-      <c r="V9" s="7">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>0</v>
       </c>
       <c r="X9" s="1">
@@ -5372,7 +5370,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" customFormat="1" ht="14" spans="1:31">
+    <row r="10" customFormat="1" spans="1:31">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -5418,22 +5416,22 @@
       <c r="Q10" s="1">
         <v>0</v>
       </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>0</v>
       </c>
       <c r="X10" s="1">
@@ -5447,80 +5445,80 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="14" spans="1:31">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
+    <row r="11" s="2" customFormat="1" spans="1:31">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
         <v>6</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>2007</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="6">
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4">
-        <v>0</v>
-      </c>
-      <c r="V11" s="4">
-        <v>0</v>
-      </c>
-      <c r="W11" s="4">
-        <v>0</v>
-      </c>
-      <c r="X11" s="4">
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
         <v>105</v>
       </c>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="3:24">
       <c r="C12" s="3">
@@ -5782,134 +5780,134 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" spans="3:24">
-      <c r="C16" s="4">
+    <row r="16" s="3" customFormat="1" spans="3:24">
+      <c r="C16" s="3">
         <v>11</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>2007</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4">
-        <v>0</v>
-      </c>
-      <c r="V16" s="4">
-        <v>0</v>
-      </c>
-      <c r="W16" s="4">
-        <v>0</v>
-      </c>
-      <c r="X16" s="4">
-        <v>0</v>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>5</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>30</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>108</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" spans="3:24">
-      <c r="C17" s="4">
+    <row r="17" s="3" customFormat="1" spans="3:24">
+      <c r="C17" s="3">
         <v>12</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>1007</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0</v>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="179">
   <si>
     <t>_ID</t>
   </si>
@@ -790,6 +790,24 @@
   </si>
   <si>
     <t>必定暴击</t>
+  </si>
+  <si>
+    <t>护体神盾·回复</t>
+  </si>
+  <si>
+    <t>回血比例增加1%</t>
+  </si>
+  <si>
+    <t>瞬息移动·叠浪</t>
+  </si>
+  <si>
+    <t>魔法伤害加成增加3次叠加层数</t>
+  </si>
+  <si>
+    <t>隐身术·持久</t>
+  </si>
+  <si>
+    <t>隐身持续时间增加3秒</t>
   </si>
 </sst>
 </file>
@@ -802,13 +820,26 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1309,145 +1340,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1777,226 +1814,226 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="10.375" style="1" customWidth="1"/>
-    <col min="12" max="14" width="13.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="1" customWidth="1"/>
-    <col min="16" max="23" width="13" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.875" style="1" customWidth="1"/>
-    <col min="25" max="30" width="9" style="1"/>
-    <col min="31" max="31" width="19.25" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="8"/>
+    <col min="5" max="5" width="21.25" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9" style="8"/>
+    <col min="8" max="8" width="14.625" style="8" customWidth="1"/>
+    <col min="9" max="11" width="10.375" style="8" customWidth="1"/>
+    <col min="12" max="14" width="13.75" style="8" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="8" customWidth="1"/>
+    <col min="16" max="23" width="13" style="8" customWidth="1"/>
+    <col min="24" max="24" width="7.875" style="8" customWidth="1"/>
+    <col min="25" max="30" width="9" style="8"/>
+    <col min="31" max="31" width="19.25" style="8" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:24">
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="3:24">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="3:24">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="3:24">
+    <row r="6" s="7" customFormat="1" spans="3:24">
       <c r="C6" t="s">
         <v>46</v>
       </c>
@@ -2021,16 +2058,16 @@
       <c r="J6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="8" t="s">
         <v>50</v>
       </c>
       <c r="L6" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="M6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>50</v>
       </c>
       <c r="O6" t="s">
@@ -2064,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="3:24">
+    <row r="7" s="7" customFormat="1" spans="3:24">
       <c r="C7" t="s">
         <v>53</v>
       </c>
@@ -2089,16 +2126,16 @@
       <c r="J7" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="8" t="s">
         <v>50</v>
       </c>
       <c r="L7" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="M7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>50</v>
       </c>
       <c r="O7" t="s">
@@ -2132,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="3:24">
+    <row r="8" s="7" customFormat="1" spans="3:24">
       <c r="C8" t="s">
         <v>56</v>
       </c>
@@ -2157,16 +2194,16 @@
       <c r="J8" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="8" t="s">
         <v>50</v>
       </c>
       <c r="L8" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="M8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>50</v>
       </c>
       <c r="O8" t="s">
@@ -2200,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="3:24">
+    <row r="9" s="7" customFormat="1" spans="3:24">
       <c r="C9" t="s">
         <v>59</v>
       </c>
@@ -2225,16 +2262,16 @@
       <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="8" t="s">
         <v>50</v>
       </c>
       <c r="L9" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="M9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="8" t="s">
         <v>50</v>
       </c>
       <c r="O9" t="s">
@@ -2314,19 +2351,19 @@
       <c r="Q10" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="3" t="s">
+      <c r="R10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="W10">
@@ -2382,19 +2419,19 @@
       <c r="Q11" t="s">
         <v>50</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V11" s="3" t="s">
+      <c r="R11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="W11">
@@ -2450,19 +2487,19 @@
       <c r="Q12" t="s">
         <v>50</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U12" s="3" t="s">
+      <c r="R12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="V12" s="7" t="s">
         <v>50</v>
       </c>
       <c r="W12">
@@ -2518,19 +2555,19 @@
       <c r="Q13" t="s">
         <v>50</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V13" s="3" t="s">
+      <c r="R13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="W13">
@@ -4868,16 +4905,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:AE17"/>
+  <dimension ref="A3:AE20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="11" width="10.375" style="1" customWidth="1"/>
@@ -4896,211 +4933,211 @@
     <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" spans="3:24">
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:24">
-      <c r="C4" s="4" t="s">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:24">
-      <c r="C5" s="4" t="s">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:24">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:24">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -5143,29 +5180,29 @@
       <c r="Q6" s="1">
         <v>0</v>
       </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
         <v>0</v>
       </c>
       <c r="X6" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:24">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:24">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -5208,29 +5245,29 @@
       <c r="Q7" s="1">
         <v>0</v>
       </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
         <v>0</v>
       </c>
       <c r="X7" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:24">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:24">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -5273,29 +5310,29 @@
       <c r="Q8" s="1">
         <v>0</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
         <v>0</v>
       </c>
       <c r="X8" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:31">
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:31">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -5341,22 +5378,22 @@
       <c r="Q9" s="1">
         <v>0</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
         <v>0</v>
       </c>
       <c r="X9" s="1">
@@ -5370,7 +5407,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" customFormat="1" spans="1:31">
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:31">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -5416,22 +5453,22 @@
       <c r="Q10" s="1">
         <v>0</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
         <v>0</v>
       </c>
       <c r="X10" s="1">
@@ -5445,469 +5482,664 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:31">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
+    <row r="11" s="3" customFormat="1" customHeight="1" spans="1:31">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
         <v>6</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>2007</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="5">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6">
         <v>1</v>
       </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
         <v>105</v>
       </c>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="3:24">
-      <c r="C12" s="3">
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+    </row>
+    <row r="12" s="4" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C12" s="4">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>1006</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>50</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="3:24">
-      <c r="C13" s="3">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>50</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C13" s="4">
         <v>8</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>2006</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>50</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
-        <v>0</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="3:24">
-      <c r="C14" s="3">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>50</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C14" s="4">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>3006</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>50</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="3:24">
-      <c r="C15" s="3">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>50</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="4" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C15" s="4">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>1002</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
         <v>20</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="3:24">
-      <c r="C16" s="3">
+    <row r="16" s="4" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C16" s="4">
         <v>11</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>2007</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
         <v>5</v>
       </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
         <v>30</v>
       </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3">
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
         <v>108</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="3:24">
-      <c r="C17" s="3">
+    <row r="17" s="4" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C17" s="4">
         <v>12</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>1007</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
         <v>500</v>
+      </c>
+    </row>
+    <row r="18" s="4" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C18" s="4">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1008</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" s="4" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C19" s="4">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2008</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>3</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C20" s="4">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3008</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -1470,11 +1470,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1814,226 +1812,226 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="9" style="8"/>
-    <col min="5" max="5" width="21.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="8"/>
-    <col min="8" max="8" width="14.625" style="8" customWidth="1"/>
-    <col min="9" max="11" width="10.375" style="8" customWidth="1"/>
-    <col min="12" max="14" width="13.75" style="8" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="8" customWidth="1"/>
-    <col min="16" max="23" width="13" style="8" customWidth="1"/>
-    <col min="24" max="24" width="7.875" style="8" customWidth="1"/>
-    <col min="25" max="30" width="9" style="8"/>
-    <col min="31" max="31" width="19.25" style="8" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="8"/>
+    <col min="1" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="21.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="14.625" style="6" customWidth="1"/>
+    <col min="9" max="11" width="10.375" style="6" customWidth="1"/>
+    <col min="12" max="14" width="13.75" style="6" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="6" customWidth="1"/>
+    <col min="16" max="23" width="13" style="6" customWidth="1"/>
+    <col min="24" max="24" width="7.875" style="6" customWidth="1"/>
+    <col min="25" max="30" width="9" style="6"/>
+    <col min="31" max="31" width="19.25" style="6" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:24">
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="3:24">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="3:24">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="X5" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="3:24">
+    <row r="6" s="5" customFormat="1" spans="3:24">
       <c r="C6" t="s">
         <v>46</v>
       </c>
@@ -2058,16 +2056,16 @@
       <c r="J6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>50</v>
       </c>
       <c r="L6" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="8" t="s">
+      <c r="M6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>50</v>
       </c>
       <c r="O6" t="s">
@@ -2101,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="3:24">
+    <row r="7" s="5" customFormat="1" spans="3:24">
       <c r="C7" t="s">
         <v>53</v>
       </c>
@@ -2126,16 +2124,16 @@
       <c r="J7" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="6" t="s">
         <v>50</v>
       </c>
       <c r="L7" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="8" t="s">
+      <c r="M7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>50</v>
       </c>
       <c r="O7" t="s">
@@ -2169,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="3:24">
+    <row r="8" s="5" customFormat="1" spans="3:24">
       <c r="C8" t="s">
         <v>56</v>
       </c>
@@ -2194,16 +2192,16 @@
       <c r="J8" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>50</v>
       </c>
       <c r="L8" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="8" t="s">
+      <c r="M8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>50</v>
       </c>
       <c r="O8" t="s">
@@ -2237,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="3:24">
+    <row r="9" s="5" customFormat="1" spans="3:24">
       <c r="C9" t="s">
         <v>59</v>
       </c>
@@ -2262,16 +2260,16 @@
       <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="6" t="s">
         <v>50</v>
       </c>
       <c r="L9" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="8" t="s">
+      <c r="M9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>50</v>
       </c>
       <c r="O9" t="s">
@@ -2351,19 +2349,19 @@
       <c r="Q10" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="7" t="s">
+      <c r="R10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="W10">
@@ -2419,19 +2417,19 @@
       <c r="Q11" t="s">
         <v>50</v>
       </c>
-      <c r="R11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="V11" s="7" t="s">
+      <c r="R11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" s="5" t="s">
         <v>52</v>
       </c>
       <c r="W11">
@@ -2487,19 +2485,19 @@
       <c r="Q12" t="s">
         <v>50</v>
       </c>
-      <c r="R12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U12" s="7" t="s">
+      <c r="R12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="V12" s="7" t="s">
+      <c r="V12" s="5" t="s">
         <v>50</v>
       </c>
       <c r="W12">
@@ -2555,19 +2553,19 @@
       <c r="Q13" t="s">
         <v>50</v>
       </c>
-      <c r="R13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="V13" s="7" t="s">
+      <c r="R13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" s="5" t="s">
         <v>52</v>
       </c>
       <c r="W13">
@@ -4905,10 +4903,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:AE20"/>
+  <dimension ref="C3:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -4934,206 +4932,206 @@
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5180,22 +5178,22 @@
       <c r="Q6" s="1">
         <v>0</v>
       </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4">
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
         <v>0</v>
       </c>
       <c r="X6" s="1">
@@ -5245,22 +5243,22 @@
       <c r="Q7" s="1">
         <v>0</v>
       </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0</v>
-      </c>
-      <c r="V7" s="4">
-        <v>0</v>
-      </c>
-      <c r="W7" s="4">
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
         <v>0</v>
       </c>
       <c r="X7" s="1">
@@ -5310,31 +5308,29 @@
       <c r="Q8" s="1">
         <v>0</v>
       </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4">
-        <v>0</v>
-      </c>
-      <c r="W8" s="4">
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
         <v>0</v>
       </c>
       <c r="X8" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:31">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:24">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -5356,7 +5352,6 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="1"/>
       <c r="K9" s="1">
         <v>4</v>
       </c>
@@ -5378,38 +5373,29 @@
       <c r="Q9" s="1">
         <v>0</v>
       </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4">
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
         <v>0</v>
       </c>
       <c r="X9" s="1">
         <v>104</v>
       </c>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:31">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:24">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -5431,7 +5417,6 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="1"/>
       <c r="K10" s="1">
         <v>4</v>
       </c>
@@ -5453,692 +5438,675 @@
       <c r="Q10" s="1">
         <v>0</v>
       </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4">
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
         <v>0</v>
       </c>
       <c r="X10" s="1">
         <v>107</v>
       </c>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-    </row>
-    <row r="11" s="3" customFormat="1" customHeight="1" spans="1:31">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>2007</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="6">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>1</v>
       </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4">
-        <v>0</v>
-      </c>
-      <c r="V11" s="4">
-        <v>0</v>
-      </c>
-      <c r="W11" s="4">
-        <v>0</v>
-      </c>
-      <c r="X11" s="4">
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
         <v>105</v>
       </c>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-    </row>
-    <row r="12" s="4" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C12" s="4">
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>1006</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>50</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4">
-        <v>0</v>
-      </c>
-      <c r="V12" s="4">
-        <v>0</v>
-      </c>
-      <c r="W12" s="4">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C13" s="4">
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>50</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C13" s="2">
         <v>8</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>2006</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>50</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
-        <v>0</v>
-      </c>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4">
-        <v>0</v>
-      </c>
-      <c r="V13" s="4">
-        <v>0</v>
-      </c>
-      <c r="W13" s="4">
-        <v>0</v>
-      </c>
-      <c r="X13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C14" s="4">
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>50</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C14" s="2">
         <v>9</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>3006</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>50</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0</v>
-      </c>
-      <c r="S14" s="4">
-        <v>0</v>
-      </c>
-      <c r="T14" s="4">
-        <v>0</v>
-      </c>
-      <c r="U14" s="4">
-        <v>0</v>
-      </c>
-      <c r="V14" s="4">
-        <v>0</v>
-      </c>
-      <c r="W14" s="4">
-        <v>0</v>
-      </c>
-      <c r="X14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="4" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C15" s="4">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>50</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C15" s="2">
         <v>10</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>1002</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
         <v>20</v>
       </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4">
-        <v>0</v>
-      </c>
-      <c r="T15" s="4">
-        <v>0</v>
-      </c>
-      <c r="U15" s="4">
-        <v>0</v>
-      </c>
-      <c r="V15" s="4">
-        <v>0</v>
-      </c>
-      <c r="W15" s="4">
-        <v>0</v>
-      </c>
-      <c r="X15" s="4">
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C16" s="4">
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C16" s="2">
         <v>11</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>2007</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
         <v>5</v>
       </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
         <v>30</v>
       </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4">
-        <v>0</v>
-      </c>
-      <c r="V16" s="4">
-        <v>0</v>
-      </c>
-      <c r="W16" s="4">
-        <v>0</v>
-      </c>
-      <c r="X16" s="4">
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C17" s="4">
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C17" s="2">
         <v>12</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>1007</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4">
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C18" s="4">
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C18" s="2">
         <v>13</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>1008</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
         <v>1</v>
       </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4">
-        <v>0</v>
-      </c>
-      <c r="V18" s="4">
-        <v>0</v>
-      </c>
-      <c r="W18" s="4">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4">
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C19" s="4">
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C19" s="2">
         <v>14</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>2008</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
         <v>3</v>
       </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4">
-        <v>0</v>
-      </c>
-      <c r="V19" s="4">
-        <v>0</v>
-      </c>
-      <c r="W19" s="4">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4">
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C20" s="4">
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C20" s="2">
         <v>15</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>3008</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>5</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <v>0</v>
-      </c>
-      <c r="T20" s="4">
-        <v>0</v>
-      </c>
-      <c r="U20" s="4">
-        <v>0</v>
-      </c>
-      <c r="V20" s="4">
-        <v>0</v>
-      </c>
-      <c r="W20" s="4">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>3</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -820,7 +820,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,19 +839,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1340,137 +1327,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1478,11 +1465,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1804,3086 +1787,3086 @@
   <sheetPr/>
   <dimension ref="C3:X47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="X14" sqref="X14:X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="9" style="6"/>
-    <col min="5" max="5" width="21.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="25.875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="14.625" style="6" customWidth="1"/>
-    <col min="9" max="11" width="10.375" style="6" customWidth="1"/>
-    <col min="12" max="14" width="13.75" style="6" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="6" customWidth="1"/>
-    <col min="16" max="23" width="13" style="6" customWidth="1"/>
-    <col min="24" max="24" width="7.875" style="6" customWidth="1"/>
-    <col min="25" max="30" width="9" style="6"/>
-    <col min="31" max="31" width="19.25" style="6" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="6"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="10.375" style="1" customWidth="1"/>
+    <col min="12" max="14" width="13.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="1" customWidth="1"/>
+    <col min="16" max="23" width="13" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.875" style="1" customWidth="1"/>
+    <col min="25" max="30" width="9" style="1"/>
+    <col min="31" max="31" width="19.25" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:24">
-      <c r="C3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="s">
+    <row r="3" customHeight="1" spans="3:24">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="3:24">
-      <c r="C4" s="7" t="s">
+    <row r="4" customHeight="1" spans="3:24">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="3:24">
-      <c r="C5" s="7" t="s">
+    <row r="5" customHeight="1" spans="3:24">
+      <c r="C5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="W5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="3:24">
-      <c r="C6" t="s">
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S6" t="s">
-        <v>50</v>
-      </c>
-      <c r="T6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="5" customFormat="1" spans="3:24">
-      <c r="C7" t="s">
+      <c r="V6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U7" t="s">
-        <v>50</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="K7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="3:24">
-      <c r="C8" t="s">
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="G8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" t="s">
-        <v>50</v>
-      </c>
-      <c r="T8" t="s">
-        <v>50</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="K8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V8" t="s">
-        <v>50</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" spans="3:24">
-      <c r="C9" t="s">
+      <c r="V8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="G9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9" t="s">
-        <v>50</v>
-      </c>
-      <c r="S9" t="s">
-        <v>50</v>
-      </c>
-      <c r="T9" t="s">
-        <v>50</v>
-      </c>
-      <c r="U9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="K9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:24">
-      <c r="C10" t="s">
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:24">
+      <c r="C10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="G10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="5" t="s">
+      <c r="K10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:24">
-      <c r="C11" t="s">
+      <c r="V10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:24">
+      <c r="C11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="V11" s="5" t="s">
+      <c r="K11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:24">
-      <c r="C12" t="s">
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:24">
+      <c r="C12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="U12" s="5" t="s">
+      <c r="K12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:24">
-      <c r="C13" t="s">
+      <c r="V12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:24">
+      <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="G13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>50</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="V13" s="5" t="s">
+      <c r="K13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:24">
-      <c r="C14" t="s">
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:24">
+      <c r="C14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="G14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="K14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R14" t="s">
-        <v>50</v>
-      </c>
-      <c r="S14" t="s">
-        <v>50</v>
-      </c>
-      <c r="T14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U14" t="s">
-        <v>50</v>
-      </c>
-      <c r="V14" t="s">
-        <v>50</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
+      <c r="P14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="15" ht="24" customHeight="1" spans="3:24">
-      <c r="C15">
+    <row r="15" customHeight="1" spans="3:24">
+      <c r="C15" s="5">
         <v>10010</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="G15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="K15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R15" t="s">
-        <v>50</v>
-      </c>
-      <c r="S15" t="s">
-        <v>50</v>
-      </c>
-      <c r="T15" t="s">
-        <v>50</v>
-      </c>
-      <c r="U15" t="s">
-        <v>50</v>
-      </c>
-      <c r="V15" t="s">
-        <v>50</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
+      <c r="P15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="3:24">
-      <c r="C16" t="s">
+    <row r="16" customHeight="1" spans="3:24">
+      <c r="C16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="G16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" t="s">
-        <v>50</v>
-      </c>
-      <c r="O16" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>50</v>
-      </c>
-      <c r="R16" t="s">
-        <v>50</v>
-      </c>
-      <c r="S16" t="s">
-        <v>50</v>
-      </c>
-      <c r="T16" t="s">
-        <v>50</v>
-      </c>
-      <c r="U16" t="s">
+      <c r="K16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V16" t="s">
-        <v>50</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:24">
-      <c r="C17" t="s">
+      <c r="V16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W16" s="5">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:24">
+      <c r="C17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="G17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" t="s">
-        <v>50</v>
-      </c>
-      <c r="O17" t="s">
-        <v>50</v>
-      </c>
-      <c r="P17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>50</v>
-      </c>
-      <c r="R17" t="s">
-        <v>50</v>
-      </c>
-      <c r="S17" t="s">
-        <v>50</v>
-      </c>
-      <c r="T17" t="s">
-        <v>50</v>
-      </c>
-      <c r="U17" t="s">
-        <v>50</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="K17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:24">
-      <c r="C18" t="s">
+      <c r="W17" s="5">
+        <v>0</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:24">
+      <c r="C18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="G18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K18" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" t="s">
-        <v>50</v>
-      </c>
-      <c r="O18" t="s">
-        <v>50</v>
-      </c>
-      <c r="P18" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>50</v>
-      </c>
-      <c r="R18" t="s">
-        <v>50</v>
-      </c>
-      <c r="S18" t="s">
-        <v>50</v>
-      </c>
-      <c r="T18" t="s">
-        <v>50</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="K18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V18" t="s">
-        <v>50</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:24">
-      <c r="C19" t="s">
+      <c r="V18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W18" s="5">
+        <v>0</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:24">
+      <c r="C19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="G19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K19" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" t="s">
-        <v>50</v>
-      </c>
-      <c r="S19" t="s">
-        <v>50</v>
-      </c>
-      <c r="T19" t="s">
-        <v>50</v>
-      </c>
-      <c r="U19" t="s">
-        <v>50</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="K19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:24">
-      <c r="C20" t="s">
+      <c r="W19" s="5">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:24">
+      <c r="C20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="G20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K20" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" t="s">
-        <v>50</v>
-      </c>
-      <c r="O20" t="s">
-        <v>50</v>
-      </c>
-      <c r="P20" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>50</v>
-      </c>
-      <c r="R20" t="s">
-        <v>50</v>
-      </c>
-      <c r="S20" t="s">
-        <v>50</v>
-      </c>
-      <c r="T20" t="s">
-        <v>50</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="K20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V20" t="s">
-        <v>50</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:24">
-      <c r="C21" t="s">
+      <c r="V20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W20" s="5">
+        <v>0</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:24">
+      <c r="C21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="G21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K21" t="s">
-        <v>50</v>
-      </c>
-      <c r="L21" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>50</v>
-      </c>
-      <c r="R21" t="s">
-        <v>50</v>
-      </c>
-      <c r="S21" t="s">
-        <v>50</v>
-      </c>
-      <c r="T21" t="s">
-        <v>50</v>
-      </c>
-      <c r="U21" t="s">
-        <v>50</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="K21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:24">
-      <c r="C22" t="s">
+      <c r="W21" s="5">
+        <v>0</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:24">
+      <c r="C22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="G22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K22" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" t="s">
-        <v>50</v>
-      </c>
-      <c r="O22" t="s">
-        <v>50</v>
-      </c>
-      <c r="P22" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>50</v>
-      </c>
-      <c r="R22" t="s">
-        <v>50</v>
-      </c>
-      <c r="S22" t="s">
-        <v>50</v>
-      </c>
-      <c r="T22" t="s">
-        <v>50</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="K22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V22" t="s">
-        <v>50</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:24">
-      <c r="C23" t="s">
+      <c r="V22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:24">
+      <c r="C23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="G23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K23" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" t="s">
-        <v>50</v>
-      </c>
-      <c r="O23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>50</v>
-      </c>
-      <c r="R23" t="s">
-        <v>50</v>
-      </c>
-      <c r="S23" t="s">
-        <v>50</v>
-      </c>
-      <c r="T23" t="s">
-        <v>50</v>
-      </c>
-      <c r="U23" t="s">
-        <v>50</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="K23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:24">
-      <c r="C24" t="s">
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:24">
+      <c r="C24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="G24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" t="s">
-        <v>50</v>
-      </c>
-      <c r="N24" t="s">
-        <v>50</v>
-      </c>
-      <c r="O24" t="s">
-        <v>50</v>
-      </c>
-      <c r="P24" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>50</v>
-      </c>
-      <c r="R24" t="s">
-        <v>50</v>
-      </c>
-      <c r="S24" t="s">
-        <v>50</v>
-      </c>
-      <c r="T24" t="s">
-        <v>50</v>
-      </c>
-      <c r="U24" t="s">
+      <c r="K24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V24" t="s">
-        <v>50</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:24">
-      <c r="C25" t="s">
+      <c r="V24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:24">
+      <c r="C25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="G25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K25" t="s">
-        <v>50</v>
-      </c>
-      <c r="L25" t="s">
-        <v>50</v>
-      </c>
-      <c r="M25" t="s">
-        <v>50</v>
-      </c>
-      <c r="N25" t="s">
-        <v>50</v>
-      </c>
-      <c r="O25" t="s">
-        <v>50</v>
-      </c>
-      <c r="P25" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>50</v>
-      </c>
-      <c r="R25" t="s">
-        <v>50</v>
-      </c>
-      <c r="S25" t="s">
-        <v>50</v>
-      </c>
-      <c r="T25" t="s">
-        <v>50</v>
-      </c>
-      <c r="U25" t="s">
-        <v>50</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="K25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:24">
-      <c r="C26" t="s">
+      <c r="W25" s="5">
+        <v>0</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:24">
+      <c r="C26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G26" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="G26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L26" t="s">
-        <v>50</v>
-      </c>
-      <c r="M26" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" t="s">
-        <v>50</v>
-      </c>
-      <c r="O26" t="s">
-        <v>50</v>
-      </c>
-      <c r="P26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>50</v>
-      </c>
-      <c r="R26" t="s">
-        <v>50</v>
-      </c>
-      <c r="S26" t="s">
-        <v>50</v>
-      </c>
-      <c r="T26" t="s">
-        <v>50</v>
-      </c>
-      <c r="U26" t="s">
+      <c r="K26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V26" t="s">
-        <v>50</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:24">
-      <c r="C27" t="s">
+      <c r="V26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W26" s="5">
+        <v>0</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:24">
+      <c r="C27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="G27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" t="s">
-        <v>50</v>
-      </c>
-      <c r="N27" t="s">
-        <v>50</v>
-      </c>
-      <c r="O27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P27" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R27" t="s">
-        <v>50</v>
-      </c>
-      <c r="S27" t="s">
-        <v>50</v>
-      </c>
-      <c r="T27" t="s">
-        <v>50</v>
-      </c>
-      <c r="U27" t="s">
-        <v>50</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="K27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:24">
-      <c r="C28" t="s">
+      <c r="W27" s="5">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:24">
+      <c r="C28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="G28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K28" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28" t="s">
-        <v>50</v>
-      </c>
-      <c r="M28" t="s">
-        <v>50</v>
-      </c>
-      <c r="N28" t="s">
-        <v>50</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="K28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P28" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>50</v>
-      </c>
-      <c r="R28" t="s">
-        <v>50</v>
-      </c>
-      <c r="S28" t="s">
-        <v>50</v>
-      </c>
-      <c r="T28" t="s">
-        <v>50</v>
-      </c>
-      <c r="U28" t="s">
-        <v>50</v>
-      </c>
-      <c r="V28" t="s">
-        <v>50</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
+      <c r="P28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W28" s="5">
+        <v>0</v>
+      </c>
+      <c r="X28" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="29" ht="24" customHeight="1" spans="3:24">
-      <c r="C29" t="s">
+    <row r="29" customHeight="1" spans="3:24">
+      <c r="C29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="G29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K29" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" t="s">
-        <v>50</v>
-      </c>
-      <c r="M29" t="s">
-        <v>50</v>
-      </c>
-      <c r="N29" t="s">
-        <v>50</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="K29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>50</v>
-      </c>
-      <c r="R29" t="s">
-        <v>50</v>
-      </c>
-      <c r="S29" t="s">
-        <v>50</v>
-      </c>
-      <c r="T29" t="s">
-        <v>50</v>
-      </c>
-      <c r="U29" t="s">
-        <v>50</v>
-      </c>
-      <c r="V29" t="s">
-        <v>50</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
+      <c r="P29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W29" s="5">
+        <v>0</v>
+      </c>
+      <c r="X29" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="30" ht="24" customHeight="1" spans="3:24">
-      <c r="C30" t="s">
+    <row r="30" customHeight="1" spans="3:24">
+      <c r="C30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="G30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K30" t="s">
-        <v>50</v>
-      </c>
-      <c r="L30" t="s">
-        <v>50</v>
-      </c>
-      <c r="M30" t="s">
-        <v>50</v>
-      </c>
-      <c r="N30" t="s">
-        <v>50</v>
-      </c>
-      <c r="O30" t="s">
-        <v>50</v>
-      </c>
-      <c r="P30" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>50</v>
-      </c>
-      <c r="R30" t="s">
-        <v>50</v>
-      </c>
-      <c r="S30" t="s">
-        <v>50</v>
-      </c>
-      <c r="T30" t="s">
-        <v>50</v>
-      </c>
-      <c r="U30" t="s">
+      <c r="K30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V30" t="s">
-        <v>50</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:24">
-      <c r="C31" t="s">
+      <c r="V30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:24">
+      <c r="C31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="G31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K31" t="s">
-        <v>50</v>
-      </c>
-      <c r="L31" t="s">
-        <v>50</v>
-      </c>
-      <c r="M31" t="s">
-        <v>50</v>
-      </c>
-      <c r="N31" t="s">
-        <v>50</v>
-      </c>
-      <c r="O31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P31" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>50</v>
-      </c>
-      <c r="R31" t="s">
-        <v>50</v>
-      </c>
-      <c r="S31" t="s">
-        <v>50</v>
-      </c>
-      <c r="T31" t="s">
-        <v>50</v>
-      </c>
-      <c r="U31" t="s">
-        <v>50</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="K31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:24">
-      <c r="C32" t="s">
+      <c r="W31" s="5">
+        <v>0</v>
+      </c>
+      <c r="X31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:24">
+      <c r="C32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" t="s">
-        <v>50</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="G32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K32" t="s">
-        <v>50</v>
-      </c>
-      <c r="L32" t="s">
-        <v>50</v>
-      </c>
-      <c r="M32" t="s">
-        <v>50</v>
-      </c>
-      <c r="N32" t="s">
-        <v>50</v>
-      </c>
-      <c r="O32" t="s">
-        <v>50</v>
-      </c>
-      <c r="P32" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>50</v>
-      </c>
-      <c r="R32" t="s">
-        <v>50</v>
-      </c>
-      <c r="S32" t="s">
-        <v>50</v>
-      </c>
-      <c r="T32" t="s">
-        <v>50</v>
-      </c>
-      <c r="U32" t="s">
+      <c r="K32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V32" t="s">
-        <v>50</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:24">
-      <c r="C33" t="s">
+      <c r="V32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W32" s="5">
+        <v>0</v>
+      </c>
+      <c r="X32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:24">
+      <c r="C33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="G33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K33" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" t="s">
-        <v>50</v>
-      </c>
-      <c r="N33" t="s">
-        <v>50</v>
-      </c>
-      <c r="O33" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>50</v>
-      </c>
-      <c r="R33" t="s">
-        <v>50</v>
-      </c>
-      <c r="S33" t="s">
-        <v>50</v>
-      </c>
-      <c r="T33" t="s">
-        <v>50</v>
-      </c>
-      <c r="U33" t="s">
-        <v>50</v>
-      </c>
-      <c r="V33" t="s">
+      <c r="K33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:24">
-      <c r="C34" t="s">
+      <c r="W33" s="5">
+        <v>0</v>
+      </c>
+      <c r="X33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:24">
+      <c r="C34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G34" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="G34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K34" t="s">
-        <v>50</v>
-      </c>
-      <c r="L34" t="s">
-        <v>50</v>
-      </c>
-      <c r="M34" t="s">
-        <v>50</v>
-      </c>
-      <c r="N34" t="s">
-        <v>50</v>
-      </c>
-      <c r="O34" t="s">
-        <v>50</v>
-      </c>
-      <c r="P34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>50</v>
-      </c>
-      <c r="R34" t="s">
-        <v>50</v>
-      </c>
-      <c r="S34" t="s">
-        <v>50</v>
-      </c>
-      <c r="T34" t="s">
-        <v>50</v>
-      </c>
-      <c r="U34" t="s">
+      <c r="K34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V34" t="s">
-        <v>50</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:24">
-      <c r="C35" t="s">
+      <c r="V34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W34" s="5">
+        <v>0</v>
+      </c>
+      <c r="X34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:24">
+      <c r="C35" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" t="s">
-        <v>50</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="G35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K35" t="s">
-        <v>50</v>
-      </c>
-      <c r="L35" t="s">
-        <v>50</v>
-      </c>
-      <c r="M35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N35" t="s">
-        <v>50</v>
-      </c>
-      <c r="O35" t="s">
-        <v>50</v>
-      </c>
-      <c r="P35" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>50</v>
-      </c>
-      <c r="R35" t="s">
-        <v>50</v>
-      </c>
-      <c r="S35" t="s">
-        <v>50</v>
-      </c>
-      <c r="T35" t="s">
-        <v>50</v>
-      </c>
-      <c r="U35" t="s">
-        <v>50</v>
-      </c>
-      <c r="V35" t="s">
+      <c r="K35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:24">
-      <c r="C36" t="s">
+      <c r="W35" s="5">
+        <v>0</v>
+      </c>
+      <c r="X35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:24">
+      <c r="C36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" t="s">
-        <v>50</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="G36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K36" t="s">
-        <v>50</v>
-      </c>
-      <c r="L36" t="s">
-        <v>50</v>
-      </c>
-      <c r="M36" t="s">
-        <v>50</v>
-      </c>
-      <c r="N36" t="s">
-        <v>50</v>
-      </c>
-      <c r="O36" t="s">
-        <v>50</v>
-      </c>
-      <c r="P36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>50</v>
-      </c>
-      <c r="R36" t="s">
-        <v>50</v>
-      </c>
-      <c r="S36" t="s">
-        <v>50</v>
-      </c>
-      <c r="T36" t="s">
-        <v>50</v>
-      </c>
-      <c r="U36" t="s">
+      <c r="K36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V36" t="s">
-        <v>50</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:24">
-      <c r="C37" t="s">
+      <c r="V36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W36" s="5">
+        <v>0</v>
+      </c>
+      <c r="X36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:24">
+      <c r="C37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G37" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" t="s">
-        <v>50</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="G37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K37" t="s">
-        <v>50</v>
-      </c>
-      <c r="L37" t="s">
-        <v>50</v>
-      </c>
-      <c r="M37" t="s">
-        <v>50</v>
-      </c>
-      <c r="N37" t="s">
-        <v>50</v>
-      </c>
-      <c r="O37" t="s">
-        <v>50</v>
-      </c>
-      <c r="P37" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>50</v>
-      </c>
-      <c r="R37" t="s">
-        <v>50</v>
-      </c>
-      <c r="S37" t="s">
-        <v>50</v>
-      </c>
-      <c r="T37" t="s">
-        <v>50</v>
-      </c>
-      <c r="U37" t="s">
-        <v>50</v>
-      </c>
-      <c r="V37" t="s">
+      <c r="K37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:24">
-      <c r="C38" t="s">
+      <c r="W37" s="5">
+        <v>0</v>
+      </c>
+      <c r="X37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:24">
+      <c r="C38" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G38" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" t="s">
-        <v>50</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="G38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K38" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" t="s">
-        <v>50</v>
-      </c>
-      <c r="N38" t="s">
-        <v>50</v>
-      </c>
-      <c r="O38" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>50</v>
-      </c>
-      <c r="R38" t="s">
-        <v>50</v>
-      </c>
-      <c r="S38" t="s">
-        <v>50</v>
-      </c>
-      <c r="T38" t="s">
-        <v>50</v>
-      </c>
-      <c r="U38" t="s">
+      <c r="K38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V38" t="s">
-        <v>50</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:24">
-      <c r="C39" t="s">
+      <c r="V38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:24">
+      <c r="C39" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-      <c r="I39" t="s">
-        <v>50</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="G39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K39" t="s">
-        <v>50</v>
-      </c>
-      <c r="L39" t="s">
-        <v>50</v>
-      </c>
-      <c r="M39" t="s">
-        <v>50</v>
-      </c>
-      <c r="N39" t="s">
-        <v>50</v>
-      </c>
-      <c r="O39" t="s">
-        <v>50</v>
-      </c>
-      <c r="P39" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>50</v>
-      </c>
-      <c r="R39" t="s">
-        <v>50</v>
-      </c>
-      <c r="S39" t="s">
-        <v>50</v>
-      </c>
-      <c r="T39" t="s">
-        <v>50</v>
-      </c>
-      <c r="U39" t="s">
-        <v>50</v>
-      </c>
-      <c r="V39" t="s">
+      <c r="K39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:24">
-      <c r="C40" t="s">
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+      <c r="X39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:24">
+      <c r="C40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" t="s">
-        <v>50</v>
-      </c>
-      <c r="I40" t="s">
-        <v>50</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="G40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K40" t="s">
-        <v>50</v>
-      </c>
-      <c r="L40" t="s">
-        <v>50</v>
-      </c>
-      <c r="M40" t="s">
-        <v>50</v>
-      </c>
-      <c r="N40" t="s">
-        <v>50</v>
-      </c>
-      <c r="O40" t="s">
-        <v>50</v>
-      </c>
-      <c r="P40" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>50</v>
-      </c>
-      <c r="R40" t="s">
-        <v>50</v>
-      </c>
-      <c r="S40" t="s">
-        <v>50</v>
-      </c>
-      <c r="T40" t="s">
-        <v>50</v>
-      </c>
-      <c r="U40" t="s">
+      <c r="K40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V40" t="s">
-        <v>50</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:24">
-      <c r="C41" t="s">
+      <c r="V40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W40" s="5">
+        <v>0</v>
+      </c>
+      <c r="X40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:24">
+      <c r="C41" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G41" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" t="s">
-        <v>50</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="G41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K41" t="s">
-        <v>50</v>
-      </c>
-      <c r="L41" t="s">
-        <v>50</v>
-      </c>
-      <c r="M41" t="s">
-        <v>50</v>
-      </c>
-      <c r="N41" t="s">
-        <v>50</v>
-      </c>
-      <c r="O41" t="s">
-        <v>50</v>
-      </c>
-      <c r="P41" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>50</v>
-      </c>
-      <c r="R41" t="s">
-        <v>50</v>
-      </c>
-      <c r="S41" t="s">
-        <v>50</v>
-      </c>
-      <c r="T41" t="s">
-        <v>50</v>
-      </c>
-      <c r="U41" t="s">
-        <v>50</v>
-      </c>
-      <c r="V41" t="s">
-        <v>50</v>
-      </c>
-      <c r="W41">
+      <c r="K41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W41" s="5">
         <v>20</v>
       </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:24">
-      <c r="C42" t="s">
+      <c r="X41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:24">
+      <c r="C42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G42" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" t="s">
-        <v>50</v>
-      </c>
-      <c r="I42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="G42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K42" t="s">
-        <v>50</v>
-      </c>
-      <c r="L42" t="s">
-        <v>50</v>
-      </c>
-      <c r="M42" t="s">
-        <v>50</v>
-      </c>
-      <c r="N42" t="s">
-        <v>50</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="K42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P42" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>50</v>
-      </c>
-      <c r="R42" t="s">
-        <v>50</v>
-      </c>
-      <c r="S42" t="s">
-        <v>50</v>
-      </c>
-      <c r="T42" t="s">
-        <v>50</v>
-      </c>
-      <c r="U42" t="s">
-        <v>50</v>
-      </c>
-      <c r="V42" t="s">
-        <v>50</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="P42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W42" s="5">
+        <v>0</v>
+      </c>
+      <c r="X42" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="24" customHeight="1" spans="3:24">
-      <c r="C43" t="s">
+    <row r="43" customHeight="1" spans="3:24">
+      <c r="C43" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G43" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" t="s">
-        <v>50</v>
-      </c>
-      <c r="I43" t="s">
-        <v>50</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="G43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K43" t="s">
-        <v>50</v>
-      </c>
-      <c r="L43" t="s">
-        <v>50</v>
-      </c>
-      <c r="M43" t="s">
-        <v>50</v>
-      </c>
-      <c r="N43" t="s">
-        <v>50</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="K43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P43" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>50</v>
-      </c>
-      <c r="R43" t="s">
-        <v>50</v>
-      </c>
-      <c r="S43" t="s">
-        <v>50</v>
-      </c>
-      <c r="T43" t="s">
-        <v>50</v>
-      </c>
-      <c r="U43" t="s">
-        <v>50</v>
-      </c>
-      <c r="V43" t="s">
-        <v>50</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
+      <c r="P43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W43" s="5">
+        <v>0</v>
+      </c>
+      <c r="X43" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="44" ht="24" customHeight="1" spans="3:24">
-      <c r="C44" t="s">
+    <row r="44" customHeight="1" spans="3:24">
+      <c r="C44" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G44" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" t="s">
-        <v>50</v>
-      </c>
-      <c r="I44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="G44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K44" t="s">
-        <v>50</v>
-      </c>
-      <c r="L44" t="s">
-        <v>50</v>
-      </c>
-      <c r="M44" t="s">
-        <v>50</v>
-      </c>
-      <c r="N44" t="s">
-        <v>50</v>
-      </c>
-      <c r="O44" t="s">
-        <v>50</v>
-      </c>
-      <c r="P44" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>50</v>
-      </c>
-      <c r="R44" t="s">
-        <v>50</v>
-      </c>
-      <c r="S44" t="s">
-        <v>50</v>
-      </c>
-      <c r="T44" t="s">
-        <v>50</v>
-      </c>
-      <c r="U44" t="s">
+      <c r="K44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V44" t="s">
-        <v>50</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="3:24">
-      <c r="C45" t="s">
+      <c r="V44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W44" s="5">
+        <v>0</v>
+      </c>
+      <c r="X44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:24">
+      <c r="C45" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G45" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" t="s">
-        <v>50</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="G45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K45" t="s">
-        <v>50</v>
-      </c>
-      <c r="L45" t="s">
-        <v>50</v>
-      </c>
-      <c r="M45" t="s">
-        <v>50</v>
-      </c>
-      <c r="N45" t="s">
-        <v>50</v>
-      </c>
-      <c r="O45" t="s">
-        <v>50</v>
-      </c>
-      <c r="P45" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>50</v>
-      </c>
-      <c r="R45" t="s">
-        <v>50</v>
-      </c>
-      <c r="S45" t="s">
-        <v>50</v>
-      </c>
-      <c r="T45" t="s">
-        <v>50</v>
-      </c>
-      <c r="U45" t="s">
-        <v>50</v>
-      </c>
-      <c r="V45" t="s">
+      <c r="K45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="3:24">
-      <c r="C46" t="s">
+      <c r="W45" s="5">
+        <v>0</v>
+      </c>
+      <c r="X45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:24">
+      <c r="C46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G46" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" t="s">
-        <v>50</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="G46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K46" t="s">
-        <v>50</v>
-      </c>
-      <c r="L46" t="s">
-        <v>50</v>
-      </c>
-      <c r="M46" t="s">
-        <v>50</v>
-      </c>
-      <c r="N46" t="s">
-        <v>50</v>
-      </c>
-      <c r="O46" t="s">
-        <v>50</v>
-      </c>
-      <c r="P46" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>50</v>
-      </c>
-      <c r="R46" t="s">
-        <v>50</v>
-      </c>
-      <c r="S46" t="s">
-        <v>50</v>
-      </c>
-      <c r="T46" t="s">
-        <v>50</v>
-      </c>
-      <c r="U46" t="s">
+      <c r="K46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V46" t="s">
-        <v>50</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="3:24">
-      <c r="C47" t="s">
+      <c r="V46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W46" s="5">
+        <v>0</v>
+      </c>
+      <c r="X46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:24">
+      <c r="C47" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" t="s">
-        <v>50</v>
-      </c>
-      <c r="I47" t="s">
-        <v>50</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="G47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K47" t="s">
-        <v>50</v>
-      </c>
-      <c r="L47" t="s">
-        <v>50</v>
-      </c>
-      <c r="M47" t="s">
-        <v>50</v>
-      </c>
-      <c r="N47" t="s">
-        <v>50</v>
-      </c>
-      <c r="O47" t="s">
-        <v>50</v>
-      </c>
-      <c r="P47" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>50</v>
-      </c>
-      <c r="R47" t="s">
-        <v>50</v>
-      </c>
-      <c r="S47" t="s">
-        <v>50</v>
-      </c>
-      <c r="T47" t="s">
-        <v>50</v>
-      </c>
-      <c r="U47" t="s">
-        <v>50</v>
-      </c>
-      <c r="V47" t="s">
-        <v>50</v>
-      </c>
-      <c r="W47">
+      <c r="K47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W47" s="5">
         <v>20</v>
       </c>
-      <c r="X47">
+      <c r="X47" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4905,11 +4888,11 @@
   <sheetPr/>
   <dimension ref="C3:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
@@ -5522,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="2">
-        <v>105</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:24">

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -750,7 +750,7 @@
     <t>火符术·中毒</t>
   </si>
   <si>
-    <t>增加一个持续4回合100%中毒效果</t>
+    <t>增加一个持续4回合50%中毒效果</t>
   </si>
   <si>
     <t>基础剑术·流血</t>
@@ -1457,7 +1457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1465,7 +1465,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2075,10 +2074,10 @@
       <c r="V6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2143,10 +2142,10 @@
       <c r="V7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2211,10 +2210,10 @@
       <c r="V8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="5">
-        <v>0</v>
-      </c>
-      <c r="X8" s="5">
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2279,10 +2278,10 @@
       <c r="V9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W9" s="5">
-        <v>0</v>
-      </c>
-      <c r="X9" s="5">
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2347,10 +2346,10 @@
       <c r="V10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W10" s="5">
-        <v>0</v>
-      </c>
-      <c r="X10" s="5">
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2415,10 +2414,10 @@
       <c r="V11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W11" s="5">
-        <v>0</v>
-      </c>
-      <c r="X11" s="5">
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2483,10 +2482,10 @@
       <c r="V12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W12" s="5">
-        <v>0</v>
-      </c>
-      <c r="X12" s="5">
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2551,10 +2550,10 @@
       <c r="V13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W13" s="5">
-        <v>0</v>
-      </c>
-      <c r="X13" s="5">
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2619,15 +2618,15 @@
       <c r="V14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="5">
-        <v>0</v>
-      </c>
-      <c r="X14" s="5">
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:24">
-      <c r="C15" s="5">
+      <c r="C15" s="1">
         <v>10010</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2687,10 +2686,10 @@
       <c r="V15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W15" s="5">
-        <v>0</v>
-      </c>
-      <c r="X15" s="5">
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2698,7 +2697,7 @@
       <c r="C16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2755,10 +2754,10 @@
       <c r="V16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W16" s="5">
-        <v>0</v>
-      </c>
-      <c r="X16" s="5">
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2766,7 +2765,7 @@
       <c r="C17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2823,10 +2822,10 @@
       <c r="V17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W17" s="5">
-        <v>0</v>
-      </c>
-      <c r="X17" s="5">
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2891,10 +2890,10 @@
       <c r="V18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W18" s="5">
-        <v>0</v>
-      </c>
-      <c r="X18" s="5">
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2959,10 +2958,10 @@
       <c r="V19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W19" s="5">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5">
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3027,10 +3026,10 @@
       <c r="V20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W20" s="5">
-        <v>0</v>
-      </c>
-      <c r="X20" s="5">
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3095,10 +3094,10 @@
       <c r="V21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W21" s="5">
-        <v>0</v>
-      </c>
-      <c r="X21" s="5">
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3163,10 +3162,10 @@
       <c r="V22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W22" s="5">
-        <v>0</v>
-      </c>
-      <c r="X22" s="5">
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3231,10 +3230,10 @@
       <c r="V23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W23" s="5">
-        <v>0</v>
-      </c>
-      <c r="X23" s="5">
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3299,10 +3298,10 @@
       <c r="V24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W24" s="5">
-        <v>0</v>
-      </c>
-      <c r="X24" s="5">
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3367,10 +3366,10 @@
       <c r="V25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W25" s="5">
-        <v>0</v>
-      </c>
-      <c r="X25" s="5">
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3435,10 +3434,10 @@
       <c r="V26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W26" s="5">
-        <v>0</v>
-      </c>
-      <c r="X26" s="5">
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3503,10 +3502,10 @@
       <c r="V27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W27" s="5">
-        <v>0</v>
-      </c>
-      <c r="X27" s="5">
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3571,10 +3570,10 @@
       <c r="V28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W28" s="5">
-        <v>0</v>
-      </c>
-      <c r="X28" s="5">
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
         <v>5</v>
       </c>
     </row>
@@ -3639,10 +3638,10 @@
       <c r="V29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W29" s="5">
-        <v>0</v>
-      </c>
-      <c r="X29" s="5">
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
         <v>4</v>
       </c>
     </row>
@@ -3650,7 +3649,7 @@
       <c r="C30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -3707,10 +3706,10 @@
       <c r="V30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W30" s="5">
-        <v>0</v>
-      </c>
-      <c r="X30" s="5">
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3718,7 +3717,7 @@
       <c r="C31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -3775,10 +3774,10 @@
       <c r="V31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="5">
-        <v>0</v>
-      </c>
-      <c r="X31" s="5">
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3843,10 +3842,10 @@
       <c r="V32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W32" s="5">
-        <v>0</v>
-      </c>
-      <c r="X32" s="5">
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3911,10 +3910,10 @@
       <c r="V33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W33" s="5">
-        <v>0</v>
-      </c>
-      <c r="X33" s="5">
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3979,10 +3978,10 @@
       <c r="V34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W34" s="5">
-        <v>0</v>
-      </c>
-      <c r="X34" s="5">
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4047,10 +4046,10 @@
       <c r="V35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W35" s="5">
-        <v>0</v>
-      </c>
-      <c r="X35" s="5">
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4115,10 +4114,10 @@
       <c r="V36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W36" s="5">
-        <v>0</v>
-      </c>
-      <c r="X36" s="5">
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4183,10 +4182,10 @@
       <c r="V37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W37" s="5">
-        <v>0</v>
-      </c>
-      <c r="X37" s="5">
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4251,10 +4250,10 @@
       <c r="V38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W38" s="5">
-        <v>0</v>
-      </c>
-      <c r="X38" s="5">
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4319,10 +4318,10 @@
       <c r="V39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W39" s="5">
-        <v>0</v>
-      </c>
-      <c r="X39" s="5">
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4387,10 +4386,10 @@
       <c r="V40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W40" s="5">
-        <v>0</v>
-      </c>
-      <c r="X40" s="5">
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4455,10 +4454,10 @@
       <c r="V41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W41" s="5">
+      <c r="W41" s="1">
         <v>20</v>
       </c>
-      <c r="X41" s="5">
+      <c r="X41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4523,10 +4522,10 @@
       <c r="V42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W42" s="5">
-        <v>0</v>
-      </c>
-      <c r="X42" s="5">
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
         <v>5</v>
       </c>
     </row>
@@ -4591,10 +4590,10 @@
       <c r="V43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W43" s="5">
-        <v>0</v>
-      </c>
-      <c r="X43" s="5">
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
         <v>4</v>
       </c>
     </row>
@@ -4602,7 +4601,7 @@
       <c r="C44" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -4659,10 +4658,10 @@
       <c r="V44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W44" s="5">
-        <v>0</v>
-      </c>
-      <c r="X44" s="5">
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4670,7 +4669,7 @@
       <c r="C45" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -4727,10 +4726,10 @@
       <c r="V45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W45" s="5">
-        <v>0</v>
-      </c>
-      <c r="X45" s="5">
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4795,10 +4794,10 @@
       <c r="V46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W46" s="5">
-        <v>0</v>
-      </c>
-      <c r="X46" s="5">
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4863,10 +4862,10 @@
       <c r="V47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W47" s="5">
+      <c r="W47" s="1">
         <v>20</v>
       </c>
-      <c r="X47" s="5">
+      <c r="X47" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4888,8 +4887,8 @@
   <sheetPr/>
   <dimension ref="C3:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5348,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -1786,10 +1786,10 @@
   <sheetPr/>
   <dimension ref="C3:X47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="X14" sqref="X14:X15"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -4887,8 +4887,8 @@
   <sheetPr/>
   <dimension ref="C3:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="2">
-        <v>108</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:24">

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -10,7 +10,20 @@
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
     <sheet name="手动配置" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -271,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="185">
   <si>
     <t>_ID</t>
   </si>
@@ -808,12 +821,30 @@
   </si>
   <si>
     <t>隐身持续时间增加3秒</t>
+  </si>
+  <si>
+    <t>开天斩·强化</t>
+  </si>
+  <si>
+    <t>造成的比例伤害,增加3%</t>
+  </si>
+  <si>
+    <t>流星火雨·破甲</t>
+  </si>
+  <si>
+    <t>流星火雨无视50%护甲</t>
+  </si>
+  <si>
+    <t>召唤月灵·复制</t>
+  </si>
+  <si>
+    <t>月灵数量+2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -986,12 +1017,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4885,10 +4916,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:X20"/>
+  <dimension ref="C3:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5897,7 +5928,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:24">
+    <row r="18" s="2" customFormat="1" ht="17" customHeight="1" spans="3:24">
       <c r="C18" s="2">
         <v>13</v>
       </c>
@@ -5962,7 +5993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:24">
+    <row r="19" s="2" customFormat="1" ht="17" customHeight="1" spans="3:24">
       <c r="C19" s="2">
         <v>14</v>
       </c>
@@ -6027,7 +6058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:24">
+    <row r="20" s="2" customFormat="1" ht="17" customHeight="1" spans="3:24">
       <c r="C20" s="2">
         <v>15</v>
       </c>
@@ -6089,6 +6120,201 @@
         <v>0</v>
       </c>
       <c r="X20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="17" customHeight="1" spans="3:24">
+      <c r="C21" s="2">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1009</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>3</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="17" customHeight="1" spans="3:24">
+      <c r="C22" s="2">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2009</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>50</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="17" customHeight="1" spans="3:24">
+      <c r="C23" s="2">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3009</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>2</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -829,7 +829,7 @@
     <t>造成的比例伤害,增加3%</t>
   </si>
   <si>
-    <t>流星火雨·破甲</t>
+    <t>流星火雨·穿透</t>
   </si>
   <si>
     <t>流星火雨无视50%护甲</t>
@@ -1017,12 +1017,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4919,7 +4919,7 @@
   <dimension ref="C3:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -1017,12 +1017,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4919,7 +4919,7 @@
   <dimension ref="C3:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -775,7 +775,7 @@
     <t>冰咆哮·冰封</t>
   </si>
   <si>
-    <t>使目标冰冻1回合</t>
+    <t>增加2S冰冻时间</t>
   </si>
   <si>
     <t>武力精通·祝福</t>
@@ -1017,12 +1017,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4919,7 +4919,7 @@
   <dimension ref="C3:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -4919,7 +4919,7 @@
   <dimension ref="C3:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
     <sheet name="手动配置" sheetId="2" r:id="rId2"/>
+    <sheet name="红装" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +258,135 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="P3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+攻击力系数（百分比），额外附加固定伤害值</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ID* 10 + level
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 主动
+2 被动
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 以自己为圆心
+1 距离1格</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+FrontRow 直线
+FullBox 十字
+Square 矩形
+Diamond 菱形
+FullBox 全图</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -284,9 +413,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="186">
   <si>
     <t>_ID</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>技能ID</t>
@@ -1491,10 +1623,10 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1815,241 +1947,250 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:X47"/>
+  <dimension ref="C3:Y47"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="10.375" style="1" customWidth="1"/>
-    <col min="12" max="14" width="13.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="1" customWidth="1"/>
-    <col min="16" max="23" width="13" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.875" style="1" customWidth="1"/>
-    <col min="25" max="30" width="9" style="1"/>
-    <col min="31" max="31" width="19.25" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="1"/>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="21.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="14.625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="10.375" style="1" customWidth="1"/>
+    <col min="13" max="15" width="13.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="1" customWidth="1"/>
+    <col min="17" max="24" width="13" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.875" style="1" customWidth="1"/>
+    <col min="26" max="31" width="9" style="1"/>
+    <col min="32" max="32" width="19.25" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" customHeight="1" spans="3:24">
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="3" customHeight="1" spans="3:25">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="3:24">
-      <c r="C4" s="3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="3:25">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="3:24">
-      <c r="C5" s="3" t="s">
+      <c r="Y4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="3:25">
+      <c r="C5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" customHeight="1" spans="3:25">
       <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>48</v>
@@ -2061,539 +2202,563 @@
         <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="X6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" customHeight="1" spans="3:25">
       <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:24">
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" customHeight="1" spans="3:25">
       <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="X9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:24">
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:25">
       <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:25">
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W10" s="1">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:24">
-      <c r="C11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W11" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="X11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:24">
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:25">
       <c r="C12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:25">
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W12" s="1">
-        <v>0</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:24">
-      <c r="C13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W13" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:24">
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:25">
       <c r="C14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="1" t="s">
         <v>72</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>73</v>
@@ -2602,2307 +2767,2409 @@
         <v>74</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W14" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:24">
+    <row r="15" customHeight="1" spans="3:25">
       <c r="C15" s="1">
         <v>10010</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>72</v>
+      <c r="D15" s="1">
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W15" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:24">
+    <row r="16" customHeight="1" spans="3:25">
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="X16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:24">
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:25">
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W17" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="X17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:24">
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:25">
       <c r="C18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:25">
+      <c r="C19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:24">
-      <c r="C19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W19" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:24">
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:25">
       <c r="C20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:25">
+      <c r="C21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W20" s="1">
-        <v>0</v>
-      </c>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:24">
-      <c r="C21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W21" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="X21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:24">
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:25">
       <c r="C22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:25">
+      <c r="C23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W22" s="1">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:24">
-      <c r="C23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W23" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="X23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:24">
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:25">
       <c r="C24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:25">
+      <c r="C25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W24" s="1">
-        <v>0</v>
-      </c>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:24">
-      <c r="C25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W25" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="X25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:24">
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:25">
       <c r="C26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="1" t="s">
         <v>102</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:25">
+      <c r="C27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W26" s="1">
-        <v>0</v>
-      </c>
-      <c r="X26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:24">
-      <c r="C27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W27" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="X27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:24">
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:25">
       <c r="C28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="1" t="s">
         <v>107</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:25">
+      <c r="C29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W28" s="1">
-        <v>0</v>
-      </c>
-      <c r="X28" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:24">
-      <c r="C29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W29" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="3:24">
+    <row r="30" customHeight="1" spans="3:25">
       <c r="C30" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W30" s="1">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="X30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:24">
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:25">
       <c r="C31" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W31" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="X31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:24">
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:25">
       <c r="C32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="1" t="s">
         <v>114</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:25">
+      <c r="C33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W32" s="1">
-        <v>0</v>
-      </c>
-      <c r="X32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:24">
-      <c r="C33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W33" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="X33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:24">
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:25">
       <c r="C34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="1" t="s">
         <v>119</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W34" s="1">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="X34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:24">
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:25">
       <c r="C35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W35" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="X35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:24">
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:25">
       <c r="C36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:25">
+      <c r="C37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W36" s="1">
-        <v>0</v>
-      </c>
-      <c r="X36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:24">
-      <c r="C37" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W37" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="X37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:24">
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:25">
       <c r="C38" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:25">
+      <c r="C39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W38" s="1">
-        <v>0</v>
-      </c>
-      <c r="X38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:24">
-      <c r="C39" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W39" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="X39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:24">
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:25">
       <c r="C40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W40" s="1">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="X40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:24">
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:25">
       <c r="C41" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W41" s="1">
+        <v>51</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X41" s="1">
         <v>20</v>
       </c>
-      <c r="X41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:24">
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:25">
       <c r="C42" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="1" t="s">
         <v>141</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>142</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:25">
+      <c r="C43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W42" s="1">
-        <v>0</v>
-      </c>
-      <c r="X42" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:24">
-      <c r="C43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W43" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="3:24">
+    <row r="44" customHeight="1" spans="3:25">
       <c r="C44" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W44" s="1">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="X44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:24">
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:25">
       <c r="C45" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W45" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="X45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:24">
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:25">
       <c r="C46" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="1" t="s">
         <v>148</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>149</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:25">
+      <c r="C47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W46" s="1">
-        <v>0</v>
-      </c>
-      <c r="X46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:24">
-      <c r="C47" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W47" s="1">
+        <v>51</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X47" s="1">
         <v>20</v>
       </c>
-      <c r="X47" s="1">
+      <c r="Y47" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:F5 G3:G5 C3:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 D4 D5 C3:C5 E3:H5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -4916,253 +5183,262 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:X23"/>
+  <dimension ref="C3:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="11" width="10.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="13.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1" customWidth="1"/>
-    <col min="22" max="23" width="9.75" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.875" style="1" customWidth="1"/>
-    <col min="25" max="30" width="9" style="1"/>
-    <col min="31" max="31" width="19.25" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="1"/>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="12" width="10.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="13.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="1" customWidth="1"/>
+    <col min="23" max="24" width="9.75" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.875" style="1" customWidth="1"/>
+    <col min="26" max="31" width="9" style="1"/>
+    <col min="32" max="32" width="19.25" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C4" s="3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C5" s="3" t="s">
+      <c r="Y4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:24">
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>1001</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
+      <c r="G6" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -5170,7 +5446,7 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="L6" s="1">
@@ -5183,51 +5459,54 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>20</v>
       </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
       <c r="Q6" s="1">
         <v>0</v>
       </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:24">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:25">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
         <v>2001</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
+      <c r="G7" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -5235,12 +5514,12 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
         <v>4</v>
       </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
@@ -5248,51 +5527,54 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>100</v>
       </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
       <c r="Q7" s="1">
         <v>0</v>
       </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:24">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:25">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
         <v>3001</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
+      <c r="G8" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -5300,12 +5582,12 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
         <v>4</v>
       </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
       <c r="M8" s="1">
         <v>0</v>
       </c>
@@ -5313,51 +5595,54 @@
         <v>0</v>
       </c>
       <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
         <v>100</v>
       </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
       <c r="Q8" s="1">
         <v>0</v>
       </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:24">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:25">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
         <v>3002</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
+      <c r="G9" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -5365,12 +5650,12 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>4</v>
       </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
@@ -5378,51 +5663,54 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <v>50</v>
       </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
       <c r="Q9" s="1">
         <v>0</v>
       </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:24">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:25">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
         <v>1001</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
+      <c r="G10" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -5430,897 +5718,1339 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
         <v>4</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>3</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
       <c r="N10" s="1">
         <v>0</v>
       </c>
       <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
         <v>50</v>
       </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
       <c r="Q10" s="1">
         <v>0</v>
       </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1">
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C11" s="2">
+    <row r="11" s="3" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C11" s="3">
         <v>6</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
         <v>2007</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="G11" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
         <v>2</v>
       </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2">
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
         <v>305</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C12" s="2">
+    <row r="12" s="3" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>1006</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
+      <c r="G12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>50</v>
       </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C13" s="2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>2006</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
         <v>50</v>
       </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C14" s="2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C14" s="3">
         <v>9</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
         <v>3006</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
+      <c r="F14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>50</v>
       </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
-      <c r="X14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C15" s="2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C15" s="3">
         <v>10</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
         <v>1002</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
+      <c r="F15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>20</v>
       </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C16" s="2">
+    <row r="16" s="3" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C16" s="3">
         <v>11</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
         <v>2007</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="G16" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
         <v>5</v>
       </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
         <v>30</v>
       </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2">
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:24">
-      <c r="C17" s="2">
+    <row r="17" s="3" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C17" s="3">
         <v>12</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
         <v>1007</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2">
-        <v>0</v>
-      </c>
-      <c r="X17" s="2">
+      <c r="G17" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="17" customHeight="1" spans="3:24">
-      <c r="C18" s="2">
+    <row r="18" s="3" customFormat="1" ht="17" customHeight="1" spans="3:25">
+      <c r="C18" s="3">
         <v>13</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
         <v>1008</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
+      <c r="G18" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>1</v>
       </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="17" customHeight="1" spans="3:24">
-      <c r="C19" s="2">
+    <row r="19" s="3" customFormat="1" ht="17" customHeight="1" spans="3:25">
+      <c r="C19" s="3">
         <v>14</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
         <v>2008</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
+      <c r="G19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
         <v>3</v>
       </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2">
-        <v>0</v>
-      </c>
-      <c r="X19" s="2">
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="17" customHeight="1" spans="3:24">
-      <c r="C20" s="2">
+    <row r="20" s="3" customFormat="1" ht="17" customHeight="1" spans="3:25">
+      <c r="C20" s="3">
         <v>15</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
         <v>3008</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="G20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>3</v>
       </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="17" customHeight="1" spans="3:24">
-      <c r="C21" s="2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="17" customHeight="1" spans="3:25">
+      <c r="C21" s="3">
         <v>16</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
         <v>1009</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
+      <c r="G21" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>3</v>
       </c>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2">
-        <v>0</v>
-      </c>
-      <c r="X21" s="2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="17" customHeight="1" spans="3:24">
-      <c r="C22" s="2">
+    <row r="22" s="3" customFormat="1" ht="17" customHeight="1" spans="3:25">
+      <c r="C22" s="3">
         <v>17</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
         <v>2009</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
+      <c r="G22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>50</v>
       </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2">
-        <v>0</v>
-      </c>
-      <c r="X22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="17" customHeight="1" spans="3:24">
-      <c r="C23" s="2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="17" customHeight="1" spans="3:25">
+      <c r="C23" s="3">
         <v>18</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
         <v>3009</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
+      <c r="G23" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>2</v>
       </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
-      <c r="X23" s="2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:F5 G3:G5 C3:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 D4 D5 C3:C5 E3:H5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:Y23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="12" width="10.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="13.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="1" customWidth="1"/>
+    <col min="23" max="24" width="9.75" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.875" style="1" customWidth="1"/>
+    <col min="26" max="31" width="9" style="1"/>
+    <col min="32" max="32" width="19.25" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="19:24">
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 D4 D5 C3:C5 E3:H5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
     <sheet name="手动配置" sheetId="2" r:id="rId2"/>
-    <sheet name="红装" sheetId="3" r:id="rId3"/>
+    <sheet name="金装" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -313,80 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 主动
-2 被动
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0 以自己为圆心
-1 距离1格</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-FrontRow 直线
-FullBox 十字
-Square 矩形
-Diamond 菱形
-FullBox 全图</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="222">
   <si>
     <t>_ID</t>
   </si>
@@ -971,6 +898,114 @@
   </si>
   <si>
     <t>月灵数量+2</t>
+  </si>
+  <si>
+    <t>系数倍率</t>
+  </si>
+  <si>
+    <t>PercentRate</t>
+  </si>
+  <si>
+    <t>基础剑术·系数倍率</t>
+  </si>
+  <si>
+    <t>提高技能系数50%倍率</t>
+  </si>
+  <si>
+    <t>刺杀剑术·系数倍率</t>
+  </si>
+  <si>
+    <t>半月弯刀·系数倍率</t>
+  </si>
+  <si>
+    <t>野蛮撞击·系数倍率</t>
+  </si>
+  <si>
+    <t>武力盾·系数倍率</t>
+  </si>
+  <si>
+    <t>武力精通·系数倍率</t>
+  </si>
+  <si>
+    <t>烈火剑法·系数倍率</t>
+  </si>
+  <si>
+    <t>护体神盾·系数倍率</t>
+  </si>
+  <si>
+    <t>开天斩·系数倍率</t>
+  </si>
+  <si>
+    <t>彻地钉·系数倍率</t>
+  </si>
+  <si>
+    <t>战士之魂·系数倍率</t>
+  </si>
+  <si>
+    <t>小火球</t>
+  </si>
+  <si>
+    <t>雷电术</t>
+  </si>
+  <si>
+    <t>火墙</t>
+  </si>
+  <si>
+    <t>爆裂火焰</t>
+  </si>
+  <si>
+    <t>魔法盾</t>
+  </si>
+  <si>
+    <t>法术精通</t>
+  </si>
+  <si>
+    <t>冰咆哮</t>
+  </si>
+  <si>
+    <t>瞬息移动</t>
+  </si>
+  <si>
+    <t>流星火雨</t>
+  </si>
+  <si>
+    <t>分身术</t>
+  </si>
+  <si>
+    <t>法师之魂</t>
+  </si>
+  <si>
+    <t>治疗术</t>
+  </si>
+  <si>
+    <t>火符术</t>
+  </si>
+  <si>
+    <t>施毒术</t>
+  </si>
+  <si>
+    <t>召唤骷髅</t>
+  </si>
+  <si>
+    <t>道力盾</t>
+  </si>
+  <si>
+    <t>道力精通</t>
+  </si>
+  <si>
+    <t>召唤神兽</t>
+  </si>
+  <si>
+    <t>隐身术</t>
+  </si>
+  <si>
+    <t>召唤月灵</t>
+  </si>
+  <si>
+    <t>无极道体</t>
+  </si>
+  <si>
+    <t>道士之魂</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1018,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,6 +1037,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1149,12 +1190,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1490,16 +1531,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1508,124 +1546,129 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -2185,7 +2228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" customHeight="1" spans="3:25">
+    <row r="6" s="5" customFormat="1" customHeight="1" spans="3:25">
       <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
@@ -2256,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" customHeight="1" spans="3:25">
+    <row r="7" s="5" customFormat="1" customHeight="1" spans="3:25">
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -2327,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" customHeight="1" spans="3:25">
+    <row r="8" s="5" customFormat="1" customHeight="1" spans="3:25">
       <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
@@ -2398,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="3:25">
+    <row r="9" s="5" customFormat="1" customHeight="1" spans="3:25">
       <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,19 +2561,19 @@
       <c r="R10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V10" s="3" t="s">
+      <c r="S10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="W10" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X10" s="1">
@@ -2589,19 +2632,19 @@
       <c r="R11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W11" s="3" t="s">
+      <c r="S11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" s="5" t="s">
         <v>53</v>
       </c>
       <c r="X11" s="1">
@@ -2660,19 +2703,19 @@
       <c r="R12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V12" s="3" t="s">
+      <c r="S12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="W12" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X12" s="1">
@@ -2731,19 +2774,19 @@
       <c r="R13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W13" s="3" t="s">
+      <c r="S13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W13" s="5" t="s">
         <v>53</v>
       </c>
       <c r="X13" s="1">
@@ -5169,7 +5212,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 D4 D5 C3:C5 E3:H5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:H5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -5470,22 +5513,22 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
         <v>0</v>
       </c>
       <c r="Y6" s="1">
@@ -5538,22 +5581,22 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
         <v>0</v>
       </c>
       <c r="Y7" s="1">
@@ -5606,22 +5649,22 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
         <v>0</v>
       </c>
       <c r="Y8" s="1">
@@ -5674,22 +5717,22 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
         <v>0</v>
       </c>
       <c r="Y9" s="1">
@@ -5742,915 +5785,915 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
         <v>0</v>
       </c>
       <c r="Y10" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" customHeight="1" spans="3:25">
-      <c r="C11" s="3">
+    <row r="11" s="5" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C11" s="5">
         <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>2007</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
         <v>2</v>
       </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3">
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
         <v>305</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" customHeight="1" spans="3:25">
-      <c r="C12" s="3">
+    <row r="12" s="5" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C12" s="5">
         <v>7</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>1006</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
         <v>50</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" customHeight="1" spans="3:25">
-      <c r="C13" s="3">
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C13" s="5">
         <v>8</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>2006</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
         <v>50</v>
       </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
-        <v>0</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" customHeight="1" spans="3:25">
-      <c r="C14" s="3">
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C14" s="5">
         <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>3006</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
         <v>50</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" customHeight="1" spans="3:25">
-      <c r="C15" s="3">
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C15" s="5">
         <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>1002</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
         <v>20</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" customHeight="1" spans="3:25">
-      <c r="C16" s="3">
+    <row r="16" s="5" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C16" s="5">
         <v>11</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="6">
         <v>2007</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
         <v>5</v>
       </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
         <v>30</v>
       </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
+      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16" s="5">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" customHeight="1" spans="3:25">
-      <c r="C17" s="3">
+    <row r="17" s="5" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C17" s="5">
         <v>12</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="6">
         <v>1007</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5">
+        <v>0</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="17" customHeight="1" spans="3:25">
-      <c r="C18" s="3">
+    <row r="18" s="5" customFormat="1" ht="17" customHeight="1" spans="3:25">
+      <c r="C18" s="5">
         <v>13</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="6">
         <v>1008</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
         <v>1</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Q18" s="5">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5">
+        <v>0</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" ht="17" customHeight="1" spans="3:25">
-      <c r="C19" s="3">
+    <row r="19" s="5" customFormat="1" ht="17" customHeight="1" spans="3:25">
+      <c r="C19" s="5">
         <v>14</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="6">
         <v>2008</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
         <v>3</v>
       </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <v>0</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0</v>
-      </c>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
-      <c r="V19" s="3">
-        <v>0</v>
-      </c>
-      <c r="W19" s="3">
-        <v>0</v>
-      </c>
-      <c r="X19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="3">
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" ht="17" customHeight="1" spans="3:25">
-      <c r="C20" s="3">
+    <row r="20" s="5" customFormat="1" ht="17" customHeight="1" spans="3:25">
+      <c r="C20" s="5">
         <v>15</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="6">
         <v>3008</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="17" customHeight="1" spans="3:25">
-      <c r="C21" s="3">
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0</v>
+      </c>
+      <c r="U20" s="5">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
+      <c r="W20" s="5">
+        <v>0</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="17" customHeight="1" spans="3:25">
+      <c r="C21" s="5">
         <v>16</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="6">
         <v>1009</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Q21" s="5">
+        <v>0</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5">
+        <v>0</v>
+      </c>
+      <c r="V21" s="5">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5">
+        <v>0</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="5">
         <v>109</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="17" customHeight="1" spans="3:25">
-      <c r="C22" s="3">
+    <row r="22" s="5" customFormat="1" ht="17" customHeight="1" spans="3:25">
+      <c r="C22" s="5">
         <v>17</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="6">
         <v>2009</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
         <v>50</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="17" customHeight="1" spans="3:25">
-      <c r="C23" s="3">
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="17" customHeight="1" spans="3:25">
+      <c r="C23" s="5">
         <v>18</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="6">
         <v>3009</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
         <v>2</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="5">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 D4 D5 C3:C5 E3:H5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:H5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -6663,35 +6706,28 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Y23"/>
+  <dimension ref="C3:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="12" width="10.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="1" customWidth="1"/>
-    <col min="14" max="15" width="13.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="1" customWidth="1"/>
-    <col min="23" max="24" width="9.75" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.875" style="1" customWidth="1"/>
-    <col min="26" max="31" width="9" style="1"/>
-    <col min="32" max="32" width="19.25" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
+    <col min="9" max="10" width="7.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="13" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:25">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -6708,61 +6744,19 @@
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:25">
+        <v>186</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
@@ -6779,61 +6773,19 @@
         <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:25">
+        <v>187</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:17">
       <c r="C5" s="2" t="s">
         <v>45</v>
       </c>
@@ -6852,205 +6804,681 @@
       <c r="H5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="19:24">
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C6" s="1">
+        <v>11001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C7" s="1">
+        <v>11002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="1">
+        <v>50</v>
+      </c>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C8" s="1">
+        <v>11003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C9" s="1">
+        <v>11004</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1004</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C10" s="1">
+        <v>11005</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C11" s="1">
+        <v>11006</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C12" s="1">
+        <v>11007</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1007</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C13" s="1">
+        <v>11008</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1008</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C14" s="1">
+        <v>11009</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1009</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C15" s="1">
+        <v>11010</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C16" s="1">
+        <v>11011</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C18" s="1">
+        <v>12001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C19" s="1">
+        <v>12002</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C20" s="1">
+        <v>12003</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C21" s="1">
+        <v>12004</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2004</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C22" s="1">
+        <v>12005</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C23" s="1">
+        <v>12006</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2006</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H23" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C24" s="1">
+        <v>12007</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2007</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H24" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C25" s="1">
+        <v>12008</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2008</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C26" s="1">
+        <v>12009</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2009</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C27" s="1">
+        <v>12010</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C28" s="1">
+        <v>12011</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C30" s="1">
+        <v>13001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3001</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H30" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C31" s="1">
+        <v>13002</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3002</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C32" s="1">
+        <v>13003</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3003</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C33" s="1">
+        <v>13004</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3004</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C34" s="1">
+        <v>13005</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3005</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C35" s="1">
+        <v>13006</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3006</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C36" s="1">
+        <v>13007</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3007</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C37" s="1">
+        <v>13008</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3008</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C38" s="1">
+        <v>13009</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3009</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C39" s="1">
+        <v>13010</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3010</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C40" s="1">
+        <v>13011</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3011</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H40" s="1">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 D4 D5 C3:C5 E3:H5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:G5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="223">
   <si>
     <t>_ID</t>
   </si>
@@ -904,6 +904,9 @@
   </si>
   <si>
     <t>PercentRate</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>基础剑术·系数倍率</t>
@@ -1190,12 +1193,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6706,10 +6709,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Q40"/>
+  <dimension ref="A3:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6814,7 +6817,13 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:14">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C6" s="1">
         <v>11001</v>
       </c>
@@ -6825,17 +6834,23 @@
         <v>1001</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H6" s="1">
         <v>50</v>
       </c>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:14">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C7" s="1">
         <v>11002</v>
       </c>
@@ -6846,17 +6861,23 @@
         <v>1002</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="H7" s="1">
         <v>50</v>
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C8" s="1">
         <v>11003</v>
       </c>
@@ -6867,16 +6888,22 @@
         <v>1003</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H8" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C9" s="1">
         <v>11004</v>
       </c>
@@ -6887,16 +6914,22 @@
         <v>1004</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H9" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C10" s="1">
         <v>11005</v>
       </c>
@@ -6907,16 +6940,22 @@
         <v>1005</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H10" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C11" s="1">
         <v>11006</v>
       </c>
@@ -6927,16 +6966,22 @@
         <v>1006</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H11" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C12" s="1">
         <v>11007</v>
       </c>
@@ -6947,16 +6992,22 @@
         <v>1007</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H12" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C13" s="1">
         <v>11008</v>
       </c>
@@ -6967,16 +7018,22 @@
         <v>1008</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H13" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C14" s="1">
         <v>11009</v>
       </c>
@@ -6987,16 +7044,22 @@
         <v>1009</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H14" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C15" s="1">
         <v>11010</v>
       </c>
@@ -7007,16 +7070,22 @@
         <v>1010</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H15" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C16" s="1">
         <v>11011</v>
       </c>
@@ -7027,16 +7096,30 @@
         <v>1011</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H16" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="17" customHeight="1" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C18" s="1">
         <v>12001</v>
       </c>
@@ -7047,16 +7130,22 @@
         <v>2001</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H18" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C19" s="1">
         <v>12002</v>
       </c>
@@ -7067,16 +7156,22 @@
         <v>2002</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H19" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C20" s="1">
         <v>12003</v>
       </c>
@@ -7087,16 +7182,22 @@
         <v>2003</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H20" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C21" s="1">
         <v>12004</v>
       </c>
@@ -7107,16 +7208,22 @@
         <v>2004</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H21" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C22" s="1">
         <v>12005</v>
       </c>
@@ -7127,16 +7234,22 @@
         <v>2005</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H22" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C23" s="1">
         <v>12006</v>
       </c>
@@ -7147,16 +7260,22 @@
         <v>2006</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H23" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C24" s="1">
         <v>12007</v>
       </c>
@@ -7167,16 +7286,22 @@
         <v>2007</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H24" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C25" s="1">
         <v>12008</v>
       </c>
@@ -7187,16 +7312,22 @@
         <v>2008</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H25" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C26" s="1">
         <v>12009</v>
       </c>
@@ -7207,16 +7338,22 @@
         <v>2009</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H26" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C27" s="1">
         <v>12010</v>
       </c>
@@ -7227,16 +7364,22 @@
         <v>2010</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H27" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C28" s="1">
         <v>12011</v>
       </c>
@@ -7247,16 +7390,30 @@
         <v>2011</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H28" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C30" s="1">
         <v>13001</v>
       </c>
@@ -7267,16 +7424,22 @@
         <v>3001</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H30" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C31" s="1">
         <v>13002</v>
       </c>
@@ -7287,16 +7450,22 @@
         <v>3002</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H31" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C32" s="1">
         <v>13003</v>
       </c>
@@ -7307,16 +7476,22 @@
         <v>3003</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H32" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C33" s="1">
         <v>13004</v>
       </c>
@@ -7327,16 +7502,22 @@
         <v>3004</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H33" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C34" s="1">
         <v>13005</v>
       </c>
@@ -7347,16 +7528,22 @@
         <v>3005</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H34" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C35" s="1">
         <v>13006</v>
       </c>
@@ -7367,16 +7554,22 @@
         <v>3006</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H35" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C36" s="1">
         <v>13007</v>
       </c>
@@ -7387,16 +7580,22 @@
         <v>3007</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H36" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C37" s="1">
         <v>13008</v>
       </c>
@@ -7407,16 +7606,22 @@
         <v>3008</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H37" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C38" s="1">
         <v>13009</v>
       </c>
@@ -7427,16 +7632,22 @@
         <v>3009</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H38" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C39" s="1">
         <v>13010</v>
       </c>
@@ -7447,16 +7658,22 @@
         <v>3010</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H39" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C40" s="1">
         <v>13011</v>
       </c>
@@ -7467,10 +7684,10 @@
         <v>3011</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H40" s="1">
         <v>50</v>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="224">
   <si>
     <t>_ID</t>
   </si>
@@ -348,6 +348,9 @@
     <t>Type</t>
   </si>
   <si>
+    <t>BuildRate</t>
+  </si>
+  <si>
     <t>技能ID</t>
   </si>
   <si>
@@ -762,7 +765,7 @@
     <t>召唤骷髅·传承</t>
   </si>
   <si>
-    <t>召唤物增加20%高级属性继承</t>
+    <t>骷髅增加20%高级属性继承</t>
   </si>
   <si>
     <t>10037</t>
@@ -801,6 +804,9 @@
     <t>召唤神兽·传承</t>
   </si>
   <si>
+    <t>神兽增加20%高级属性继承</t>
+  </si>
+  <si>
     <t>基础剑术·吸血</t>
   </si>
   <si>
@@ -906,109 +912,106 @@
     <t>PercentRate</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>基础剑术·系数倍率</t>
+    <t>基础剑术·觉醒</t>
   </si>
   <si>
     <t>提高技能系数50%倍率</t>
   </si>
   <si>
-    <t>刺杀剑术·系数倍率</t>
-  </si>
-  <si>
-    <t>半月弯刀·系数倍率</t>
-  </si>
-  <si>
-    <t>野蛮撞击·系数倍率</t>
-  </si>
-  <si>
-    <t>武力盾·系数倍率</t>
-  </si>
-  <si>
-    <t>武力精通·系数倍率</t>
-  </si>
-  <si>
-    <t>烈火剑法·系数倍率</t>
-  </si>
-  <si>
-    <t>护体神盾·系数倍率</t>
-  </si>
-  <si>
-    <t>开天斩·系数倍率</t>
-  </si>
-  <si>
-    <t>彻地钉·系数倍率</t>
-  </si>
-  <si>
-    <t>战士之魂·系数倍率</t>
-  </si>
-  <si>
-    <t>小火球</t>
-  </si>
-  <si>
-    <t>雷电术</t>
-  </si>
-  <si>
-    <t>火墙</t>
-  </si>
-  <si>
-    <t>爆裂火焰</t>
-  </si>
-  <si>
-    <t>魔法盾</t>
-  </si>
-  <si>
-    <t>法术精通</t>
-  </si>
-  <si>
-    <t>冰咆哮</t>
-  </si>
-  <si>
-    <t>瞬息移动</t>
-  </si>
-  <si>
-    <t>流星火雨</t>
-  </si>
-  <si>
-    <t>分身术</t>
-  </si>
-  <si>
-    <t>法师之魂</t>
-  </si>
-  <si>
-    <t>治疗术</t>
-  </si>
-  <si>
-    <t>火符术</t>
-  </si>
-  <si>
-    <t>施毒术</t>
-  </si>
-  <si>
-    <t>召唤骷髅</t>
-  </si>
-  <si>
-    <t>道力盾</t>
-  </si>
-  <si>
-    <t>道力精通</t>
-  </si>
-  <si>
-    <t>召唤神兽</t>
-  </si>
-  <si>
-    <t>隐身术</t>
-  </si>
-  <si>
-    <t>召唤月灵</t>
-  </si>
-  <si>
-    <t>无极道体</t>
-  </si>
-  <si>
-    <t>道士之魂</t>
+    <t>刺杀剑术·觉醒</t>
+  </si>
+  <si>
+    <t>半月弯刀·觉醒</t>
+  </si>
+  <si>
+    <t>野蛮撞击·觉醒</t>
+  </si>
+  <si>
+    <t>武力盾·觉醒</t>
+  </si>
+  <si>
+    <t>武力精通·觉醒</t>
+  </si>
+  <si>
+    <t>烈火剑法·觉醒</t>
+  </si>
+  <si>
+    <t>护体神盾·觉醒</t>
+  </si>
+  <si>
+    <t>开天斩·觉醒</t>
+  </si>
+  <si>
+    <t>彻地钉·觉醒</t>
+  </si>
+  <si>
+    <t>战士之魂·觉醒</t>
+  </si>
+  <si>
+    <t>小火球·觉醒</t>
+  </si>
+  <si>
+    <t>雷电术·觉醒</t>
+  </si>
+  <si>
+    <t>火墙·觉醒</t>
+  </si>
+  <si>
+    <t>爆裂火焰·觉醒</t>
+  </si>
+  <si>
+    <t>魔法盾·觉醒</t>
+  </si>
+  <si>
+    <t>法术精通·觉醒</t>
+  </si>
+  <si>
+    <t>冰咆哮·觉醒</t>
+  </si>
+  <si>
+    <t>瞬息移动·觉醒</t>
+  </si>
+  <si>
+    <t>流星火雨·觉醒</t>
+  </si>
+  <si>
+    <t>分身术·觉醒</t>
+  </si>
+  <si>
+    <t>法师之魂·觉醒</t>
+  </si>
+  <si>
+    <t>治疗术·觉醒</t>
+  </si>
+  <si>
+    <t>火符术·觉醒</t>
+  </si>
+  <si>
+    <t>施毒术·觉醒</t>
+  </si>
+  <si>
+    <t>召唤骷髅·觉醒</t>
+  </si>
+  <si>
+    <t>道力盾·觉醒</t>
+  </si>
+  <si>
+    <t>道力精通·觉醒</t>
+  </si>
+  <si>
+    <t>召唤神兽·觉醒</t>
+  </si>
+  <si>
+    <t>隐身术·觉醒</t>
+  </si>
+  <si>
+    <t>召唤月灵·觉醒</t>
+  </si>
+  <si>
+    <t>无极道体·觉醒</t>
+  </si>
+  <si>
+    <t>道士之魂·觉醒</t>
   </si>
 </sst>
 </file>
@@ -1993,32 +1996,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Y47"/>
+  <dimension ref="C3:Z47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6:D47"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="21.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="14.625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="10.375" style="1" customWidth="1"/>
-    <col min="13" max="15" width="13.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="1" customWidth="1"/>
-    <col min="17" max="24" width="13" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.875" style="1" customWidth="1"/>
-    <col min="26" max="31" width="9" style="1"/>
-    <col min="32" max="32" width="19.25" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="1"/>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="21.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="10.375" style="1" customWidth="1"/>
+    <col min="14" max="16" width="13.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="1" customWidth="1"/>
+    <col min="18" max="25" width="13" style="1" customWidth="1"/>
+    <col min="26" max="26" width="7.875" style="1" customWidth="1"/>
+    <col min="27" max="32" width="9" style="1"/>
+    <col min="33" max="33" width="19.25" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" customHeight="1" spans="3:25">
+    <row r="3" customHeight="1" spans="3:26">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2088,16 +2091,19 @@
       <c r="Y3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="3:25">
+      <c r="Z3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="3:26">
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -2159,87 +2165,93 @@
       <c r="Y4" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="3:25">
+      <c r="Z4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="3:26">
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" customHeight="1" spans="3:25">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
+      <c r="E6" s="1">
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>49</v>
@@ -2251,563 +2263,587 @@
         <v>51</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="5" customFormat="1" customHeight="1" spans="3:25">
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
+      <c r="E7" s="1">
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" s="5" customFormat="1" customHeight="1" spans="3:25">
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
+      <c r="E8" s="1">
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" customHeight="1" spans="3:26">
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" customHeight="1" spans="3:25">
-      <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:25">
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:26">
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>63</v>
+      <c r="E10" s="1">
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:26">
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:25">
-      <c r="C11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="X11" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:25">
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:26">
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>68</v>
+      <c r="E12" s="1">
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:26">
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:25">
-      <c r="C13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="X13" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="Y13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:25">
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:26">
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>73</v>
+      <c r="E14" s="1">
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>74</v>
@@ -2816,2406 +2852,2508 @@
         <v>75</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X14" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:25">
+    <row r="15" customHeight="1" spans="3:26">
       <c r="C15" s="1">
         <v>10010</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>73</v>
+      <c r="E15" s="1">
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>77</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X15" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:25">
+    <row r="16" customHeight="1" spans="3:26">
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:25">
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:26">
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X17" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:25">
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:26">
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>83</v>
+      <c r="E18" s="1">
+        <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:26">
+      <c r="C19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:25">
-      <c r="C19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X19" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="Y19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:25">
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:26">
       <c r="C20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>88</v>
+      <c r="E20" s="1">
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:26">
+      <c r="C21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:25">
-      <c r="C21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X21" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="Y21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:25">
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:26">
       <c r="C22" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>93</v>
+      <c r="E22" s="1">
+        <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:26">
+      <c r="C23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:25">
-      <c r="C23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X23" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="Y23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:25">
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:26">
       <c r="C24" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>98</v>
+      <c r="E24" s="1">
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:26">
+      <c r="C25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:25">
-      <c r="C25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X25" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:25">
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:26">
       <c r="C26" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>103</v>
+      <c r="E26" s="1">
+        <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:26">
+      <c r="C27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:25">
-      <c r="C27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X27" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:25">
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:26">
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>108</v>
+      <c r="E28" s="1">
+        <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>109</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:26">
+      <c r="C29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:25">
-      <c r="C29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X29" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="3:25">
+    <row r="30" customHeight="1" spans="3:26">
       <c r="C30" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X30" s="1">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:25">
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:26">
       <c r="C31" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X31" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:25">
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:26">
       <c r="C32" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>115</v>
+      <c r="E32" s="1">
+        <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:26">
+      <c r="C33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:25">
-      <c r="C33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X33" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:25">
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:26">
       <c r="C34" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>120</v>
+      <c r="E34" s="1">
+        <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>121</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X34" s="1">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:25">
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:26">
       <c r="C35" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>120</v>
+      <c r="E35" s="1">
+        <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>124</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X35" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:25">
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:26">
       <c r="C36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>126</v>
+      <c r="E36" s="1">
+        <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:26">
+      <c r="C37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:25">
-      <c r="C37" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X37" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:25">
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:26">
       <c r="C38" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>131</v>
+      <c r="E38" s="1">
+        <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:26">
+      <c r="C39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:25">
-      <c r="C39" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X39" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:25">
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:26">
       <c r="C40" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>136</v>
+      <c r="E40" s="1">
+        <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X40" s="1">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="Y40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:25">
+      <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:26">
       <c r="C41" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>136</v>
+      <c r="E41" s="1">
+        <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X41" s="1">
+        <v>52</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y41" s="1">
         <v>20</v>
       </c>
-      <c r="Y41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:25">
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:26">
       <c r="C42" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>142</v>
+      <c r="E42" s="1">
+        <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>143</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:26">
+      <c r="C43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:25">
-      <c r="C43" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X43" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="3:25">
+    <row r="44" customHeight="1" spans="3:26">
       <c r="C44" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X44" s="1">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="Y44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:25">
+      <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:26">
       <c r="C45" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X45" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="Y45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:25">
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:26">
       <c r="C46" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>149</v>
+      <c r="E46" s="1">
+        <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>150</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:26">
+      <c r="C47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X46" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:25">
-      <c r="C47" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X47" s="1">
+        <v>52</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y47" s="1">
         <v>20</v>
       </c>
-      <c r="Y47" s="1">
+      <c r="Z47" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:H5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:I5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -5229,35 +5367,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Y23"/>
+  <dimension ref="C3:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="12" width="10.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="1" customWidth="1"/>
-    <col min="14" max="15" width="13.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="1" customWidth="1"/>
-    <col min="23" max="24" width="9.75" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.875" style="1" customWidth="1"/>
-    <col min="26" max="31" width="9" style="1"/>
-    <col min="32" max="32" width="19.25" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="1"/>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="13" width="10.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="13.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="1" customWidth="1"/>
+    <col min="24" max="25" width="9.75" style="1" customWidth="1"/>
+    <col min="26" max="26" width="7.875" style="1" customWidth="1"/>
+    <col min="27" max="32" width="9" style="1"/>
+    <col min="33" max="33" width="19.25" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:25">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:26">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5327,16 +5465,19 @@
       <c r="Y3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:25">
+      <c r="Z3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:26">
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -5398,79 +5539,85 @@
       <c r="Y4" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:25">
+      <c r="Z4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:26">
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:25">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:26">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -5478,16 +5625,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>1001</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -5495,7 +5642,7 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="1">
+      <c r="K6" s="1">
         <v>0</v>
       </c>
       <c r="M6" s="1">
@@ -5508,15 +5655,15 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
         <v>20</v>
       </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="1">
         <v>0</v>
       </c>
       <c r="T6" s="5">
@@ -5534,11 +5681,14 @@
       <c r="X6" s="5">
         <v>0</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:25">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:26">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -5546,16 +5696,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>2001</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -5563,12 +5713,12 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="1">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <v>4</v>
       </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
       <c r="N7" s="1">
         <v>0</v>
       </c>
@@ -5576,15 +5726,15 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
         <v>100</v>
       </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="1">
         <v>0</v>
       </c>
       <c r="T7" s="5">
@@ -5602,11 +5752,14 @@
       <c r="X7" s="5">
         <v>0</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:25">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:26">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -5614,16 +5767,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>3001</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -5631,12 +5784,12 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="1">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
         <v>4</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
@@ -5644,15 +5797,15 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
         <v>100</v>
       </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="1">
         <v>0</v>
       </c>
       <c r="T8" s="5">
@@ -5670,11 +5823,14 @@
       <c r="X8" s="5">
         <v>0</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:25">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:26">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -5682,16 +5838,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>3002</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -5699,12 +5855,12 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="L9" s="1">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <v>4</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
       <c r="N9" s="1">
         <v>0</v>
       </c>
@@ -5712,15 +5868,15 @@
         <v>0</v>
       </c>
       <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
         <v>50</v>
       </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="1">
         <v>0</v>
       </c>
       <c r="T9" s="5">
@@ -5738,11 +5894,14 @@
       <c r="X9" s="5">
         <v>0</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:25">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:26">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -5750,16 +5909,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>1001</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -5767,28 +5926,28 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="1">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
         <v>4</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>3</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
       <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
         <v>50</v>
       </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="1">
         <v>0</v>
       </c>
       <c r="T10" s="5">
@@ -5806,28 +5965,31 @@
       <c r="X10" s="5">
         <v>0</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" customHeight="1" spans="3:25">
+    <row r="11" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C11" s="5">
         <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
         <v>2007</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
@@ -5835,12 +5997,12 @@
       <c r="J11" s="5">
         <v>0</v>
       </c>
-      <c r="L11" s="6">
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
         <v>2</v>
       </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
       <c r="N11" s="5">
         <v>0</v>
       </c>
@@ -5875,27 +6037,30 @@
         <v>0</v>
       </c>
       <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5">
         <v>305</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" customHeight="1" spans="3:25">
+    <row r="12" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C12" s="5">
         <v>7</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
         <v>1006</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -5903,7 +6068,7 @@
       <c r="J12" s="5">
         <v>0</v>
       </c>
-      <c r="L12" s="5">
+      <c r="K12" s="5">
         <v>0</v>
       </c>
       <c r="M12" s="5">
@@ -5916,11 +6081,11 @@
         <v>0</v>
       </c>
       <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
         <v>50</v>
       </c>
-      <c r="Q12" s="5">
-        <v>0</v>
-      </c>
       <c r="R12" s="5">
         <v>0</v>
       </c>
@@ -5945,25 +6110,28 @@
       <c r="Y12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" s="5" customFormat="1" customHeight="1" spans="3:25">
+      <c r="Z12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C13" s="5">
         <v>8</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
         <v>2006</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
@@ -5971,7 +6139,7 @@
       <c r="J13" s="5">
         <v>0</v>
       </c>
-      <c r="L13" s="5">
+      <c r="K13" s="5">
         <v>0</v>
       </c>
       <c r="M13" s="5">
@@ -5984,11 +6152,11 @@
         <v>0</v>
       </c>
       <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
         <v>50</v>
       </c>
-      <c r="Q13" s="5">
-        <v>0</v>
-      </c>
       <c r="R13" s="5">
         <v>0</v>
       </c>
@@ -6013,33 +6181,36 @@
       <c r="Y13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" s="5" customFormat="1" customHeight="1" spans="3:25">
+      <c r="Z13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C14" s="5">
         <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
         <v>3006</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
       <c r="J14" s="5">
         <v>0</v>
       </c>
-      <c r="L14" s="5">
+      <c r="K14" s="5">
         <v>0</v>
       </c>
       <c r="M14" s="5">
@@ -6052,11 +6223,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
         <v>50</v>
       </c>
-      <c r="Q14" s="5">
-        <v>0</v>
-      </c>
       <c r="R14" s="5">
         <v>0</v>
       </c>
@@ -6081,25 +6252,28 @@
       <c r="Y14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" s="5" customFormat="1" customHeight="1" spans="3:25">
+      <c r="Z14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C15" s="5">
         <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
         <v>1002</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
@@ -6107,7 +6281,7 @@
       <c r="J15" s="5">
         <v>0</v>
       </c>
-      <c r="L15" s="5">
+      <c r="K15" s="5">
         <v>0</v>
       </c>
       <c r="M15" s="5">
@@ -6120,11 +6294,11 @@
         <v>0</v>
       </c>
       <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
         <v>20</v>
       </c>
-      <c r="Q15" s="5">
-        <v>0</v>
-      </c>
       <c r="R15" s="5">
         <v>0</v>
       </c>
@@ -6147,40 +6321,43 @@
         <v>0</v>
       </c>
       <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" customHeight="1" spans="3:25">
+    <row r="16" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C16" s="5">
         <v>11</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
         <v>2007</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="G16" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
+        <v>172</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" s="6">
         <v>0</v>
       </c>
       <c r="J16" s="5">
         <v>0</v>
       </c>
-      <c r="L16" s="5">
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
         <v>5</v>
       </c>
-      <c r="M16" s="5">
-        <v>0</v>
-      </c>
       <c r="N16" s="5">
         <v>0</v>
       </c>
@@ -6188,11 +6365,11 @@
         <v>0</v>
       </c>
       <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
         <v>30</v>
       </c>
-      <c r="Q16" s="5">
-        <v>0</v>
-      </c>
       <c r="R16" s="5">
         <v>0</v>
       </c>
@@ -6215,35 +6392,38 @@
         <v>0</v>
       </c>
       <c r="Y16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" customHeight="1" spans="3:25">
+    <row r="17" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C17" s="5">
         <v>12</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
         <v>1007</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="G17" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
+        <v>174</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" s="6">
         <v>0</v>
       </c>
       <c r="J17" s="5">
         <v>0</v>
       </c>
-      <c r="L17" s="5">
+      <c r="K17" s="5">
         <v>0</v>
       </c>
       <c r="M17" s="5">
@@ -6283,35 +6463,38 @@
         <v>0</v>
       </c>
       <c r="Y17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" ht="17" customHeight="1" spans="3:25">
+    <row r="18" s="5" customFormat="1" ht="17" customHeight="1" spans="3:26">
       <c r="C18" s="5">
         <v>13</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
         <v>1008</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="G18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="6">
         <v>0</v>
       </c>
       <c r="J18" s="5">
         <v>0</v>
       </c>
-      <c r="L18" s="5">
+      <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="M18" s="5">
@@ -6324,10 +6507,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="5">
         <v>0</v>
@@ -6351,43 +6534,46 @@
         <v>0</v>
       </c>
       <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" ht="17" customHeight="1" spans="3:25">
+    <row r="19" s="5" customFormat="1" ht="17" customHeight="1" spans="3:26">
       <c r="C19" s="5">
         <v>14</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
         <v>2008</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="G19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" s="6">
         <v>0</v>
       </c>
       <c r="J19" s="5">
         <v>0</v>
       </c>
-      <c r="L19" s="5">
+      <c r="K19" s="5">
         <v>0</v>
       </c>
       <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>3</v>
       </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
       <c r="O19" s="5">
         <v>0</v>
       </c>
@@ -6419,40 +6605,43 @@
         <v>0</v>
       </c>
       <c r="Y19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" ht="17" customHeight="1" spans="3:25">
+    <row r="20" s="5" customFormat="1" ht="17" customHeight="1" spans="3:26">
       <c r="C20" s="5">
         <v>15</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
         <v>3008</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="G20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I20" s="6">
         <v>0</v>
       </c>
       <c r="J20" s="5">
         <v>0</v>
       </c>
-      <c r="L20" s="5">
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
         <v>3</v>
       </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
       <c r="N20" s="5">
         <v>0</v>
       </c>
@@ -6489,33 +6678,36 @@
       <c r="Y20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" s="5" customFormat="1" ht="17" customHeight="1" spans="3:25">
+      <c r="Z20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="17" customHeight="1" spans="3:26">
       <c r="C21" s="5">
         <v>16</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
         <v>1009</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
+      <c r="G21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I21" s="6">
         <v>0</v>
       </c>
       <c r="J21" s="5">
         <v>0</v>
       </c>
-      <c r="L21" s="5">
+      <c r="K21" s="5">
         <v>0</v>
       </c>
       <c r="M21" s="5">
@@ -6528,11 +6720,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
         <v>3</v>
       </c>
-      <c r="Q21" s="5">
-        <v>0</v>
-      </c>
       <c r="R21" s="5">
         <v>0</v>
       </c>
@@ -6555,35 +6747,38 @@
         <v>0</v>
       </c>
       <c r="Y21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="5">
         <v>109</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" ht="17" customHeight="1" spans="3:25">
+    <row r="22" s="5" customFormat="1" ht="17" customHeight="1" spans="3:26">
       <c r="C22" s="5">
         <v>17</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
         <v>2009</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="G22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22" s="6">
         <v>0</v>
       </c>
       <c r="J22" s="5">
         <v>0</v>
       </c>
-      <c r="L22" s="5">
+      <c r="K22" s="5">
         <v>0</v>
       </c>
       <c r="M22" s="5">
@@ -6602,11 +6797,11 @@
         <v>0</v>
       </c>
       <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
         <v>50</v>
       </c>
-      <c r="S22" s="5">
-        <v>0</v>
-      </c>
       <c r="T22" s="5">
         <v>0</v>
       </c>
@@ -6625,41 +6820,44 @@
       <c r="Y22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="17" customHeight="1" spans="3:25">
+      <c r="Z22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="17" customHeight="1" spans="3:26">
       <c r="C23" s="5">
         <v>18</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
         <v>3009</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
+      <c r="G23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I23" s="6">
         <v>0</v>
       </c>
       <c r="J23" s="5">
         <v>0</v>
       </c>
-      <c r="L23" s="5">
+      <c r="K23" s="5">
         <v>0</v>
       </c>
       <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
         <v>2</v>
       </c>
-      <c r="N23" s="5">
-        <v>0</v>
-      </c>
       <c r="O23" s="5">
         <v>0</v>
       </c>
@@ -6691,12 +6889,15 @@
         <v>0</v>
       </c>
       <c r="Y23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:H5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:I5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -6709,28 +6910,28 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:Q40"/>
+  <dimension ref="C3:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
-    <col min="9" max="10" width="7.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
-    <col min="14" max="16" width="13" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
+    <col min="10" max="11" width="7.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" style="1" customWidth="1"/>
+    <col min="15" max="17" width="13" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:17">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:18">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -6747,9 +6948,11 @@
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -6758,16 +6961,17 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:17">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:18">
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -6776,9 +6980,11 @@
         <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -6787,27 +6993,30 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:17">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:18">
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -6816,14 +7025,9 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C6" s="1">
         <v>11001</v>
       </c>
@@ -6831,26 +7035,23 @@
         <v>2</v>
       </c>
       <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
         <v>1001</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" s="1">
         <v>50</v>
       </c>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C7" s="1">
         <v>11002</v>
       </c>
@@ -6858,26 +7059,23 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
         <v>1002</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>50</v>
       </c>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C8" s="1">
         <v>11003</v>
       </c>
@@ -6885,25 +7083,22 @@
         <v>2</v>
       </c>
       <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
         <v>1003</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="G8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C9" s="1">
         <v>11004</v>
       </c>
@@ -6911,25 +7106,22 @@
         <v>2</v>
       </c>
       <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
         <v>1004</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="G9" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C10" s="1">
         <v>11005</v>
       </c>
@@ -6937,25 +7129,22 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
         <v>1005</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="G10" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C11" s="1">
         <v>11006</v>
       </c>
@@ -6963,25 +7152,22 @@
         <v>2</v>
       </c>
       <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
         <v>1006</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="G11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I11" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C12" s="1">
         <v>11007</v>
       </c>
@@ -6989,25 +7175,22 @@
         <v>2</v>
       </c>
       <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
         <v>1007</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="G12" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I12" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C13" s="1">
         <v>11008</v>
       </c>
@@ -7015,25 +7198,22 @@
         <v>2</v>
       </c>
       <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
         <v>1008</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="G13" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I13" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C14" s="1">
         <v>11009</v>
       </c>
@@ -7041,25 +7221,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
         <v>1009</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="G14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C15" s="1">
         <v>11010</v>
       </c>
@@ -7067,25 +7244,22 @@
         <v>3</v>
       </c>
       <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
         <v>1010</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="G15" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I15" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C16" s="1">
         <v>11011</v>
       </c>
@@ -7093,33 +7267,22 @@
         <v>3</v>
       </c>
       <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
         <v>1011</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="G16" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C18" s="1">
         <v>12001</v>
       </c>
@@ -7127,25 +7290,22 @@
         <v>2</v>
       </c>
       <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
         <v>2001</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="G18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C19" s="1">
         <v>12002</v>
       </c>
@@ -7153,25 +7313,22 @@
         <v>2</v>
       </c>
       <c r="E19" s="1">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1">
         <v>2002</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="G19" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I19" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C20" s="1">
         <v>12003</v>
       </c>
@@ -7179,25 +7336,22 @@
         <v>2</v>
       </c>
       <c r="E20" s="1">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
         <v>2003</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="G20" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C21" s="1">
         <v>12004</v>
       </c>
@@ -7205,25 +7359,22 @@
         <v>2</v>
       </c>
       <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
         <v>2004</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="G21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C22" s="1">
         <v>12005</v>
       </c>
@@ -7231,25 +7382,22 @@
         <v>2</v>
       </c>
       <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
         <v>2005</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="G22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C23" s="1">
         <v>12006</v>
       </c>
@@ -7257,25 +7405,22 @@
         <v>2</v>
       </c>
       <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
         <v>2006</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="G23" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C24" s="1">
         <v>12007</v>
       </c>
@@ -7283,25 +7428,22 @@
         <v>2</v>
       </c>
       <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
         <v>2007</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="G24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I24" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C25" s="1">
         <v>12008</v>
       </c>
@@ -7309,25 +7451,22 @@
         <v>2</v>
       </c>
       <c r="E25" s="1">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
         <v>2008</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="G25" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C26" s="1">
         <v>12009</v>
       </c>
@@ -7335,25 +7474,22 @@
         <v>2</v>
       </c>
       <c r="E26" s="1">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1">
         <v>2009</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="G26" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I26" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C27" s="1">
         <v>12010</v>
       </c>
@@ -7361,25 +7497,22 @@
         <v>3</v>
       </c>
       <c r="E27" s="1">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
         <v>2010</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="G27" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C28" s="1">
         <v>12011</v>
       </c>
@@ -7387,33 +7520,22 @@
         <v>3</v>
       </c>
       <c r="E28" s="1">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1">
         <v>2011</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="G28" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C30" s="1">
         <v>13001</v>
       </c>
@@ -7421,25 +7543,22 @@
         <v>2</v>
       </c>
       <c r="E30" s="1">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
         <v>3001</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="G30" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C31" s="1">
         <v>13002</v>
       </c>
@@ -7447,25 +7566,22 @@
         <v>2</v>
       </c>
       <c r="E31" s="1">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1">
         <v>3002</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="G31" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I31" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C32" s="1">
         <v>13003</v>
       </c>
@@ -7473,25 +7589,22 @@
         <v>2</v>
       </c>
       <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
         <v>3003</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="G32" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C33" s="1">
         <v>13004</v>
       </c>
@@ -7499,25 +7612,22 @@
         <v>2</v>
       </c>
       <c r="E33" s="1">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
         <v>3004</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="G33" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C34" s="1">
         <v>13005</v>
       </c>
@@ -7525,25 +7635,22 @@
         <v>2</v>
       </c>
       <c r="E34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1">
         <v>3005</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="G34" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C35" s="1">
         <v>13006</v>
       </c>
@@ -7551,25 +7658,22 @@
         <v>2</v>
       </c>
       <c r="E35" s="1">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1">
         <v>3006</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="G35" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I35" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C36" s="1">
         <v>13007</v>
       </c>
@@ -7577,25 +7681,22 @@
         <v>2</v>
       </c>
       <c r="E36" s="1">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1">
         <v>3007</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H36" s="1">
+      <c r="G36" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I36" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C37" s="1">
         <v>13008</v>
       </c>
@@ -7603,25 +7704,22 @@
         <v>2</v>
       </c>
       <c r="E37" s="1">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1">
         <v>3008</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="G37" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I37" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C38" s="1">
         <v>13009</v>
       </c>
@@ -7629,25 +7727,22 @@
         <v>2</v>
       </c>
       <c r="E38" s="1">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
         <v>3009</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H38" s="1">
+      <c r="G38" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I38" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C39" s="1">
         <v>13010</v>
       </c>
@@ -7655,25 +7750,22 @@
         <v>3</v>
       </c>
       <c r="E39" s="1">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1">
         <v>3010</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H39" s="1">
+      <c r="G39" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I39" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>188</v>
-      </c>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C40" s="1">
         <v>13011</v>
       </c>
@@ -7681,21 +7773,24 @@
         <v>3</v>
       </c>
       <c r="E40" s="1">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1">
         <v>3011</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H40" s="1">
+      <c r="G40" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I40" s="1">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:G5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:H5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="231">
   <si>
     <t>_ID</t>
   </si>
@@ -906,16 +906,25 @@
     <t>月灵数量+2</t>
   </si>
   <si>
+    <t>此技能ID</t>
+  </si>
+  <si>
+    <t>此技能描述</t>
+  </si>
+  <si>
     <t>系数倍率</t>
   </si>
   <si>
+    <t>Center</t>
+  </si>
+  <si>
     <t>PercentRate</t>
   </si>
   <si>
     <t>基础剑术·觉醒</t>
   </si>
   <si>
-    <t>提高技能系数50%倍率</t>
+    <t>提高此技能系数50%倍率</t>
   </si>
   <si>
     <t>刺杀剑术·觉醒</t>
@@ -948,6 +957,15 @@
     <t>战士之魂·觉醒</t>
   </si>
   <si>
+    <t>彻地钉·突袭</t>
+  </si>
+  <si>
+    <t>地钉在敌方周围触发</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
     <t>小火球·觉醒</t>
   </si>
   <si>
@@ -979,6 +997,9 @@
   </si>
   <si>
     <t>法师之魂·觉醒</t>
+  </si>
+  <si>
+    <t>提高15S持续时间</t>
   </si>
   <si>
     <t>治疗术·觉醒</t>
@@ -1024,7 +1045,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,12 +1064,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1537,13 +1552,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1552,129 +1570,125 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1998,8 +2012,8 @@
   <sheetPr/>
   <dimension ref="C3:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
@@ -2022,228 +2036,228 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="3:26">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:26">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Y4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:26">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="X5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Y5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="Z5" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" customHeight="1" spans="3:26">
+    <row r="6" s="4" customFormat="1" customHeight="1" spans="3:26">
       <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
@@ -2317,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" customHeight="1" spans="3:26">
+    <row r="7" s="4" customFormat="1" customHeight="1" spans="3:26">
       <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
@@ -2391,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" customHeight="1" spans="3:26">
+    <row r="8" s="4" customFormat="1" customHeight="1" spans="3:26">
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
@@ -2465,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" customHeight="1" spans="3:26">
+    <row r="9" s="4" customFormat="1" customHeight="1" spans="3:26">
       <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
@@ -2591,19 +2605,19 @@
       <c r="S10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="W10" s="5" t="s">
+      <c r="T10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="X10" s="4" t="s">
         <v>52</v>
       </c>
       <c r="Y10" s="1">
@@ -2665,19 +2679,19 @@
       <c r="S11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="X11" s="5" t="s">
+      <c r="T11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X11" s="4" t="s">
         <v>54</v>
       </c>
       <c r="Y11" s="1">
@@ -2739,19 +2753,19 @@
       <c r="S12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="W12" s="5" t="s">
+      <c r="T12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="X12" s="5" t="s">
+      <c r="X12" s="4" t="s">
         <v>52</v>
       </c>
       <c r="Y12" s="1">
@@ -2813,19 +2827,19 @@
       <c r="S13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="X13" s="5" t="s">
+      <c r="T13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13" s="4" t="s">
         <v>54</v>
       </c>
       <c r="Y13" s="1">
@@ -5370,7 +5384,7 @@
   <dimension ref="C3:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="L1" sqref="L$1:L$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5396,224 +5410,224 @@
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Y4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="X5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Y5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="Z5" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5666,22 +5680,22 @@
       <c r="S6" s="1">
         <v>0</v>
       </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
         <v>0</v>
       </c>
       <c r="Z6" s="1">
@@ -5737,22 +5751,22 @@
       <c r="S7" s="1">
         <v>0</v>
       </c>
-      <c r="T7" s="5">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5">
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
         <v>0</v>
       </c>
       <c r="Z7" s="1">
@@ -5808,22 +5822,22 @@
       <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="5">
-        <v>0</v>
-      </c>
-      <c r="U8" s="5">
-        <v>0</v>
-      </c>
-      <c r="V8" s="5">
-        <v>0</v>
-      </c>
-      <c r="W8" s="5">
-        <v>0</v>
-      </c>
-      <c r="X8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="5">
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
         <v>0</v>
       </c>
       <c r="Z8" s="1">
@@ -5879,22 +5893,22 @@
       <c r="S9" s="1">
         <v>0</v>
       </c>
-      <c r="T9" s="5">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5">
-        <v>0</v>
-      </c>
-      <c r="V9" s="5">
-        <v>0</v>
-      </c>
-      <c r="W9" s="5">
-        <v>0</v>
-      </c>
-      <c r="X9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="5">
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
         <v>0</v>
       </c>
       <c r="Z9" s="1">
@@ -5950,30 +5964,30 @@
       <c r="S10" s="1">
         <v>0</v>
       </c>
-      <c r="T10" s="5">
-        <v>0</v>
-      </c>
-      <c r="U10" s="5">
-        <v>0</v>
-      </c>
-      <c r="V10" s="5">
-        <v>0</v>
-      </c>
-      <c r="W10" s="5">
-        <v>0</v>
-      </c>
-      <c r="X10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="5">
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
         <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C11" s="5">
+    <row r="11" s="4" customFormat="1" customHeight="1" spans="3:26">
+      <c r="C11" s="4">
         <v>6</v>
       </c>
       <c r="D11" s="1">
@@ -5982,69 +5996,69 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>2007</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
         <v>2</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
-        <v>0</v>
-      </c>
-      <c r="S11" s="5">
-        <v>0</v>
-      </c>
-      <c r="T11" s="5">
-        <v>0</v>
-      </c>
-      <c r="U11" s="5">
-        <v>0</v>
-      </c>
-      <c r="V11" s="5">
-        <v>0</v>
-      </c>
-      <c r="W11" s="5">
-        <v>0</v>
-      </c>
-      <c r="X11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="5">
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
         <v>305</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C12" s="5">
+    <row r="12" s="4" customFormat="1" customHeight="1" spans="3:26">
+      <c r="C12" s="4">
         <v>7</v>
       </c>
       <c r="D12" s="1">
@@ -6053,69 +6067,69 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>1006</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
         <v>50</v>
       </c>
-      <c r="R12" s="5">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5">
-        <v>0</v>
-      </c>
-      <c r="T12" s="5">
-        <v>0</v>
-      </c>
-      <c r="U12" s="5">
-        <v>0</v>
-      </c>
-      <c r="V12" s="5">
-        <v>0</v>
-      </c>
-      <c r="W12" s="5">
-        <v>0</v>
-      </c>
-      <c r="X12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="5" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C13" s="5">
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" customHeight="1" spans="3:26">
+      <c r="C13" s="4">
         <v>8</v>
       </c>
       <c r="D13" s="1">
@@ -6124,69 +6138,69 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>2006</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5">
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
         <v>50</v>
       </c>
-      <c r="R13" s="5">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5">
-        <v>0</v>
-      </c>
-      <c r="T13" s="5">
-        <v>0</v>
-      </c>
-      <c r="U13" s="5">
-        <v>0</v>
-      </c>
-      <c r="V13" s="5">
-        <v>0</v>
-      </c>
-      <c r="W13" s="5">
-        <v>0</v>
-      </c>
-      <c r="X13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="5" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C14" s="5">
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" customHeight="1" spans="3:26">
+      <c r="C14" s="4">
         <v>9</v>
       </c>
       <c r="D14" s="1">
@@ -6195,69 +6209,69 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>3006</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="5">
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
         <v>50</v>
       </c>
-      <c r="R14" s="5">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5">
-        <v>0</v>
-      </c>
-      <c r="T14" s="5">
-        <v>0</v>
-      </c>
-      <c r="U14" s="5">
-        <v>0</v>
-      </c>
-      <c r="V14" s="5">
-        <v>0</v>
-      </c>
-      <c r="W14" s="5">
-        <v>0</v>
-      </c>
-      <c r="X14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="5" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C15" s="5">
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="4" customFormat="1" customHeight="1" spans="3:26">
+      <c r="C15" s="4">
         <v>10</v>
       </c>
       <c r="D15" s="1">
@@ -6266,69 +6280,69 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>1002</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0</v>
-      </c>
-      <c r="P15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5">
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
         <v>20</v>
       </c>
-      <c r="R15" s="5">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5">
-        <v>0</v>
-      </c>
-      <c r="T15" s="5">
-        <v>0</v>
-      </c>
-      <c r="U15" s="5">
-        <v>0</v>
-      </c>
-      <c r="V15" s="5">
-        <v>0</v>
-      </c>
-      <c r="W15" s="5">
-        <v>0</v>
-      </c>
-      <c r="X15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="5">
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C16" s="5">
+    <row r="16" s="4" customFormat="1" customHeight="1" spans="3:26">
+      <c r="C16" s="4">
         <v>11</v>
       </c>
       <c r="D16" s="1">
@@ -6337,69 +6351,69 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>2007</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
         <v>5</v>
       </c>
-      <c r="N16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="5">
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
         <v>30</v>
       </c>
-      <c r="R16" s="5">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5">
-        <v>0</v>
-      </c>
-      <c r="T16" s="5">
-        <v>0</v>
-      </c>
-      <c r="U16" s="5">
-        <v>0</v>
-      </c>
-      <c r="V16" s="5">
-        <v>0</v>
-      </c>
-      <c r="W16" s="5">
-        <v>0</v>
-      </c>
-      <c r="X16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="5">
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C17" s="5">
+    <row r="17" s="4" customFormat="1" customHeight="1" spans="3:26">
+      <c r="C17" s="4">
         <v>12</v>
       </c>
       <c r="D17" s="1">
@@ -6408,69 +6422,69 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>1007</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
-        <v>0</v>
-      </c>
-      <c r="P17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>0</v>
-      </c>
-      <c r="R17" s="5">
-        <v>0</v>
-      </c>
-      <c r="S17" s="5">
-        <v>0</v>
-      </c>
-      <c r="T17" s="5">
-        <v>0</v>
-      </c>
-      <c r="U17" s="5">
-        <v>0</v>
-      </c>
-      <c r="V17" s="5">
-        <v>0</v>
-      </c>
-      <c r="W17" s="5">
-        <v>0</v>
-      </c>
-      <c r="X17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="5">
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" ht="17" customHeight="1" spans="3:26">
-      <c r="C18" s="5">
+    <row r="18" s="4" customFormat="1" ht="17" customHeight="1" spans="3:26">
+      <c r="C18" s="4">
         <v>13</v>
       </c>
       <c r="D18" s="1">
@@ -6479,69 +6493,69 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>1008</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="O18" s="5">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>1</v>
-      </c>
-      <c r="R18" s="5">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5">
-        <v>0</v>
-      </c>
-      <c r="T18" s="5">
-        <v>0</v>
-      </c>
-      <c r="U18" s="5">
-        <v>0</v>
-      </c>
-      <c r="V18" s="5">
-        <v>0</v>
-      </c>
-      <c r="W18" s="5">
-        <v>0</v>
-      </c>
-      <c r="X18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="5">
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" ht="17" customHeight="1" spans="3:26">
-      <c r="C19" s="5">
+    <row r="19" s="4" customFormat="1" ht="17" customHeight="1" spans="3:26">
+      <c r="C19" s="4">
         <v>14</v>
       </c>
       <c r="D19" s="1">
@@ -6550,69 +6564,69 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>2008</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
         <v>3</v>
       </c>
-      <c r="O19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>0</v>
-      </c>
-      <c r="R19" s="5">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
-        <v>0</v>
-      </c>
-      <c r="T19" s="5">
-        <v>0</v>
-      </c>
-      <c r="U19" s="5">
-        <v>0</v>
-      </c>
-      <c r="V19" s="5">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="5">
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" ht="17" customHeight="1" spans="3:26">
-      <c r="C20" s="5">
+    <row r="20" s="4" customFormat="1" ht="17" customHeight="1" spans="3:26">
+      <c r="C20" s="4">
         <v>15</v>
       </c>
       <c r="D20" s="1">
@@ -6621,69 +6635,69 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>3008</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5">
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
         <v>3</v>
       </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>0</v>
-      </c>
-      <c r="R20" s="5">
-        <v>0</v>
-      </c>
-      <c r="S20" s="5">
-        <v>0</v>
-      </c>
-      <c r="T20" s="5">
-        <v>0</v>
-      </c>
-      <c r="U20" s="5">
-        <v>0</v>
-      </c>
-      <c r="V20" s="5">
-        <v>0</v>
-      </c>
-      <c r="W20" s="5">
-        <v>0</v>
-      </c>
-      <c r="X20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" s="5" customFormat="1" ht="17" customHeight="1" spans="3:26">
-      <c r="C21" s="5">
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="1" ht="17" customHeight="1" spans="3:26">
+      <c r="C21" s="4">
         <v>16</v>
       </c>
       <c r="D21" s="1">
@@ -6692,69 +6706,69 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>1009</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
-        <v>0</v>
-      </c>
-      <c r="P21" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="5">
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
         <v>3</v>
       </c>
-      <c r="R21" s="5">
-        <v>0</v>
-      </c>
-      <c r="S21" s="5">
-        <v>0</v>
-      </c>
-      <c r="T21" s="5">
-        <v>0</v>
-      </c>
-      <c r="U21" s="5">
-        <v>0</v>
-      </c>
-      <c r="V21" s="5">
-        <v>0</v>
-      </c>
-      <c r="W21" s="5">
-        <v>0</v>
-      </c>
-      <c r="X21" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="5">
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" ht="17" customHeight="1" spans="3:26">
-      <c r="C22" s="5">
+    <row r="22" s="4" customFormat="1" ht="17" customHeight="1" spans="3:26">
+      <c r="C22" s="4">
         <v>17</v>
       </c>
       <c r="D22" s="1">
@@ -6763,69 +6777,69 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>2009</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0</v>
-      </c>
-      <c r="O22" s="5">
-        <v>0</v>
-      </c>
-      <c r="P22" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>0</v>
-      </c>
-      <c r="R22" s="5">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5">
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
         <v>50</v>
       </c>
-      <c r="T22" s="5">
-        <v>0</v>
-      </c>
-      <c r="U22" s="5">
-        <v>0</v>
-      </c>
-      <c r="V22" s="5">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5">
-        <v>0</v>
-      </c>
-      <c r="X22" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="17" customHeight="1" spans="3:26">
-      <c r="C23" s="5">
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="4" customFormat="1" ht="17" customHeight="1" spans="3:26">
+      <c r="C23" s="4">
         <v>18</v>
       </c>
       <c r="D23" s="1">
@@ -6834,64 +6848,64 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>3009</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0</v>
-      </c>
-      <c r="K23" s="5">
-        <v>0</v>
-      </c>
-      <c r="M23" s="5">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5">
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
         <v>2</v>
       </c>
-      <c r="O23" s="5">
-        <v>0</v>
-      </c>
-      <c r="P23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>0</v>
-      </c>
-      <c r="R23" s="5">
-        <v>0</v>
-      </c>
-      <c r="S23" s="5">
-        <v>0</v>
-      </c>
-      <c r="T23" s="5">
-        <v>0</v>
-      </c>
-      <c r="U23" s="5">
-        <v>0</v>
-      </c>
-      <c r="V23" s="5">
-        <v>0</v>
-      </c>
-      <c r="W23" s="5">
-        <v>0</v>
-      </c>
-      <c r="X23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="5">
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6910,10 +6924,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:R40"/>
+  <dimension ref="C3:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6922,7 +6936,7 @@
     <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
-    <col min="10" max="11" width="7.75" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.625" style="1" customWidth="1"/>
@@ -6932,100 +6946,112 @@
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:18">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="3:18">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="3:18">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="J5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C6" s="1">
@@ -7035,21 +7061,24 @@
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1">
         <v>1001</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I6" s="1">
         <v>50</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C7" s="1">
@@ -7059,23 +7088,26 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F7" s="1">
         <v>1002</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>192</v>
+      <c r="G7" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I7" s="1">
         <v>50</v>
       </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C8" s="1">
         <v>11003</v>
       </c>
@@ -7083,22 +7115,25 @@
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1">
         <v>1003</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>193</v>
+      <c r="G8" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I8" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C9" s="1">
         <v>11004</v>
       </c>
@@ -7106,22 +7141,25 @@
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1">
         <v>1004</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="I9" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C10" s="1">
         <v>11005</v>
       </c>
@@ -7129,22 +7167,25 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1">
         <v>1005</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>195</v>
+      <c r="G10" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I10" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C11" s="1">
         <v>11006</v>
       </c>
@@ -7152,22 +7193,26 @@
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1">
         <v>1006</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>196</v>
+      <c r="G11" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I11" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C12" s="1">
         <v>11007</v>
       </c>
@@ -7175,22 +7220,26 @@
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1">
         <v>1007</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>197</v>
+      <c r="G12" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I12" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C13" s="1">
         <v>11008</v>
       </c>
@@ -7198,22 +7247,26 @@
         <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1">
         <v>1008</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>198</v>
+      <c r="G13" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I13" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C14" s="1">
         <v>11009</v>
       </c>
@@ -7221,45 +7274,53 @@
         <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1">
         <v>1009</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>199</v>
+      <c r="G14" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I14" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C15" s="1">
         <v>11010</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1">
         <v>1010</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>200</v>
+      <c r="G15" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I15" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C16" s="1">
         <v>11011</v>
       </c>
@@ -7267,525 +7328,733 @@
         <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>1011</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>201</v>
+      <c r="G16" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I16" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" customHeight="1" spans="10:11">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C18" s="1">
-        <v>12001</v>
+        <v>11110</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
-        <v>2001</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>202</v>
+        <v>1010</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="I18" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C19" s="1">
-        <v>12002</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2002</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I19" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C20" s="1">
-        <v>12003</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I20" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C21" s="1">
-        <v>12004</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2004</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I21" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C22" s="1">
-        <v>12005</v>
+        <v>12001</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F22" s="1">
-        <v>2005</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>206</v>
+        <v>2001</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I22" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C23" s="1">
-        <v>12006</v>
+        <v>12002</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F23" s="1">
-        <v>2006</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>207</v>
+        <v>2002</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I23" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C24" s="1">
-        <v>12007</v>
+        <v>12003</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
       <c r="E24" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1">
-        <v>2007</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>208</v>
+        <v>2003</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I24" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C25" s="1">
-        <v>12008</v>
+        <v>12004</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>209</v>
+        <v>2004</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I25" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C26" s="1">
-        <v>12009</v>
+        <v>12005</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F26" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>210</v>
+        <v>2005</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I26" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C27" s="1">
-        <v>12010</v>
+        <v>12006</v>
       </c>
       <c r="D27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>211</v>
+        <v>2006</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I27" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C28" s="1">
-        <v>12011</v>
+        <v>12007</v>
       </c>
       <c r="D28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F28" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>212</v>
+        <v>2007</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I28" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C29" s="1">
+        <v>12008</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>50</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="1">
+        <v>50</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C30" s="1">
-        <v>13001</v>
+        <v>12009</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
       </c>
       <c r="E30" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F30" s="1">
-        <v>3001</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>213</v>
+        <v>2009</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I30" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C31" s="1">
-        <v>13002</v>
+        <v>12010</v>
       </c>
       <c r="D31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1">
-        <v>3002</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>214</v>
+        <v>2010</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I31" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C32" s="1">
-        <v>13003</v>
+        <v>12011</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>3003</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>215</v>
+        <v>2011</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I32" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C33" s="1">
-        <v>13004</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>10</v>
-      </c>
-      <c r="F33" s="1">
-        <v>3004</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I33" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C34" s="1">
-        <v>13005</v>
+        <v>12110</v>
       </c>
       <c r="D34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F34" s="1">
-        <v>3005</v>
-      </c>
-      <c r="G34" s="3" t="s">
+        <v>2010</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>217</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="I34" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C35" s="1">
-        <v>13006</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="J34" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C39" s="1">
+        <v>13001</v>
+      </c>
+      <c r="D39" s="1">
         <v>2</v>
       </c>
-      <c r="E35" s="1">
-        <v>10</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3006</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I35" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C36" s="1">
-        <v>13007</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>10</v>
-      </c>
-      <c r="F36" s="1">
-        <v>3007</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I36" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C37" s="1">
-        <v>13008</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>10</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3008</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="E39" s="1">
+        <v>200</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3001</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I37" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C38" s="1">
-        <v>13009</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>10</v>
-      </c>
-      <c r="F38" s="1">
-        <v>3009</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I38" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C39" s="1">
-        <v>13010</v>
-      </c>
-      <c r="D39" s="1">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
-        <v>10</v>
-      </c>
-      <c r="F39" s="1">
-        <v>3010</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I39" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C40" s="1">
-        <v>13011</v>
+        <v>13002</v>
       </c>
       <c r="D40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F40" s="1">
-        <v>3011</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>223</v>
+        <v>3002</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I40" s="1">
         <v>50</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C41" s="1">
+        <v>13003</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>100</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3003</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41" s="1">
+        <v>50</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C42" s="1">
+        <v>13004</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>100</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3004</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I42" s="1">
+        <v>50</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C43" s="1">
+        <v>13005</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>100</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3005</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I43" s="1">
+        <v>50</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C44" s="1">
+        <v>13006</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>100</v>
+      </c>
+      <c r="F44" s="1">
+        <v>3006</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" s="1">
+        <v>50</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C45" s="1">
+        <v>13007</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>50</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3007</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I45" s="1">
+        <v>50</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C46" s="1">
+        <v>13008</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>50</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3008</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" s="1">
+        <v>50</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C47" s="1">
+        <v>13009</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>50</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3009</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I47" s="1">
+        <v>50</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C48" s="1">
+        <v>13010</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3010</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" s="1">
+        <v>50</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C49" s="1">
+        <v>13011</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3011</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="1">
+        <v>50</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="232">
   <si>
     <t>_ID</t>
   </si>
@@ -952,6 +952,9 @@
   </si>
   <si>
     <t>彻地钉·觉醒</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>战士之魂·觉醒</t>
@@ -1211,12 +1214,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1682,9 +1685,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2036,228 +2038,228 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="3:26">
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:26">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:26">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" customHeight="1" spans="3:26">
+    <row r="6" s="3" customFormat="1" customHeight="1" spans="3:26">
       <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
@@ -2331,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" customHeight="1" spans="3:26">
+    <row r="7" s="3" customFormat="1" customHeight="1" spans="3:26">
       <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
@@ -2405,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" customHeight="1" spans="3:26">
+    <row r="8" s="3" customFormat="1" customHeight="1" spans="3:26">
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" customHeight="1" spans="3:26">
+    <row r="9" s="3" customFormat="1" customHeight="1" spans="3:26">
       <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
@@ -2605,19 +2607,19 @@
       <c r="S10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="W10" s="4" t="s">
+      <c r="T10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="X10" s="3" t="s">
         <v>52</v>
       </c>
       <c r="Y10" s="1">
@@ -2679,19 +2681,19 @@
       <c r="S11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="X11" s="4" t="s">
+      <c r="T11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Y11" s="1">
@@ -2753,19 +2755,19 @@
       <c r="S12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="W12" s="4" t="s">
+      <c r="T12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="X12" s="3" t="s">
         <v>52</v>
       </c>
       <c r="Y12" s="1">
@@ -2827,19 +2829,19 @@
       <c r="S13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="X13" s="4" t="s">
+      <c r="T13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Y13" s="1">
@@ -5384,7 +5386,7 @@
   <dimension ref="C3:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L$1:L$1048576"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5410,224 +5412,224 @@
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5680,22 +5682,22 @@
       <c r="S6" s="1">
         <v>0</v>
       </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4">
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
         <v>0</v>
       </c>
       <c r="Z6" s="1">
@@ -5751,22 +5753,22 @@
       <c r="S7" s="1">
         <v>0</v>
       </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0</v>
-      </c>
-      <c r="V7" s="4">
-        <v>0</v>
-      </c>
-      <c r="W7" s="4">
-        <v>0</v>
-      </c>
-      <c r="X7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="4">
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
         <v>0</v>
       </c>
       <c r="Z7" s="1">
@@ -5822,22 +5824,22 @@
       <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4">
-        <v>0</v>
-      </c>
-      <c r="W8" s="4">
-        <v>0</v>
-      </c>
-      <c r="X8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>0</v>
       </c>
       <c r="Z8" s="1">
@@ -5893,22 +5895,22 @@
       <c r="S9" s="1">
         <v>0</v>
       </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
         <v>0</v>
       </c>
       <c r="Z9" s="1">
@@ -5964,30 +5966,30 @@
       <c r="S10" s="1">
         <v>0</v>
       </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C11" s="4">
+    <row r="11" s="3" customFormat="1" customHeight="1" spans="3:26">
+      <c r="C11" s="3">
         <v>6</v>
       </c>
       <c r="D11" s="1">
@@ -5996,69 +5998,69 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>2007</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
         <v>2</v>
       </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4">
-        <v>0</v>
-      </c>
-      <c r="V11" s="4">
-        <v>0</v>
-      </c>
-      <c r="W11" s="4">
-        <v>0</v>
-      </c>
-      <c r="X11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="4">
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
         <v>305</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C12" s="4">
+    <row r="12" s="3" customFormat="1" customHeight="1" spans="3:26">
+      <c r="C12" s="3">
         <v>7</v>
       </c>
       <c r="D12" s="1">
@@ -6067,69 +6069,69 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1006</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>50</v>
       </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4">
-        <v>0</v>
-      </c>
-      <c r="V12" s="4">
-        <v>0</v>
-      </c>
-      <c r="W12" s="4">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C13" s="4">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" customHeight="1" spans="3:26">
+      <c r="C13" s="3">
         <v>8</v>
       </c>
       <c r="D13" s="1">
@@ -6138,69 +6140,69 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>2006</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4">
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
         <v>50</v>
       </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
-        <v>0</v>
-      </c>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4">
-        <v>0</v>
-      </c>
-      <c r="V13" s="4">
-        <v>0</v>
-      </c>
-      <c r="W13" s="4">
-        <v>0</v>
-      </c>
-      <c r="X13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C14" s="4">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" customHeight="1" spans="3:26">
+      <c r="C14" s="3">
         <v>9</v>
       </c>
       <c r="D14" s="1">
@@ -6209,69 +6211,69 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>3006</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>50</v>
       </c>
-      <c r="R14" s="4">
-        <v>0</v>
-      </c>
-      <c r="S14" s="4">
-        <v>0</v>
-      </c>
-      <c r="T14" s="4">
-        <v>0</v>
-      </c>
-      <c r="U14" s="4">
-        <v>0</v>
-      </c>
-      <c r="V14" s="4">
-        <v>0</v>
-      </c>
-      <c r="W14" s="4">
-        <v>0</v>
-      </c>
-      <c r="X14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="4" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C15" s="4">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" customHeight="1" spans="3:26">
+      <c r="C15" s="3">
         <v>10</v>
       </c>
       <c r="D15" s="1">
@@ -6280,69 +6282,69 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>1002</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>20</v>
       </c>
-      <c r="R15" s="4">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4">
-        <v>0</v>
-      </c>
-      <c r="T15" s="4">
-        <v>0</v>
-      </c>
-      <c r="U15" s="4">
-        <v>0</v>
-      </c>
-      <c r="V15" s="4">
-        <v>0</v>
-      </c>
-      <c r="W15" s="4">
-        <v>0</v>
-      </c>
-      <c r="X15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="4">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C16" s="4">
+    <row r="16" s="3" customFormat="1" customHeight="1" spans="3:26">
+      <c r="C16" s="3">
         <v>11</v>
       </c>
       <c r="D16" s="1">
@@ -6351,69 +6353,69 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>2007</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
         <v>5</v>
       </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
         <v>30</v>
       </c>
-      <c r="R16" s="4">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4">
-        <v>0</v>
-      </c>
-      <c r="V16" s="4">
-        <v>0</v>
-      </c>
-      <c r="W16" s="4">
-        <v>0</v>
-      </c>
-      <c r="X16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="4">
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" customHeight="1" spans="3:26">
-      <c r="C17" s="4">
+    <row r="17" s="3" customFormat="1" customHeight="1" spans="3:26">
+      <c r="C17" s="3">
         <v>12</v>
       </c>
       <c r="D17" s="1">
@@ -6422,69 +6424,69 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>1007</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4">
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" ht="17" customHeight="1" spans="3:26">
-      <c r="C18" s="4">
+    <row r="18" s="3" customFormat="1" ht="17" customHeight="1" spans="3:26">
+      <c r="C18" s="3">
         <v>13</v>
       </c>
       <c r="D18" s="1">
@@ -6493,69 +6495,69 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>1008</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>1</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4">
-        <v>0</v>
-      </c>
-      <c r="V18" s="4">
-        <v>0</v>
-      </c>
-      <c r="W18" s="4">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="4">
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" ht="17" customHeight="1" spans="3:26">
-      <c r="C19" s="4">
+    <row r="19" s="3" customFormat="1" ht="17" customHeight="1" spans="3:26">
+      <c r="C19" s="3">
         <v>14</v>
       </c>
       <c r="D19" s="1">
@@ -6564,69 +6566,69 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>2008</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
         <v>3</v>
       </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4">
-        <v>0</v>
-      </c>
-      <c r="V19" s="4">
-        <v>0</v>
-      </c>
-      <c r="W19" s="4">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="4">
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" ht="17" customHeight="1" spans="3:26">
-      <c r="C20" s="4">
+    <row r="20" s="3" customFormat="1" ht="17" customHeight="1" spans="3:26">
+      <c r="C20" s="3">
         <v>15</v>
       </c>
       <c r="D20" s="1">
@@ -6635,69 +6637,69 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>3008</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>3</v>
       </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <v>0</v>
-      </c>
-      <c r="T20" s="4">
-        <v>0</v>
-      </c>
-      <c r="U20" s="4">
-        <v>0</v>
-      </c>
-      <c r="V20" s="4">
-        <v>0</v>
-      </c>
-      <c r="W20" s="4">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" s="4" customFormat="1" ht="17" customHeight="1" spans="3:26">
-      <c r="C21" s="4">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="17" customHeight="1" spans="3:26">
+      <c r="C21" s="3">
         <v>16</v>
       </c>
       <c r="D21" s="1">
@@ -6706,69 +6708,69 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>1009</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>3</v>
       </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="4">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" ht="17" customHeight="1" spans="3:26">
-      <c r="C22" s="4">
+    <row r="22" s="3" customFormat="1" ht="17" customHeight="1" spans="3:26">
+      <c r="C22" s="3">
         <v>17</v>
       </c>
       <c r="D22" s="1">
@@ -6777,69 +6779,69 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>2009</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4">
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>50</v>
       </c>
-      <c r="T22" s="4">
-        <v>0</v>
-      </c>
-      <c r="U22" s="4">
-        <v>0</v>
-      </c>
-      <c r="V22" s="4">
-        <v>0</v>
-      </c>
-      <c r="W22" s="4">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" s="4" customFormat="1" ht="17" customHeight="1" spans="3:26">
-      <c r="C23" s="4">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="17" customHeight="1" spans="3:26">
+      <c r="C23" s="3">
         <v>18</v>
       </c>
       <c r="D23" s="1">
@@ -6848,64 +6850,64 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>3009</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="I23" s="5">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0</v>
-      </c>
-      <c r="N23" s="4">
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>2</v>
       </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
-      <c r="P23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0</v>
-      </c>
-      <c r="S23" s="4">
-        <v>0</v>
-      </c>
-      <c r="T23" s="4">
-        <v>0</v>
-      </c>
-      <c r="U23" s="4">
-        <v>0</v>
-      </c>
-      <c r="V23" s="4">
-        <v>0</v>
-      </c>
-      <c r="W23" s="4">
-        <v>0</v>
-      </c>
-      <c r="X23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="4">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6924,10 +6926,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:R49"/>
+  <dimension ref="A3:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6946,112 +6948,112 @@
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:18">
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="3:18">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="3:18">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C6" s="1">
@@ -7078,7 +7080,7 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C7" s="1">
@@ -7105,7 +7107,7 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="O7" s="4"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C8" s="1">
@@ -7146,7 +7148,7 @@
       <c r="F9" s="1">
         <v>1004</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>197</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -7210,7 +7212,7 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C12" s="1">
@@ -7237,7 +7239,7 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C13" s="1">
@@ -7264,7 +7266,7 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C14" s="1">
@@ -7291,7 +7293,7 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C15" s="1">
@@ -7318,9 +7320,15 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="C16" s="1">
         <v>11011</v>
       </c>
@@ -7334,7 +7342,7 @@
         <v>1011</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>194</v>
@@ -7345,11 +7353,11 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" customHeight="1" spans="10:11">
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C18" s="1">
@@ -7365,53 +7373,32 @@
         <v>1010</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I18" s="1">
         <v>50</v>
       </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="10:11">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="10:11">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="10:11">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C22" s="1">
@@ -7426,8 +7413,8 @@
       <c r="F22" s="1">
         <v>2001</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>208</v>
+      <c r="G22" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>194</v>
@@ -7435,10 +7422,10 @@
       <c r="I22" s="1">
         <v>50</v>
       </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4"/>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C23" s="1">
@@ -7454,7 +7441,7 @@
         <v>2002</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>194</v>
@@ -7462,10 +7449,10 @@
       <c r="I23" s="1">
         <v>50</v>
       </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4"/>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C24" s="1">
@@ -7481,7 +7468,7 @@
         <v>2003</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>194</v>
@@ -7489,7 +7476,7 @@
       <c r="I24" s="1">
         <v>50</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7507,7 +7494,7 @@
         <v>2004</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>194</v>
@@ -7515,7 +7502,7 @@
       <c r="I25" s="1">
         <v>50</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7533,7 +7520,7 @@
         <v>2005</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>194</v>
@@ -7541,7 +7528,7 @@
       <c r="I26" s="1">
         <v>50</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7558,8 +7545,8 @@
       <c r="F27" s="1">
         <v>2006</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>213</v>
+      <c r="G27" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>194</v>
@@ -7567,7 +7554,7 @@
       <c r="I27" s="1">
         <v>50</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7585,7 +7572,7 @@
         <v>2007</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>194</v>
@@ -7593,7 +7580,7 @@
       <c r="I28" s="1">
         <v>50</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7611,7 +7598,7 @@
         <v>2008</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>194</v>
@@ -7619,7 +7606,7 @@
       <c r="I29" s="1">
         <v>50</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7637,7 +7624,7 @@
         <v>2009</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>194</v>
@@ -7645,7 +7632,7 @@
       <c r="I30" s="1">
         <v>50</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7663,7 +7650,7 @@
         <v>2010</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>194</v>
@@ -7671,11 +7658,17 @@
       <c r="I31" s="1">
         <v>50</v>
       </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="C32" s="1">
         <v>12011</v>
       </c>
@@ -7689,7 +7682,7 @@
         <v>2011</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>194</v>
@@ -7697,7 +7690,7 @@
       <c r="I32" s="1">
         <v>50</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7715,10 +7708,10 @@
         <v>2010</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I34" s="1">
         <v>50</v>
@@ -7726,50 +7719,6 @@
       <c r="J34" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" s="2" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" s="2" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" s="2" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" s="2" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C39" s="1">
@@ -7785,7 +7734,7 @@
         <v>3001</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>194</v>
@@ -7793,7 +7742,7 @@
       <c r="I39" s="1">
         <v>50</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7810,8 +7759,8 @@
       <c r="F40" s="1">
         <v>3002</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>221</v>
+      <c r="G40" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>194</v>
@@ -7819,7 +7768,7 @@
       <c r="I40" s="1">
         <v>50</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7837,7 +7786,7 @@
         <v>3003</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>194</v>
@@ -7845,7 +7794,7 @@
       <c r="I41" s="1">
         <v>50</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7863,7 +7812,7 @@
         <v>3004</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>194</v>
@@ -7871,7 +7820,7 @@
       <c r="I42" s="1">
         <v>50</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7889,7 +7838,7 @@
         <v>3005</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>194</v>
@@ -7897,7 +7846,7 @@
       <c r="I43" s="1">
         <v>50</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7914,8 +7863,8 @@
       <c r="F44" s="1">
         <v>3006</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>225</v>
+      <c r="G44" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>194</v>
@@ -7923,7 +7872,7 @@
       <c r="I44" s="1">
         <v>50</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7941,7 +7890,7 @@
         <v>3007</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>194</v>
@@ -7949,7 +7898,7 @@
       <c r="I45" s="1">
         <v>50</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7967,7 +7916,7 @@
         <v>3008</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>194</v>
@@ -7975,7 +7924,7 @@
       <c r="I46" s="1">
         <v>50</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7993,7 +7942,7 @@
         <v>3009</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>194</v>
@@ -8001,7 +7950,7 @@
       <c r="I47" s="1">
         <v>50</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="3">
         <v>0</v>
       </c>
     </row>
@@ -8019,7 +7968,7 @@
         <v>3010</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>194</v>
@@ -8027,11 +7976,17 @@
       <c r="I48" s="1">
         <v>50</v>
       </c>
-      <c r="J48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="C49" s="1">
         <v>13011</v>
       </c>
@@ -8045,7 +8000,7 @@
         <v>3011</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>194</v>
@@ -8053,7 +8008,7 @@
       <c r="I49" s="1">
         <v>50</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -1214,12 +1214,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6928,8 +6928,8 @@
   <sheetPr/>
   <dimension ref="A3:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:B49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -7641,7 +7641,7 @@
         <v>12010</v>
       </c>
       <c r="D31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1">
         <v>5</v>
@@ -7959,7 +7959,7 @@
         <v>13010</v>
       </c>
       <c r="D48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" s="1">
         <v>5</v>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -335,12 +335,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 以自己为圆心
+1 距离1格</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="230">
   <si>
     <t>_ID</t>
   </si>
@@ -915,9 +938,6 @@
     <t>系数倍率</t>
   </si>
   <si>
-    <t>Center</t>
-  </si>
-  <si>
     <t>PercentRate</t>
   </si>
   <si>
@@ -960,13 +980,10 @@
     <t>战士之魂·觉醒</t>
   </si>
   <si>
-    <t>彻地钉·突袭</t>
-  </si>
-  <si>
-    <t>地钉在敌方周围触发</t>
-  </si>
-  <si>
-    <t>Enemy</t>
+    <t>彻地钉·大大大</t>
+  </si>
+  <si>
+    <t>增加一圈攻击范围</t>
   </si>
   <si>
     <t>小火球·觉醒</t>
@@ -5386,7 +5403,7 @@
   <dimension ref="C3:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K1" sqref="K$1:K$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6928,8 +6945,8 @@
   <sheetPr/>
   <dimension ref="A3:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6973,7 +6990,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>191</v>
+        <v>8</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -7003,13 +7020,13 @@
         <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -7045,7 +7062,7 @@
         <v>46</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -7069,15 +7086,18 @@
         <v>1001</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="I6" s="1">
         <v>50</v>
       </c>
       <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <v>0</v>
       </c>
       <c r="O6" s="3"/>
@@ -7096,10 +7116,10 @@
         <v>1002</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I7" s="1">
         <v>50</v>
@@ -7107,9 +7127,12 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C8" s="1">
         <v>11003</v>
       </c>
@@ -7123,10 +7146,10 @@
         <v>1003</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I8" s="1">
         <v>50</v>
@@ -7134,8 +7157,11 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C9" s="1">
         <v>11004</v>
       </c>
@@ -7149,10 +7175,10 @@
         <v>1004</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I9" s="1">
         <v>50</v>
@@ -7160,8 +7186,11 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C10" s="1">
         <v>11005</v>
       </c>
@@ -7175,15 +7204,18 @@
         <v>1005</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I10" s="1">
         <v>50</v>
       </c>
       <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7201,10 +7233,10 @@
         <v>1006</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I11" s="1">
         <v>50</v>
@@ -7212,7 +7244,9 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C12" s="1">
@@ -7228,10 +7262,10 @@
         <v>1007</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I12" s="1">
         <v>50</v>
@@ -7239,7 +7273,9 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C13" s="1">
@@ -7255,10 +7291,10 @@
         <v>1008</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I13" s="1">
         <v>50</v>
@@ -7266,7 +7302,9 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C14" s="1">
@@ -7282,10 +7320,10 @@
         <v>1009</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I14" s="1">
         <v>50</v>
@@ -7293,7 +7331,9 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C15" s="1">
@@ -7309,10 +7349,10 @@
         <v>1010</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I15" s="1">
         <v>50</v>
@@ -7320,14 +7360,16 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" s="1">
         <v>11011</v>
@@ -7342,10 +7384,10 @@
         <v>1011</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I16" s="1">
         <v>50</v>
@@ -7353,7 +7395,9 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="10:11">
       <c r="J17" s="3"/>
@@ -7373,10 +7417,10 @@
         <v>1010</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="I18" s="1">
         <v>50</v>
@@ -7384,8 +7428,8 @@
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>208</v>
+      <c r="K18" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="10:11">
@@ -7414,10 +7458,10 @@
         <v>2001</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I22" s="1">
         <v>50</v>
@@ -7425,7 +7469,9 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C23" s="1">
@@ -7441,10 +7487,10 @@
         <v>2002</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I23" s="1">
         <v>50</v>
@@ -7452,9 +7498,11 @@
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C24" s="1">
         <v>12003</v>
       </c>
@@ -7468,10 +7516,10 @@
         <v>2003</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I24" s="1">
         <v>50</v>
@@ -7479,8 +7527,11 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C25" s="1">
         <v>12004</v>
       </c>
@@ -7494,10 +7545,10 @@
         <v>2004</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I25" s="1">
         <v>50</v>
@@ -7505,8 +7556,11 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C26" s="1">
         <v>12005</v>
       </c>
@@ -7520,10 +7574,10 @@
         <v>2005</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I26" s="1">
         <v>50</v>
@@ -7531,8 +7585,11 @@
       <c r="J26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C27" s="1">
         <v>12006</v>
       </c>
@@ -7546,10 +7603,10 @@
         <v>2006</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I27" s="1">
         <v>50</v>
@@ -7557,8 +7614,11 @@
       <c r="J27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C28" s="1">
         <v>12007</v>
       </c>
@@ -7572,10 +7632,10 @@
         <v>2007</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I28" s="1">
         <v>50</v>
@@ -7583,8 +7643,11 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C29" s="1">
         <v>12008</v>
       </c>
@@ -7598,10 +7661,10 @@
         <v>2008</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I29" s="1">
         <v>50</v>
@@ -7609,8 +7672,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C30" s="1">
         <v>12009</v>
       </c>
@@ -7624,10 +7690,10 @@
         <v>2009</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I30" s="1">
         <v>50</v>
@@ -7635,8 +7701,11 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C31" s="1">
         <v>12010</v>
       </c>
@@ -7650,10 +7719,10 @@
         <v>2010</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I31" s="1">
         <v>50</v>
@@ -7661,13 +7730,16 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C32" s="1">
         <v>12011</v>
@@ -7682,10 +7754,10 @@
         <v>2011</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I32" s="1">
         <v>50</v>
@@ -7693,8 +7765,11 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C34" s="1">
         <v>12110</v>
       </c>
@@ -7708,10 +7783,10 @@
         <v>2010</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="I34" s="1">
         <v>50</v>
@@ -7719,8 +7794,23 @@
       <c r="J34" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="11:11">
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" customHeight="1" spans="11:11">
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" customHeight="1" spans="11:11">
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" customHeight="1" spans="11:11">
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C39" s="1">
         <v>13001</v>
       </c>
@@ -7734,10 +7824,10 @@
         <v>3001</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I39" s="1">
         <v>50</v>
@@ -7745,8 +7835,11 @@
       <c r="J39" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C40" s="1">
         <v>13002</v>
       </c>
@@ -7760,10 +7853,10 @@
         <v>3002</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I40" s="1">
         <v>50</v>
@@ -7771,8 +7864,11 @@
       <c r="J40" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C41" s="1">
         <v>13003</v>
       </c>
@@ -7786,10 +7882,10 @@
         <v>3003</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I41" s="1">
         <v>50</v>
@@ -7797,8 +7893,11 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C42" s="1">
         <v>13004</v>
       </c>
@@ -7812,10 +7911,10 @@
         <v>3004</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I42" s="1">
         <v>50</v>
@@ -7823,8 +7922,11 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C43" s="1">
         <v>13005</v>
       </c>
@@ -7838,10 +7940,10 @@
         <v>3005</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I43" s="1">
         <v>50</v>
@@ -7849,8 +7951,11 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C44" s="1">
         <v>13006</v>
       </c>
@@ -7864,10 +7969,10 @@
         <v>3006</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I44" s="1">
         <v>50</v>
@@ -7875,8 +7980,11 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C45" s="1">
         <v>13007</v>
       </c>
@@ -7890,10 +7998,10 @@
         <v>3007</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I45" s="1">
         <v>50</v>
@@ -7901,8 +8009,11 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C46" s="1">
         <v>13008</v>
       </c>
@@ -7916,10 +8027,10 @@
         <v>3008</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I46" s="1">
         <v>50</v>
@@ -7927,8 +8038,11 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C47" s="1">
         <v>13009</v>
       </c>
@@ -7942,10 +8056,10 @@
         <v>3009</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I47" s="1">
         <v>50</v>
@@ -7953,8 +8067,11 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C48" s="1">
         <v>13010</v>
       </c>
@@ -7968,10 +8085,10 @@
         <v>3010</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I48" s="1">
         <v>50</v>
@@ -7979,13 +8096,16 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C49" s="1">
         <v>13011</v>
@@ -8000,15 +8120,18 @@
         <v>3011</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I49" s="1">
         <v>50</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Excel/SkillSuitConfig.xlsx
+++ b/Excel/SkillSuitConfig.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="231">
   <si>
     <t>_ID</t>
   </si>
@@ -1017,6 +1017,9 @@
   </si>
   <si>
     <t>法师之魂·觉醒</t>
+  </si>
+  <si>
+    <t>分身术·持久</t>
   </si>
   <si>
     <t>提高15S持续时间</t>
@@ -5403,7 +5406,7 @@
   <dimension ref="C3:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K$1:K$1048576"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6945,8 +6948,8 @@
   <sheetPr/>
   <dimension ref="A3:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -7783,10 +7786,10 @@
         <v>2010</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I34" s="1">
         <v>50</v>
@@ -7824,7 +7827,7 @@
         <v>3001</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>193</v>
@@ -7853,7 +7856,7 @@
         <v>3002</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>193</v>
@@ -7882,7 +7885,7 @@
         <v>3003</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>193</v>
@@ -7911,7 +7914,7 @@
         <v>3004</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>193</v>
@@ -7940,7 +7943,7 @@
         <v>3005</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>193</v>
@@ -7969,7 +7972,7 @@
         <v>3006</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>193</v>
@@ -7998,7 +8001,7 @@
         <v>3007</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>193</v>
@@ -8027,7 +8030,7 @@
         <v>3008</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>193</v>
@@ -8056,7 +8059,7 @@
         <v>3009</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>193</v>
@@ -8085,7 +8088,7 @@
         <v>3010</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>193</v>
@@ -8120,7 +8123,7 @@
         <v>3011</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>193</v>
